--- a/pipe/coefficients2.xlsx
+++ b/pipe/coefficients2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
   <workbookPr showInkAnnotation="0" hidePivotFieldList="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="13960" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="13960" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Constants" sheetId="2" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="580" uniqueCount="335">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="903" uniqueCount="419">
   <si>
     <t>Matrix A</t>
   </si>
@@ -772,24 +772,6 @@
     <t>v_49</t>
   </si>
   <si>
-    <t>Kc</t>
-  </si>
-  <si>
-    <t>Kc1</t>
-  </si>
-  <si>
-    <t>Kc2</t>
-  </si>
-  <si>
-    <t>Ke</t>
-  </si>
-  <si>
-    <t>Ke1</t>
-  </si>
-  <si>
-    <t>Ktee</t>
-  </si>
-  <si>
     <t>v_111</t>
   </si>
   <si>
@@ -1028,17 +1010,288 @@
   </si>
   <si>
     <t>Equation 108</t>
+  </si>
+  <si>
+    <t>Group 5</t>
+  </si>
+  <si>
+    <t>Group 6</t>
+  </si>
+  <si>
+    <t>Equation 109</t>
+  </si>
+  <si>
+    <t>Equation 110</t>
+  </si>
+  <si>
+    <t>Equation 111</t>
+  </si>
+  <si>
+    <t>Equation 112</t>
+  </si>
+  <si>
+    <t>Equation 113</t>
+  </si>
+  <si>
+    <t>Equation 114</t>
+  </si>
+  <si>
+    <t>Equation 115</t>
+  </si>
+  <si>
+    <t>Equation 116</t>
+  </si>
+  <si>
+    <t>Equation 117</t>
+  </si>
+  <si>
+    <t>Equation 118</t>
+  </si>
+  <si>
+    <t>Equation 119</t>
+  </si>
+  <si>
+    <t>Equation 120</t>
+  </si>
+  <si>
+    <t>Equation 121</t>
+  </si>
+  <si>
+    <t>Equation 122</t>
+  </si>
+  <si>
+    <t>Equation 123</t>
+  </si>
+  <si>
+    <t>Equation 124</t>
+  </si>
+  <si>
+    <t>Equation 125</t>
+  </si>
+  <si>
+    <t>Equation 126</t>
+  </si>
+  <si>
+    <t>Equation 127</t>
+  </si>
+  <si>
+    <t>Equation 128</t>
+  </si>
+  <si>
+    <t>Equation 129</t>
+  </si>
+  <si>
+    <t>Equation 130</t>
+  </si>
+  <si>
+    <t>Equation 131</t>
+  </si>
+  <si>
+    <t>Equation 132</t>
+  </si>
+  <si>
+    <t>Equation 133</t>
+  </si>
+  <si>
+    <t>Equation 134</t>
+  </si>
+  <si>
+    <t>Equation 135</t>
+  </si>
+  <si>
+    <t>Equation 136</t>
+  </si>
+  <si>
+    <t>Equation 137</t>
+  </si>
+  <si>
+    <t>Equation 138</t>
+  </si>
+  <si>
+    <t>Equation 139</t>
+  </si>
+  <si>
+    <t>Equation 140</t>
+  </si>
+  <si>
+    <t>Equation 141</t>
+  </si>
+  <si>
+    <t>Equation 142</t>
+  </si>
+  <si>
+    <t>Equation 143</t>
+  </si>
+  <si>
+    <t>Equation 144</t>
+  </si>
+  <si>
+    <t>Equation 145</t>
+  </si>
+  <si>
+    <t>Equation 146</t>
+  </si>
+  <si>
+    <t>Equation 147</t>
+  </si>
+  <si>
+    <t>Equation 148</t>
+  </si>
+  <si>
+    <t>P_Fa</t>
+  </si>
+  <si>
+    <t>P_Fb</t>
+  </si>
+  <si>
+    <t>P_Ga</t>
+  </si>
+  <si>
+    <t>P_Gb</t>
+  </si>
+  <si>
+    <t>P_Ha</t>
+  </si>
+  <si>
+    <t>P_Hb</t>
+  </si>
+  <si>
+    <t>P_Ia</t>
+  </si>
+  <si>
+    <t>P_Ib</t>
+  </si>
+  <si>
+    <t>P_Ja</t>
+  </si>
+  <si>
+    <t>P_Jb</t>
+  </si>
+  <si>
+    <t>P_Ka</t>
+  </si>
+  <si>
+    <t>P_Kb</t>
+  </si>
+  <si>
+    <t>P_La</t>
+  </si>
+  <si>
+    <t>P_Lb</t>
+  </si>
+  <si>
+    <t>P_Ma</t>
+  </si>
+  <si>
+    <t>P_Mb</t>
+  </si>
+  <si>
+    <t>P_Na</t>
+  </si>
+  <si>
+    <t>P_Nb</t>
+  </si>
+  <si>
+    <t>P_Oa</t>
+  </si>
+  <si>
+    <t>P_Ob</t>
+  </si>
+  <si>
+    <t>P_Pa</t>
+  </si>
+  <si>
+    <t>P_Pb</t>
+  </si>
+  <si>
+    <t>P_Qb</t>
+  </si>
+  <si>
+    <t>P_Qa</t>
+  </si>
+  <si>
+    <t>P_Ra</t>
+  </si>
+  <si>
+    <t>P_Rb</t>
+  </si>
+  <si>
+    <t>P_Sa</t>
+  </si>
+  <si>
+    <t>P_Sb</t>
+  </si>
+  <si>
+    <t>P_Ta</t>
+  </si>
+  <si>
+    <t>P_Tb</t>
+  </si>
+  <si>
+    <t>P_Ua</t>
+  </si>
+  <si>
+    <t>P_Ub</t>
+  </si>
+  <si>
+    <t>P_Va</t>
+  </si>
+  <si>
+    <t>P_Vb</t>
+  </si>
+  <si>
+    <t>P_Wa</t>
+  </si>
+  <si>
+    <t>P_Wb</t>
+  </si>
+  <si>
+    <t>P_Xa</t>
+  </si>
+  <si>
+    <t>P_Xb</t>
+  </si>
+  <si>
+    <t>P_Ya</t>
+  </si>
+  <si>
+    <t>P_Yb</t>
+  </si>
+  <si>
+    <t>Ktee/2</t>
+  </si>
+  <si>
+    <t>Ke1/2</t>
+  </si>
+  <si>
+    <t>Kc2/2</t>
+  </si>
+  <si>
+    <t>Kc12/</t>
+  </si>
+  <si>
+    <t>Ke2/2</t>
+  </si>
+  <si>
+    <t>Kc*rho/2</t>
+  </si>
+  <si>
+    <t>Ktee*rho/2</t>
+  </si>
+  <si>
+    <t>Ke*rho/2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.000000000E+00"/>
     <numFmt numFmtId="165" formatCode="0.00000000%"/>
+    <numFmt numFmtId="166" formatCode="0.0000000000"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1062,6 +1315,19 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1071,7 +1337,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -1181,8 +1447,45 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="41">
+  <cellStyleXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1224,8 +1527,34 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -1256,8 +1585,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="41">
+  <cellStyles count="67">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1278,6 +1619,19 @@
     <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1298,6 +1652,19 @@
     <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="65" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1627,10 +1994,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AS18"/>
+  <dimension ref="A1:CG18"/>
   <sheetViews>
-    <sheetView topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="Y19" sqref="Y19"/>
+    <sheetView topLeftCell="BW1" workbookViewId="0">
+      <selection activeCell="O4" sqref="O4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1643,7 +2010,7 @@
     <col min="45" max="45" width="12.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:45" ht="16" thickBot="1">
+    <row r="1" spans="1:85" ht="16" thickBot="1">
       <c r="A1" s="6" t="s">
         <v>185</v>
       </c>
@@ -1654,7 +2021,7 @@
       <c r="F1" s="6"/>
       <c r="G1" s="6"/>
     </row>
-    <row r="2" spans="1:45" ht="16" thickBot="1">
+    <row r="2" spans="1:85" ht="16" thickBot="1">
       <c r="A2" s="7" t="s">
         <v>95</v>
       </c>
@@ -1665,8 +2032,15 @@
       <c r="F2" s="8"/>
       <c r="G2" s="8"/>
       <c r="H2" s="9"/>
-    </row>
-    <row r="3" spans="1:45">
+      <c r="K2" t="s">
+        <v>414</v>
+      </c>
+      <c r="L2">
+        <f>0.5*B4/2</f>
+        <v>250</v>
+      </c>
+    </row>
+    <row r="3" spans="1:85">
       <c r="A3" s="3" t="s">
         <v>187</v>
       </c>
@@ -1689,20 +2063,21 @@
         <v>1.3888888888888888E-11</v>
       </c>
       <c r="K3" t="s">
+        <v>413</v>
+      </c>
+      <c r="L3">
+        <f>0.5*B4/2</f>
         <v>250</v>
       </c>
-      <c r="L3">
-        <v>0.5</v>
-      </c>
       <c r="N3" t="s">
-        <v>254</v>
+        <v>411</v>
       </c>
       <c r="O3">
-        <f>2</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:45">
+        <f>2*B4/2</f>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:85">
       <c r="A4" s="1" t="s">
         <v>188</v>
       </c>
@@ -1728,33 +2103,35 @@
         <v>1.3888888888888888E-2</v>
       </c>
       <c r="K4" t="s">
-        <v>251</v>
+        <v>412</v>
       </c>
       <c r="L4">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:45">
+        <f>1*B4/2</f>
+        <v>500</v>
+      </c>
+    </row>
+    <row r="5" spans="1:85">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="K5" t="s">
-        <v>253</v>
+        <v>415</v>
       </c>
       <c r="L5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:45" ht="16" thickBot="1">
+        <f>1*B4/2</f>
+        <v>500</v>
+      </c>
+    </row>
+    <row r="6" spans="1:85" ht="16" thickBot="1">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
     </row>
-    <row r="7" spans="1:45" ht="16" thickBot="1">
+    <row r="7" spans="1:85" ht="16" thickBot="1">
       <c r="B7" s="7" t="s">
         <v>190</v>
       </c>
@@ -1802,7 +2179,7 @@
       <c r="AR7" s="8"/>
       <c r="AS7" s="9"/>
     </row>
-    <row r="8" spans="1:45">
+    <row r="8" spans="1:85">
       <c r="B8" s="3" t="s">
         <v>144</v>
       </c>
@@ -1855,8 +2232,52 @@
       <c r="AQ8" s="11"/>
       <c r="AR8" s="11"/>
       <c r="AS8" s="12"/>
-    </row>
-    <row r="9" spans="1:45">
+      <c r="AT8" s="15" t="s">
+        <v>329</v>
+      </c>
+      <c r="AU8" s="16"/>
+      <c r="AV8" s="16"/>
+      <c r="AW8" s="16"/>
+      <c r="AX8" s="16"/>
+      <c r="AY8" s="16"/>
+      <c r="AZ8" s="16"/>
+      <c r="BA8" s="16"/>
+      <c r="BB8" s="16"/>
+      <c r="BC8" s="16"/>
+      <c r="BD8" s="16"/>
+      <c r="BE8" s="16"/>
+      <c r="BF8" s="16"/>
+      <c r="BG8" s="16"/>
+      <c r="BH8" s="16"/>
+      <c r="BI8" s="16"/>
+      <c r="BJ8" s="16"/>
+      <c r="BK8" s="16"/>
+      <c r="BL8" s="16"/>
+      <c r="BM8" s="17"/>
+      <c r="BN8" s="15" t="s">
+        <v>330</v>
+      </c>
+      <c r="BO8" s="16"/>
+      <c r="BP8" s="16"/>
+      <c r="BQ8" s="16"/>
+      <c r="BR8" s="16"/>
+      <c r="BS8" s="16"/>
+      <c r="BT8" s="16"/>
+      <c r="BU8" s="16"/>
+      <c r="BV8" s="16"/>
+      <c r="BW8" s="16"/>
+      <c r="BX8" s="16"/>
+      <c r="BY8" s="16"/>
+      <c r="BZ8" s="16"/>
+      <c r="CA8" s="16"/>
+      <c r="CB8" s="16"/>
+      <c r="CC8" s="16"/>
+      <c r="CD8" s="16"/>
+      <c r="CE8" s="16"/>
+      <c r="CF8" s="16"/>
+      <c r="CG8" s="17"/>
+    </row>
+    <row r="9" spans="1:85">
       <c r="B9" t="s">
         <v>92</v>
       </c>
@@ -1989,8 +2410,128 @@
       <c r="AS9" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="10" spans="1:45">
+      <c r="AT9" s="14" t="s">
+        <v>249</v>
+      </c>
+      <c r="AU9" s="14" t="s">
+        <v>250</v>
+      </c>
+      <c r="AV9" s="14" t="s">
+        <v>251</v>
+      </c>
+      <c r="AW9" s="14" t="s">
+        <v>252</v>
+      </c>
+      <c r="AX9" s="14" t="s">
+        <v>253</v>
+      </c>
+      <c r="AY9" s="14" t="s">
+        <v>254</v>
+      </c>
+      <c r="AZ9" s="14" t="s">
+        <v>255</v>
+      </c>
+      <c r="BA9" s="14" t="s">
+        <v>256</v>
+      </c>
+      <c r="BB9" s="14" t="s">
+        <v>257</v>
+      </c>
+      <c r="BC9" s="14" t="s">
+        <v>258</v>
+      </c>
+      <c r="BD9" s="14" t="s">
+        <v>259</v>
+      </c>
+      <c r="BE9" s="14" t="s">
+        <v>260</v>
+      </c>
+      <c r="BF9" s="14" t="s">
+        <v>261</v>
+      </c>
+      <c r="BG9" s="14" t="s">
+        <v>262</v>
+      </c>
+      <c r="BH9" s="14" t="s">
+        <v>263</v>
+      </c>
+      <c r="BI9" s="14" t="s">
+        <v>264</v>
+      </c>
+      <c r="BJ9" s="14" t="s">
+        <v>265</v>
+      </c>
+      <c r="BK9" s="14" t="s">
+        <v>266</v>
+      </c>
+      <c r="BL9" s="14" t="s">
+        <v>267</v>
+      </c>
+      <c r="BM9" s="14" t="s">
+        <v>268</v>
+      </c>
+      <c r="BN9" s="14" t="s">
+        <v>269</v>
+      </c>
+      <c r="BO9" s="14" t="s">
+        <v>270</v>
+      </c>
+      <c r="BP9" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="BQ9" s="14" t="s">
+        <v>272</v>
+      </c>
+      <c r="BR9" s="14" t="s">
+        <v>273</v>
+      </c>
+      <c r="BS9" s="14" t="s">
+        <v>274</v>
+      </c>
+      <c r="BT9" s="14" t="s">
+        <v>275</v>
+      </c>
+      <c r="BU9" s="14" t="s">
+        <v>276</v>
+      </c>
+      <c r="BV9" s="14" t="s">
+        <v>277</v>
+      </c>
+      <c r="BW9" s="14" t="s">
+        <v>278</v>
+      </c>
+      <c r="BX9" s="14" t="s">
+        <v>279</v>
+      </c>
+      <c r="BY9" s="14" t="s">
+        <v>280</v>
+      </c>
+      <c r="BZ9" s="14" t="s">
+        <v>281</v>
+      </c>
+      <c r="CA9" s="14" t="s">
+        <v>282</v>
+      </c>
+      <c r="CB9" s="14" t="s">
+        <v>283</v>
+      </c>
+      <c r="CC9" s="14" t="s">
+        <v>284</v>
+      </c>
+      <c r="CD9" s="14" t="s">
+        <v>285</v>
+      </c>
+      <c r="CE9" s="14" t="s">
+        <v>286</v>
+      </c>
+      <c r="CF9" s="14" t="s">
+        <v>287</v>
+      </c>
+      <c r="CG9" s="14" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="10" spans="1:85">
       <c r="B10" t="s">
         <v>96</v>
       </c>
@@ -2124,7 +2665,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="11" spans="1:45">
+    <row r="11" spans="1:85">
       <c r="A11" t="s">
         <v>199</v>
       </c>
@@ -2260,8 +2801,128 @@
       <c r="AS11">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="12" spans="1:45">
+      <c r="AT11">
+        <v>0.1</v>
+      </c>
+      <c r="AU11">
+        <v>0.1</v>
+      </c>
+      <c r="AV11">
+        <v>0.1</v>
+      </c>
+      <c r="AW11">
+        <v>0.1</v>
+      </c>
+      <c r="AX11">
+        <v>0.1</v>
+      </c>
+      <c r="AY11">
+        <v>0.1</v>
+      </c>
+      <c r="AZ11">
+        <v>0.1</v>
+      </c>
+      <c r="BA11">
+        <v>0.1</v>
+      </c>
+      <c r="BB11">
+        <v>0.1</v>
+      </c>
+      <c r="BC11">
+        <v>0.1</v>
+      </c>
+      <c r="BD11">
+        <v>0.1</v>
+      </c>
+      <c r="BE11">
+        <v>0.1</v>
+      </c>
+      <c r="BF11">
+        <v>0.1</v>
+      </c>
+      <c r="BG11">
+        <v>0.1</v>
+      </c>
+      <c r="BH11">
+        <v>0.1</v>
+      </c>
+      <c r="BI11">
+        <v>0.1</v>
+      </c>
+      <c r="BJ11">
+        <v>0.1</v>
+      </c>
+      <c r="BK11">
+        <v>0.1</v>
+      </c>
+      <c r="BL11">
+        <v>0.1</v>
+      </c>
+      <c r="BM11">
+        <v>0.1</v>
+      </c>
+      <c r="BN11">
+        <v>3</v>
+      </c>
+      <c r="BO11">
+        <v>3</v>
+      </c>
+      <c r="BP11">
+        <v>3</v>
+      </c>
+      <c r="BQ11">
+        <v>3</v>
+      </c>
+      <c r="BR11">
+        <v>3</v>
+      </c>
+      <c r="BS11">
+        <v>3</v>
+      </c>
+      <c r="BT11">
+        <v>3</v>
+      </c>
+      <c r="BU11">
+        <v>3</v>
+      </c>
+      <c r="BV11">
+        <v>3</v>
+      </c>
+      <c r="BW11">
+        <v>3</v>
+      </c>
+      <c r="BX11">
+        <v>3</v>
+      </c>
+      <c r="BY11">
+        <v>3</v>
+      </c>
+      <c r="BZ11">
+        <v>3</v>
+      </c>
+      <c r="CA11">
+        <v>3</v>
+      </c>
+      <c r="CB11">
+        <v>3</v>
+      </c>
+      <c r="CC11">
+        <v>3</v>
+      </c>
+      <c r="CD11">
+        <v>3</v>
+      </c>
+      <c r="CE11">
+        <v>3</v>
+      </c>
+      <c r="CF11">
+        <v>3</v>
+      </c>
+      <c r="CG11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:85">
       <c r="A12" t="s">
         <v>198</v>
       </c>
@@ -2397,93 +3058,213 @@
       <c r="AS12">
         <v>1.5874999999999999E-3</v>
       </c>
-    </row>
-    <row r="13" spans="1:45">
+      <c r="AT12">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="AU12">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="AV12">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="AW12">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="AX12">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="AY12">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="AZ12">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="BA12">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="BB12">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="BC12">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="BD12">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="BE12">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="BF12">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="BG12">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="BH12">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="BI12">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="BJ12">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="BK12">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="BL12">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="BM12">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="BN12">
+        <v>1.5874999999999999E-3</v>
+      </c>
+      <c r="BO12">
+        <v>1.5874999999999999E-3</v>
+      </c>
+      <c r="BP12">
+        <v>1.5874999999999999E-3</v>
+      </c>
+      <c r="BQ12">
+        <v>1.5874999999999999E-3</v>
+      </c>
+      <c r="BR12">
+        <v>1.5874999999999999E-3</v>
+      </c>
+      <c r="BS12">
+        <v>1.5874999999999999E-3</v>
+      </c>
+      <c r="BT12">
+        <v>1.5874999999999999E-3</v>
+      </c>
+      <c r="BU12">
+        <v>1.5874999999999999E-3</v>
+      </c>
+      <c r="BV12">
+        <v>1.5874999999999999E-3</v>
+      </c>
+      <c r="BW12">
+        <v>1.5874999999999999E-3</v>
+      </c>
+      <c r="BX12">
+        <v>1.5874999999999999E-3</v>
+      </c>
+      <c r="BY12">
+        <v>1.5874999999999999E-3</v>
+      </c>
+      <c r="BZ12">
+        <v>1.5874999999999999E-3</v>
+      </c>
+      <c r="CA12">
+        <v>1.5874999999999999E-3</v>
+      </c>
+      <c r="CB12">
+        <v>1.5874999999999999E-3</v>
+      </c>
+      <c r="CC12">
+        <v>1.5874999999999999E-3</v>
+      </c>
+      <c r="CD12">
+        <v>1.5874999999999999E-3</v>
+      </c>
+      <c r="CE12">
+        <v>1.5874999999999999E-3</v>
+      </c>
+      <c r="CF12">
+        <v>1.5874999999999999E-3</v>
+      </c>
+      <c r="CG12">
+        <v>1.5874999999999999E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:85">
       <c r="A13" t="s">
         <v>197</v>
       </c>
-      <c r="Z13">
+      <c r="BN13">
         <f>-$E$3</f>
         <v>-97421.6</v>
       </c>
-      <c r="AA13">
-        <f t="shared" ref="AA13:AS13" si="0">-$E$3</f>
+      <c r="BO13">
+        <f t="shared" ref="BO13:CG13" si="0">-$E$3</f>
         <v>-97421.6</v>
       </c>
-      <c r="AB13">
+      <c r="BP13">
         <f t="shared" si="0"/>
         <v>-97421.6</v>
       </c>
-      <c r="AC13">
+      <c r="BQ13">
         <f t="shared" si="0"/>
         <v>-97421.6</v>
       </c>
-      <c r="AD13">
+      <c r="BR13">
         <f t="shared" si="0"/>
         <v>-97421.6</v>
       </c>
-      <c r="AE13">
+      <c r="BS13">
         <f t="shared" si="0"/>
         <v>-97421.6</v>
       </c>
-      <c r="AF13">
+      <c r="BT13">
         <f t="shared" si="0"/>
         <v>-97421.6</v>
       </c>
-      <c r="AG13">
+      <c r="BU13">
         <f t="shared" si="0"/>
         <v>-97421.6</v>
       </c>
-      <c r="AH13">
+      <c r="BV13">
         <f t="shared" si="0"/>
         <v>-97421.6</v>
       </c>
-      <c r="AI13">
+      <c r="BW13">
         <f t="shared" si="0"/>
         <v>-97421.6</v>
       </c>
-      <c r="AJ13">
+      <c r="BX13">
         <f t="shared" si="0"/>
         <v>-97421.6</v>
       </c>
-      <c r="AK13">
+      <c r="BY13">
         <f t="shared" si="0"/>
         <v>-97421.6</v>
       </c>
-      <c r="AL13">
+      <c r="BZ13">
         <f t="shared" si="0"/>
         <v>-97421.6</v>
       </c>
-      <c r="AM13">
+      <c r="CA13">
         <f t="shared" si="0"/>
         <v>-97421.6</v>
       </c>
-      <c r="AN13">
+      <c r="CB13">
         <f t="shared" si="0"/>
         <v>-97421.6</v>
       </c>
-      <c r="AO13">
+      <c r="CC13">
         <f t="shared" si="0"/>
         <v>-97421.6</v>
       </c>
-      <c r="AP13">
+      <c r="CD13">
         <f t="shared" si="0"/>
         <v>-97421.6</v>
       </c>
-      <c r="AQ13">
+      <c r="CE13">
         <f t="shared" si="0"/>
         <v>-97421.6</v>
       </c>
-      <c r="AR13">
+      <c r="CF13">
         <f t="shared" si="0"/>
         <v>-97421.6</v>
       </c>
-      <c r="AS13">
+      <c r="CG13">
         <f t="shared" si="0"/>
         <v>-97421.6</v>
       </c>
     </row>
-    <row r="14" spans="1:45">
+    <row r="14" spans="1:85">
       <c r="A14" t="s">
         <v>196</v>
       </c>
@@ -2619,297 +3400,579 @@
       <c r="AS14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:45">
+      <c r="AT14">
+        <v>0</v>
+      </c>
+      <c r="AU14">
+        <v>0</v>
+      </c>
+      <c r="AV14">
+        <v>0</v>
+      </c>
+      <c r="AW14">
+        <v>0</v>
+      </c>
+      <c r="AX14">
+        <v>0</v>
+      </c>
+      <c r="AY14">
+        <v>0</v>
+      </c>
+      <c r="AZ14">
+        <v>0</v>
+      </c>
+      <c r="BA14">
+        <v>0</v>
+      </c>
+      <c r="BB14">
+        <v>0</v>
+      </c>
+      <c r="BC14">
+        <v>0</v>
+      </c>
+      <c r="BD14">
+        <v>0</v>
+      </c>
+      <c r="BE14">
+        <v>0</v>
+      </c>
+      <c r="BF14">
+        <v>0</v>
+      </c>
+      <c r="BG14">
+        <v>0</v>
+      </c>
+      <c r="BH14">
+        <v>0</v>
+      </c>
+      <c r="BI14">
+        <v>0</v>
+      </c>
+      <c r="BJ14">
+        <v>0</v>
+      </c>
+      <c r="BK14">
+        <v>0</v>
+      </c>
+      <c r="BL14">
+        <v>0</v>
+      </c>
+      <c r="BM14">
+        <v>0</v>
+      </c>
+      <c r="BN14">
+        <v>1</v>
+      </c>
+      <c r="BO14">
+        <v>1</v>
+      </c>
+      <c r="BP14">
+        <v>1</v>
+      </c>
+      <c r="BQ14">
+        <v>1</v>
+      </c>
+      <c r="BR14">
+        <v>1</v>
+      </c>
+      <c r="BS14">
+        <v>1</v>
+      </c>
+      <c r="BT14">
+        <v>1</v>
+      </c>
+      <c r="BU14">
+        <v>1</v>
+      </c>
+      <c r="BV14">
+        <v>1</v>
+      </c>
+      <c r="BW14">
+        <v>1</v>
+      </c>
+      <c r="BX14">
+        <v>1</v>
+      </c>
+      <c r="BY14">
+        <v>1</v>
+      </c>
+      <c r="BZ14">
+        <v>1</v>
+      </c>
+      <c r="CA14">
+        <v>1</v>
+      </c>
+      <c r="CB14">
+        <v>1</v>
+      </c>
+      <c r="CC14">
+        <v>1</v>
+      </c>
+      <c r="CD14">
+        <v>1</v>
+      </c>
+      <c r="CE14">
+        <v>1</v>
+      </c>
+      <c r="CF14">
+        <v>1</v>
+      </c>
+      <c r="CG14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:85">
       <c r="A15" t="s">
         <v>195</v>
       </c>
-      <c r="AS15">
+      <c r="CG15">
         <f>H3/(PI()*(AS12/2)^2)</f>
         <v>7.01697863605328E-6</v>
       </c>
     </row>
-    <row r="16" spans="1:45">
+    <row r="16" spans="1:85">
       <c r="A16" t="s">
-        <v>249</v>
+        <v>416</v>
       </c>
       <c r="C16">
+        <f>$L$2</f>
+        <v>250</v>
+      </c>
+      <c r="G16">
+        <f>$L$2</f>
+        <v>250</v>
+      </c>
+      <c r="Z16">
         <f>$L$3</f>
-        <v>0.5</v>
-      </c>
-      <c r="G16">
-        <f>L3</f>
-        <v>0.5</v>
-      </c>
-      <c r="Z16">
-        <f>$L$4</f>
-        <v>0.5</v>
+        <v>250</v>
       </c>
       <c r="AA16">
-        <f t="shared" ref="AA16:AS16" si="1">$L$4</f>
-        <v>0.5</v>
+        <f>$L$3</f>
+        <v>250</v>
       </c>
       <c r="AB16">
+        <f>$L$3</f>
+        <v>250</v>
+      </c>
+      <c r="AC16">
+        <f>$L$3</f>
+        <v>250</v>
+      </c>
+      <c r="AD16">
+        <f>$L$3</f>
+        <v>250</v>
+      </c>
+      <c r="AE16">
+        <f>$L$3</f>
+        <v>250</v>
+      </c>
+      <c r="AF16">
+        <f>$L$3</f>
+        <v>250</v>
+      </c>
+      <c r="AG16">
+        <f>$L$3</f>
+        <v>250</v>
+      </c>
+      <c r="AH16">
+        <f>$L$3</f>
+        <v>250</v>
+      </c>
+      <c r="AI16">
+        <f>$L$3</f>
+        <v>250</v>
+      </c>
+      <c r="AJ16">
+        <f>$L$3</f>
+        <v>250</v>
+      </c>
+      <c r="AK16">
+        <f>$L$3</f>
+        <v>250</v>
+      </c>
+      <c r="AL16">
+        <f>$L$3</f>
+        <v>250</v>
+      </c>
+      <c r="AM16">
+        <f>$L$3</f>
+        <v>250</v>
+      </c>
+      <c r="AN16">
+        <f>$L$3</f>
+        <v>250</v>
+      </c>
+      <c r="AO16">
+        <f>$L$3</f>
+        <v>250</v>
+      </c>
+      <c r="AP16">
+        <f>$L$3</f>
+        <v>250</v>
+      </c>
+      <c r="AQ16">
+        <f>$L$3</f>
+        <v>250</v>
+      </c>
+      <c r="AR16">
+        <f>$L$3</f>
+        <v>250</v>
+      </c>
+      <c r="AS16">
+        <f>$L$3</f>
+        <v>250</v>
+      </c>
+      <c r="BN16">
+        <f t="shared" ref="BN16:CF16" si="1">$L$3</f>
+        <v>250</v>
+      </c>
+      <c r="BO16">
         <f t="shared" si="1"/>
-        <v>0.5</v>
-      </c>
-      <c r="AC16">
+        <v>250</v>
+      </c>
+      <c r="BP16">
         <f t="shared" si="1"/>
-        <v>0.5</v>
-      </c>
-      <c r="AD16">
+        <v>250</v>
+      </c>
+      <c r="BQ16">
         <f t="shared" si="1"/>
-        <v>0.5</v>
-      </c>
-      <c r="AE16">
+        <v>250</v>
+      </c>
+      <c r="BR16">
         <f t="shared" si="1"/>
-        <v>0.5</v>
-      </c>
-      <c r="AF16">
+        <v>250</v>
+      </c>
+      <c r="BS16">
         <f t="shared" si="1"/>
-        <v>0.5</v>
-      </c>
-      <c r="AG16">
+        <v>250</v>
+      </c>
+      <c r="BT16">
         <f t="shared" si="1"/>
-        <v>0.5</v>
-      </c>
-      <c r="AH16">
+        <v>250</v>
+      </c>
+      <c r="BU16">
         <f t="shared" si="1"/>
-        <v>0.5</v>
-      </c>
-      <c r="AI16">
+        <v>250</v>
+      </c>
+      <c r="BV16">
         <f t="shared" si="1"/>
-        <v>0.5</v>
-      </c>
-      <c r="AJ16">
+        <v>250</v>
+      </c>
+      <c r="BW16">
         <f t="shared" si="1"/>
-        <v>0.5</v>
-      </c>
-      <c r="AK16">
+        <v>250</v>
+      </c>
+      <c r="BX16">
         <f t="shared" si="1"/>
-        <v>0.5</v>
-      </c>
-      <c r="AL16">
+        <v>250</v>
+      </c>
+      <c r="BY16">
         <f t="shared" si="1"/>
-        <v>0.5</v>
-      </c>
-      <c r="AM16">
+        <v>250</v>
+      </c>
+      <c r="BZ16">
         <f t="shared" si="1"/>
-        <v>0.5</v>
-      </c>
-      <c r="AN16">
+        <v>250</v>
+      </c>
+      <c r="CA16">
         <f t="shared" si="1"/>
-        <v>0.5</v>
-      </c>
-      <c r="AO16">
+        <v>250</v>
+      </c>
+      <c r="CB16">
         <f t="shared" si="1"/>
-        <v>0.5</v>
-      </c>
-      <c r="AP16">
+        <v>250</v>
+      </c>
+      <c r="CC16">
         <f t="shared" si="1"/>
-        <v>0.5</v>
-      </c>
-      <c r="AQ16">
+        <v>250</v>
+      </c>
+      <c r="CD16">
         <f t="shared" si="1"/>
-        <v>0.5</v>
-      </c>
-      <c r="AR16">
+        <v>250</v>
+      </c>
+      <c r="CE16">
         <f t="shared" si="1"/>
-        <v>0.5</v>
-      </c>
-      <c r="AS16">
+        <v>250</v>
+      </c>
+      <c r="CF16">
         <f t="shared" si="1"/>
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:45">
+        <v>250</v>
+      </c>
+      <c r="CG16">
+        <f>$L$3</f>
+        <v>250</v>
+      </c>
+    </row>
+    <row r="17" spans="1:85">
       <c r="A17" t="s">
-        <v>254</v>
+        <v>417</v>
       </c>
       <c r="B17">
         <f>$O$3</f>
-        <v>2</v>
+        <v>1000</v>
       </c>
       <c r="C17">
         <f t="shared" ref="C17:Y17" si="2">$O$3</f>
-        <v>2</v>
+        <v>1000</v>
       </c>
       <c r="D17">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>1000</v>
       </c>
       <c r="E17">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>1000</v>
       </c>
       <c r="F17">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>1000</v>
       </c>
       <c r="G17">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>1000</v>
       </c>
       <c r="H17">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>1000</v>
       </c>
       <c r="I17">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>1000</v>
       </c>
       <c r="J17">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>1000</v>
       </c>
       <c r="K17">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>1000</v>
       </c>
       <c r="L17">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>1000</v>
       </c>
       <c r="M17">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>1000</v>
       </c>
       <c r="N17">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>1000</v>
       </c>
       <c r="O17">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>1000</v>
       </c>
       <c r="P17">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>1000</v>
       </c>
       <c r="Q17">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>1000</v>
       </c>
       <c r="R17">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>1000</v>
       </c>
       <c r="S17">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>1000</v>
       </c>
       <c r="T17">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>1000</v>
       </c>
       <c r="U17">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>1000</v>
       </c>
       <c r="V17">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>1000</v>
       </c>
       <c r="W17">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>1000</v>
       </c>
       <c r="X17">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>1000</v>
       </c>
       <c r="Y17">
         <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:45">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:85">
       <c r="A18" t="s">
-        <v>252</v>
+        <v>418</v>
       </c>
       <c r="Z18">
+        <f>$L$4</f>
+        <v>500</v>
+      </c>
+      <c r="AA18">
+        <f>$L$4</f>
+        <v>500</v>
+      </c>
+      <c r="AB18">
+        <f>$L$4</f>
+        <v>500</v>
+      </c>
+      <c r="AC18">
+        <f>$L$4</f>
+        <v>500</v>
+      </c>
+      <c r="AD18">
+        <f>$L$4</f>
+        <v>500</v>
+      </c>
+      <c r="AE18">
+        <f>$L$4</f>
+        <v>500</v>
+      </c>
+      <c r="AF18">
+        <f>$L$4</f>
+        <v>500</v>
+      </c>
+      <c r="AG18">
+        <f>$L$4</f>
+        <v>500</v>
+      </c>
+      <c r="AH18">
+        <f>$L$4</f>
+        <v>500</v>
+      </c>
+      <c r="AI18">
+        <f>$L$4</f>
+        <v>500</v>
+      </c>
+      <c r="AJ18">
+        <f>$L$4</f>
+        <v>500</v>
+      </c>
+      <c r="AK18">
+        <f>$L$4</f>
+        <v>500</v>
+      </c>
+      <c r="AL18">
+        <f>$L$4</f>
+        <v>500</v>
+      </c>
+      <c r="AM18">
+        <f>$L$4</f>
+        <v>500</v>
+      </c>
+      <c r="AN18">
+        <f>$L$4</f>
+        <v>500</v>
+      </c>
+      <c r="AO18">
+        <f>$L$4</f>
+        <v>500</v>
+      </c>
+      <c r="AP18">
+        <f>$L$4</f>
+        <v>500</v>
+      </c>
+      <c r="AQ18">
+        <f>$L$4</f>
+        <v>500</v>
+      </c>
+      <c r="AR18">
+        <f>$L$4</f>
+        <v>500</v>
+      </c>
+      <c r="AS18">
+        <f>$L$4</f>
+        <v>500</v>
+      </c>
+      <c r="BN18">
+        <f t="shared" ref="BN18:CF18" si="3">$L$5</f>
+        <v>500</v>
+      </c>
+      <c r="BO18">
+        <f t="shared" si="3"/>
+        <v>500</v>
+      </c>
+      <c r="BP18">
+        <f t="shared" si="3"/>
+        <v>500</v>
+      </c>
+      <c r="BQ18">
+        <f t="shared" si="3"/>
+        <v>500</v>
+      </c>
+      <c r="BR18">
+        <f t="shared" si="3"/>
+        <v>500</v>
+      </c>
+      <c r="BS18">
+        <f t="shared" si="3"/>
+        <v>500</v>
+      </c>
+      <c r="BT18">
+        <f t="shared" si="3"/>
+        <v>500</v>
+      </c>
+      <c r="BU18">
+        <f t="shared" si="3"/>
+        <v>500</v>
+      </c>
+      <c r="BV18">
+        <f t="shared" si="3"/>
+        <v>500</v>
+      </c>
+      <c r="BW18">
+        <f t="shared" si="3"/>
+        <v>500</v>
+      </c>
+      <c r="BX18">
+        <f t="shared" si="3"/>
+        <v>500</v>
+      </c>
+      <c r="BY18">
+        <f t="shared" si="3"/>
+        <v>500</v>
+      </c>
+      <c r="BZ18">
+        <f t="shared" si="3"/>
+        <v>500</v>
+      </c>
+      <c r="CA18">
+        <f t="shared" si="3"/>
+        <v>500</v>
+      </c>
+      <c r="CB18">
+        <f t="shared" si="3"/>
+        <v>500</v>
+      </c>
+      <c r="CC18">
+        <f t="shared" si="3"/>
+        <v>500</v>
+      </c>
+      <c r="CD18">
+        <f t="shared" si="3"/>
+        <v>500</v>
+      </c>
+      <c r="CE18">
+        <f t="shared" si="3"/>
+        <v>500</v>
+      </c>
+      <c r="CF18">
+        <f t="shared" si="3"/>
+        <v>500</v>
+      </c>
+      <c r="CG18">
         <f>$L$5</f>
-        <v>1</v>
-      </c>
-      <c r="AA18">
-        <f t="shared" ref="AA18:AS18" si="3">$L$5</f>
-        <v>1</v>
-      </c>
-      <c r="AB18">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="AC18">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="AD18">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="AE18">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="AF18">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="AG18">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="AH18">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="AI18">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="AJ18">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="AK18">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="AL18">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="AM18">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="AN18">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="AO18">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="AP18">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="AQ18">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="AR18">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="AS18">
-        <f t="shared" si="3"/>
-        <v>1</v>
+        <v>500</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="8">
+    <mergeCell ref="AT8:BM8"/>
+    <mergeCell ref="BN8:CG8"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="B7:AS7"/>
     <mergeCell ref="Z8:AS8"/>
@@ -2929,13 +3992,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:DF110"/>
+  <dimension ref="A1:ET150"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="CQ3" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="BB66" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="DF5" sqref="DF5"/>
+      <selection pane="bottomRight" activeCell="BN86" sqref="BN86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2962,20 +4025,58 @@
     <col min="24" max="24" width="5" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="4.33203125" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="4.1640625" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="31" max="40" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="41" max="69" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="110" max="110" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="4.83203125" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="5.33203125" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="6" bestFit="1" customWidth="1"/>
+    <col min="35" max="36" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="5.33203125" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="5.33203125" bestFit="1" customWidth="1"/>
+    <col min="40" max="41" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="5.33203125" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="6" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="5.33203125" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="5.33203125" bestFit="1" customWidth="1"/>
+    <col min="48" max="49" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="4.83203125" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="5.33203125" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="6" bestFit="1" customWidth="1"/>
+    <col min="55" max="56" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="5.33203125" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="5.33203125" bestFit="1" customWidth="1"/>
+    <col min="60" max="61" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="5.33203125" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="6" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="5.33203125" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="67" max="68" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="71" max="80" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="81" max="90" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="91" max="91" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="92" max="109" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="110" max="110" width="12.1640625" customWidth="1"/>
+    <col min="150" max="150" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="151" max="151" width="5.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:110">
+    <row r="1" spans="1:150">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:110">
+    <row r="2" spans="1:150">
       <c r="B2" t="s">
         <v>1</v>
       </c>
@@ -3052,259 +4153,379 @@
         <v>25</v>
       </c>
       <c r="AA2" t="s">
+        <v>371</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>373</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>375</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>377</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>379</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>381</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>383</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>385</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>387</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>389</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>391</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>394</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>395</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>397</v>
+      </c>
+      <c r="AO2" t="s">
+        <v>399</v>
+      </c>
+      <c r="AP2" t="s">
+        <v>401</v>
+      </c>
+      <c r="AQ2" t="s">
+        <v>403</v>
+      </c>
+      <c r="AR2" t="s">
+        <v>405</v>
+      </c>
+      <c r="AS2" t="s">
+        <v>407</v>
+      </c>
+      <c r="AT2" t="s">
+        <v>409</v>
+      </c>
+      <c r="AU2" t="s">
+        <v>372</v>
+      </c>
+      <c r="AV2" t="s">
+        <v>374</v>
+      </c>
+      <c r="AW2" t="s">
+        <v>376</v>
+      </c>
+      <c r="AX2" t="s">
+        <v>378</v>
+      </c>
+      <c r="AY2" t="s">
+        <v>380</v>
+      </c>
+      <c r="AZ2" t="s">
+        <v>382</v>
+      </c>
+      <c r="BA2" t="s">
+        <v>384</v>
+      </c>
+      <c r="BB2" t="s">
+        <v>386</v>
+      </c>
+      <c r="BC2" t="s">
+        <v>388</v>
+      </c>
+      <c r="BD2" t="s">
+        <v>390</v>
+      </c>
+      <c r="BE2" t="s">
+        <v>392</v>
+      </c>
+      <c r="BF2" t="s">
+        <v>393</v>
+      </c>
+      <c r="BG2" t="s">
+        <v>396</v>
+      </c>
+      <c r="BH2" t="s">
+        <v>398</v>
+      </c>
+      <c r="BI2" t="s">
+        <v>400</v>
+      </c>
+      <c r="BJ2" t="s">
+        <v>402</v>
+      </c>
+      <c r="BK2" t="s">
+        <v>404</v>
+      </c>
+      <c r="BL2" t="s">
+        <v>406</v>
+      </c>
+      <c r="BM2" t="s">
+        <v>408</v>
+      </c>
+      <c r="BN2" t="s">
+        <v>410</v>
+      </c>
+      <c r="BO2" t="s">
         <v>205</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="BP2" t="s">
         <v>206</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="BQ2" t="s">
         <v>207</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="BR2" t="s">
         <v>208</v>
       </c>
-      <c r="AE2" t="s">
+      <c r="BS2" t="s">
         <v>209</v>
       </c>
-      <c r="AF2" t="s">
+      <c r="BT2" t="s">
         <v>210</v>
       </c>
-      <c r="AG2" t="s">
+      <c r="BU2" t="s">
         <v>211</v>
       </c>
-      <c r="AH2" t="s">
+      <c r="BV2" t="s">
         <v>212</v>
       </c>
-      <c r="AI2" t="s">
+      <c r="BW2" t="s">
         <v>213</v>
       </c>
-      <c r="AJ2" t="s">
+      <c r="BX2" t="s">
         <v>214</v>
       </c>
-      <c r="AK2" t="s">
+      <c r="BY2" t="s">
         <v>215</v>
       </c>
-      <c r="AL2" t="s">
+      <c r="BZ2" t="s">
         <v>216</v>
       </c>
-      <c r="AM2" t="s">
+      <c r="CA2" t="s">
         <v>217</v>
       </c>
-      <c r="AN2" t="s">
+      <c r="CB2" t="s">
         <v>218</v>
       </c>
-      <c r="AO2" t="s">
+      <c r="CC2" t="s">
         <v>219</v>
       </c>
-      <c r="AP2" t="s">
+      <c r="CD2" t="s">
         <v>220</v>
       </c>
-      <c r="AQ2" t="s">
+      <c r="CE2" t="s">
         <v>221</v>
       </c>
-      <c r="AR2" t="s">
+      <c r="CF2" t="s">
         <v>222</v>
       </c>
-      <c r="AS2" t="s">
+      <c r="CG2" t="s">
         <v>223</v>
       </c>
-      <c r="AT2" t="s">
+      <c r="CH2" t="s">
         <v>224</v>
       </c>
-      <c r="AU2" t="s">
+      <c r="CI2" t="s">
         <v>225</v>
       </c>
-      <c r="AV2" t="s">
+      <c r="CJ2" t="s">
         <v>226</v>
       </c>
-      <c r="AW2" t="s">
+      <c r="CK2" t="s">
         <v>227</v>
       </c>
-      <c r="AX2" t="s">
+      <c r="CL2" t="s">
         <v>228</v>
       </c>
-      <c r="AY2" t="s">
+      <c r="CM2" t="s">
         <v>229</v>
       </c>
-      <c r="AZ2" t="s">
+      <c r="CN2" t="s">
         <v>230</v>
       </c>
-      <c r="BA2" t="s">
+      <c r="CO2" t="s">
         <v>231</v>
       </c>
-      <c r="BB2" t="s">
+      <c r="CP2" t="s">
         <v>232</v>
       </c>
-      <c r="BC2" t="s">
+      <c r="CQ2" t="s">
         <v>233</v>
       </c>
-      <c r="BD2" t="s">
+      <c r="CR2" t="s">
         <v>234</v>
       </c>
-      <c r="BE2" t="s">
+      <c r="CS2" t="s">
         <v>235</v>
       </c>
-      <c r="BF2" t="s">
+      <c r="CT2" t="s">
         <v>236</v>
       </c>
-      <c r="BG2" t="s">
+      <c r="CU2" t="s">
         <v>237</v>
       </c>
-      <c r="BH2" t="s">
+      <c r="CV2" t="s">
         <v>238</v>
       </c>
-      <c r="BI2" t="s">
+      <c r="CW2" t="s">
         <v>239</v>
       </c>
-      <c r="BJ2" t="s">
+      <c r="CX2" t="s">
         <v>240</v>
       </c>
-      <c r="BK2" t="s">
+      <c r="CY2" t="s">
         <v>241</v>
       </c>
-      <c r="BL2" t="s">
+      <c r="CZ2" t="s">
         <v>242</v>
       </c>
-      <c r="BM2" t="s">
+      <c r="DA2" t="s">
         <v>243</v>
       </c>
-      <c r="BN2" t="s">
+      <c r="DB2" t="s">
         <v>244</v>
       </c>
-      <c r="BO2" t="s">
+      <c r="DC2" t="s">
         <v>245</v>
       </c>
-      <c r="BP2" t="s">
+      <c r="DD2" t="s">
         <v>246</v>
       </c>
-      <c r="BQ2" t="s">
+      <c r="DE2" t="s">
         <v>247</v>
-      </c>
-      <c r="BR2" t="s">
-        <v>255</v>
-      </c>
-      <c r="BS2" t="s">
-        <v>256</v>
-      </c>
-      <c r="BT2" t="s">
-        <v>257</v>
-      </c>
-      <c r="BU2" t="s">
-        <v>258</v>
-      </c>
-      <c r="BV2" t="s">
-        <v>259</v>
-      </c>
-      <c r="BW2" t="s">
-        <v>260</v>
-      </c>
-      <c r="BX2" t="s">
-        <v>261</v>
-      </c>
-      <c r="BY2" t="s">
-        <v>262</v>
-      </c>
-      <c r="BZ2" t="s">
-        <v>263</v>
-      </c>
-      <c r="CA2" t="s">
-        <v>264</v>
-      </c>
-      <c r="CB2" t="s">
-        <v>265</v>
-      </c>
-      <c r="CC2" t="s">
-        <v>266</v>
-      </c>
-      <c r="CD2" t="s">
-        <v>267</v>
-      </c>
-      <c r="CE2" t="s">
-        <v>268</v>
-      </c>
-      <c r="CF2" t="s">
-        <v>269</v>
-      </c>
-      <c r="CG2" t="s">
-        <v>270</v>
-      </c>
-      <c r="CH2" t="s">
-        <v>271</v>
-      </c>
-      <c r="CI2" t="s">
-        <v>272</v>
-      </c>
-      <c r="CJ2" t="s">
-        <v>273</v>
-      </c>
-      <c r="CK2" t="s">
-        <v>274</v>
-      </c>
-      <c r="CL2" t="s">
-        <v>275</v>
-      </c>
-      <c r="CM2" t="s">
-        <v>276</v>
-      </c>
-      <c r="CN2" t="s">
-        <v>277</v>
-      </c>
-      <c r="CO2" t="s">
-        <v>278</v>
-      </c>
-      <c r="CP2" t="s">
-        <v>279</v>
-      </c>
-      <c r="CQ2" t="s">
-        <v>280</v>
-      </c>
-      <c r="CR2" t="s">
-        <v>281</v>
-      </c>
-      <c r="CS2" t="s">
-        <v>282</v>
-      </c>
-      <c r="CT2" t="s">
-        <v>283</v>
-      </c>
-      <c r="CU2" t="s">
-        <v>284</v>
-      </c>
-      <c r="CV2" t="s">
-        <v>285</v>
-      </c>
-      <c r="CW2" t="s">
-        <v>286</v>
-      </c>
-      <c r="CX2" t="s">
-        <v>287</v>
-      </c>
-      <c r="CY2" t="s">
-        <v>288</v>
-      </c>
-      <c r="CZ2" t="s">
-        <v>289</v>
-      </c>
-      <c r="DA2" t="s">
-        <v>290</v>
-      </c>
-      <c r="DB2" t="s">
-        <v>291</v>
-      </c>
-      <c r="DC2" t="s">
-        <v>292</v>
-      </c>
-      <c r="DD2" t="s">
-        <v>293</v>
-      </c>
-      <c r="DE2" t="s">
-        <v>294</v>
       </c>
       <c r="DF2" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="3" spans="1:110">
+      <c r="DG2" t="s">
+        <v>249</v>
+      </c>
+      <c r="DH2" t="s">
+        <v>250</v>
+      </c>
+      <c r="DI2" t="s">
+        <v>251</v>
+      </c>
+      <c r="DJ2" t="s">
+        <v>252</v>
+      </c>
+      <c r="DK2" t="s">
+        <v>253</v>
+      </c>
+      <c r="DL2" t="s">
+        <v>254</v>
+      </c>
+      <c r="DM2" t="s">
+        <v>255</v>
+      </c>
+      <c r="DN2" t="s">
+        <v>256</v>
+      </c>
+      <c r="DO2" t="s">
+        <v>257</v>
+      </c>
+      <c r="DP2" t="s">
+        <v>258</v>
+      </c>
+      <c r="DQ2" t="s">
+        <v>259</v>
+      </c>
+      <c r="DR2" t="s">
+        <v>260</v>
+      </c>
+      <c r="DS2" t="s">
+        <v>261</v>
+      </c>
+      <c r="DT2" t="s">
+        <v>262</v>
+      </c>
+      <c r="DU2" t="s">
+        <v>263</v>
+      </c>
+      <c r="DV2" t="s">
+        <v>264</v>
+      </c>
+      <c r="DW2" t="s">
+        <v>265</v>
+      </c>
+      <c r="DX2" t="s">
+        <v>266</v>
+      </c>
+      <c r="DY2" t="s">
+        <v>267</v>
+      </c>
+      <c r="DZ2" t="s">
+        <v>268</v>
+      </c>
+      <c r="EA2" t="s">
+        <v>269</v>
+      </c>
+      <c r="EB2" t="s">
+        <v>270</v>
+      </c>
+      <c r="EC2" t="s">
+        <v>271</v>
+      </c>
+      <c r="ED2" t="s">
+        <v>272</v>
+      </c>
+      <c r="EE2" t="s">
+        <v>273</v>
+      </c>
+      <c r="EF2" t="s">
+        <v>274</v>
+      </c>
+      <c r="EG2" t="s">
+        <v>275</v>
+      </c>
+      <c r="EH2" t="s">
+        <v>276</v>
+      </c>
+      <c r="EI2" t="s">
+        <v>277</v>
+      </c>
+      <c r="EJ2" t="s">
+        <v>278</v>
+      </c>
+      <c r="EK2" t="s">
+        <v>279</v>
+      </c>
+      <c r="EL2" t="s">
+        <v>280</v>
+      </c>
+      <c r="EM2" t="s">
+        <v>281</v>
+      </c>
+      <c r="EN2" t="s">
+        <v>282</v>
+      </c>
+      <c r="EO2" t="s">
+        <v>283</v>
+      </c>
+      <c r="EP2" t="s">
+        <v>284</v>
+      </c>
+      <c r="EQ2" t="s">
+        <v>285</v>
+      </c>
+      <c r="ER2" t="s">
+        <v>286</v>
+      </c>
+      <c r="ES2" t="s">
+        <v>287</v>
+      </c>
+      <c r="ET2" s="18" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="3" spans="1:150">
       <c r="A3" t="s">
         <v>26</v>
       </c>
@@ -3383,135 +4604,135 @@
       <c r="Z3">
         <v>0</v>
       </c>
-      <c r="AA3">
+      <c r="BO3">
         <f>Constants!B11*32*Constants!$B$3/Constants!B12^2</f>
         <v>-1899.8821997643995</v>
       </c>
-      <c r="AC3">
-        <v>0</v>
-      </c>
-      <c r="AD3">
-        <v>0</v>
-      </c>
-      <c r="AE3">
-        <v>0</v>
-      </c>
-      <c r="AF3">
-        <v>0</v>
-      </c>
-      <c r="AG3">
-        <v>0</v>
-      </c>
-      <c r="AH3">
-        <v>0</v>
-      </c>
-      <c r="AI3">
-        <v>0</v>
-      </c>
-      <c r="AJ3">
-        <v>0</v>
-      </c>
-      <c r="AK3">
-        <v>0</v>
-      </c>
-      <c r="AL3">
-        <v>0</v>
-      </c>
-      <c r="AM3">
-        <v>0</v>
-      </c>
-      <c r="AN3">
-        <v>0</v>
-      </c>
-      <c r="AO3">
-        <v>0</v>
-      </c>
-      <c r="AP3">
-        <v>0</v>
-      </c>
-      <c r="AQ3">
-        <v>0</v>
-      </c>
-      <c r="AR3">
-        <v>0</v>
-      </c>
-      <c r="AS3">
-        <v>0</v>
-      </c>
-      <c r="AT3">
-        <v>0</v>
-      </c>
-      <c r="AU3">
-        <v>0</v>
-      </c>
-      <c r="AV3">
-        <v>0</v>
-      </c>
-      <c r="AW3">
-        <v>0</v>
-      </c>
-      <c r="AX3">
-        <v>0</v>
-      </c>
-      <c r="AY3">
-        <v>0</v>
-      </c>
-      <c r="AZ3">
-        <v>0</v>
-      </c>
-      <c r="BA3">
-        <v>0</v>
-      </c>
-      <c r="BB3">
-        <v>0</v>
-      </c>
-      <c r="BC3">
-        <v>0</v>
-      </c>
-      <c r="BD3">
-        <v>0</v>
-      </c>
-      <c r="BE3">
-        <v>0</v>
-      </c>
-      <c r="BF3">
-        <v>0</v>
-      </c>
-      <c r="BG3">
-        <v>0</v>
-      </c>
-      <c r="BH3">
-        <v>0</v>
-      </c>
-      <c r="BI3">
-        <v>0</v>
-      </c>
-      <c r="BJ3">
-        <v>0</v>
-      </c>
-      <c r="BK3">
-        <v>0</v>
-      </c>
-      <c r="BL3">
-        <v>0</v>
-      </c>
-      <c r="BM3">
-        <v>0</v>
-      </c>
-      <c r="BN3">
-        <v>0</v>
-      </c>
-      <c r="BO3">
-        <v>0</v>
-      </c>
-      <c r="BP3">
-        <v>0</v>
-      </c>
       <c r="BQ3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:110">
+      <c r="BR3">
+        <v>0</v>
+      </c>
+      <c r="BS3">
+        <v>0</v>
+      </c>
+      <c r="BT3">
+        <v>0</v>
+      </c>
+      <c r="BU3">
+        <v>0</v>
+      </c>
+      <c r="BV3">
+        <v>0</v>
+      </c>
+      <c r="BW3">
+        <v>0</v>
+      </c>
+      <c r="BX3">
+        <v>0</v>
+      </c>
+      <c r="BY3">
+        <v>0</v>
+      </c>
+      <c r="BZ3">
+        <v>0</v>
+      </c>
+      <c r="CA3">
+        <v>0</v>
+      </c>
+      <c r="CB3">
+        <v>0</v>
+      </c>
+      <c r="CC3">
+        <v>0</v>
+      </c>
+      <c r="CD3">
+        <v>0</v>
+      </c>
+      <c r="CE3">
+        <v>0</v>
+      </c>
+      <c r="CF3">
+        <v>0</v>
+      </c>
+      <c r="CG3">
+        <v>0</v>
+      </c>
+      <c r="CH3">
+        <v>0</v>
+      </c>
+      <c r="CI3">
+        <v>0</v>
+      </c>
+      <c r="CJ3">
+        <v>0</v>
+      </c>
+      <c r="CK3">
+        <v>0</v>
+      </c>
+      <c r="CL3">
+        <v>0</v>
+      </c>
+      <c r="CM3">
+        <v>0</v>
+      </c>
+      <c r="CN3">
+        <v>0</v>
+      </c>
+      <c r="CO3">
+        <v>0</v>
+      </c>
+      <c r="CP3">
+        <v>0</v>
+      </c>
+      <c r="CQ3">
+        <v>0</v>
+      </c>
+      <c r="CR3">
+        <v>0</v>
+      </c>
+      <c r="CS3">
+        <v>0</v>
+      </c>
+      <c r="CT3">
+        <v>0</v>
+      </c>
+      <c r="CU3">
+        <v>0</v>
+      </c>
+      <c r="CV3">
+        <v>0</v>
+      </c>
+      <c r="CW3">
+        <v>0</v>
+      </c>
+      <c r="CX3">
+        <v>0</v>
+      </c>
+      <c r="CY3">
+        <v>0</v>
+      </c>
+      <c r="CZ3">
+        <v>0</v>
+      </c>
+      <c r="DA3">
+        <v>0</v>
+      </c>
+      <c r="DB3">
+        <v>0</v>
+      </c>
+      <c r="DC3">
+        <v>0</v>
+      </c>
+      <c r="DD3">
+        <v>0</v>
+      </c>
+      <c r="DE3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:150">
       <c r="A4" t="s">
         <v>27</v>
       </c>
@@ -3521,12 +4742,12 @@
       <c r="G4">
         <v>-1</v>
       </c>
-      <c r="AB4">
+      <c r="BP4">
         <f>Constants!C11*32*Constants!$B$3/Constants!C12^2</f>
         <v>-126.65881331762664</v>
       </c>
     </row>
-    <row r="5" spans="1:110">
+    <row r="5" spans="1:150">
       <c r="A5" t="s">
         <v>28</v>
       </c>
@@ -3536,12 +4757,12 @@
       <c r="L5">
         <v>-1</v>
       </c>
-      <c r="AC5">
+      <c r="BQ5">
         <f>Constants!D11*32*Constants!$B$3/Constants!D12^2</f>
         <v>-126.65881331762664</v>
       </c>
     </row>
-    <row r="6" spans="1:110">
+    <row r="6" spans="1:150">
       <c r="A6" t="s">
         <v>29</v>
       </c>
@@ -3551,12 +4772,12 @@
       <c r="Q6">
         <v>-1</v>
       </c>
-      <c r="AD6">
+      <c r="BR6">
         <f>Constants!E11*32*Constants!$B$3/Constants!E12^2</f>
         <v>-126.65881331762664</v>
       </c>
     </row>
-    <row r="7" spans="1:110">
+    <row r="7" spans="1:150">
       <c r="A7" t="s">
         <v>30</v>
       </c>
@@ -3566,12 +4787,12 @@
       <c r="V7">
         <v>-1</v>
       </c>
-      <c r="AE7">
+      <c r="BS7">
         <f>Constants!F11*32*Constants!$B$3/Constants!F12^2</f>
         <v>-126.65881331762664</v>
       </c>
     </row>
-    <row r="8" spans="1:110">
+    <row r="8" spans="1:150">
       <c r="A8" t="s">
         <v>31</v>
       </c>
@@ -3581,12 +4802,12 @@
       <c r="D8">
         <v>-1</v>
       </c>
-      <c r="AF8">
+      <c r="BT8">
         <f>Constants!G11*32*Constants!$B$3/Constants!G12^2</f>
         <v>-88.661169322338651</v>
       </c>
     </row>
-    <row r="9" spans="1:110">
+    <row r="9" spans="1:150">
       <c r="A9" t="s">
         <v>32</v>
       </c>
@@ -3596,12 +4817,12 @@
       <c r="E9">
         <v>-1</v>
       </c>
-      <c r="AG9">
+      <c r="BU9">
         <f>Constants!H11*32*Constants!$B$3/Constants!H12^2</f>
         <v>-88.661169322338651</v>
       </c>
     </row>
-    <row r="10" spans="1:110">
+    <row r="10" spans="1:150">
       <c r="A10" t="s">
         <v>33</v>
       </c>
@@ -3611,12 +4832,12 @@
       <c r="F10">
         <v>-1</v>
       </c>
-      <c r="AH10">
+      <c r="BV10">
         <f>Constants!I11*32*Constants!$B$3/Constants!I12^2</f>
         <v>-88.661169322338651</v>
       </c>
     </row>
-    <row r="11" spans="1:110">
+    <row r="11" spans="1:150">
       <c r="A11" t="s">
         <v>34</v>
       </c>
@@ -3626,12 +4847,12 @@
       <c r="H11">
         <v>-1</v>
       </c>
-      <c r="AI11">
+      <c r="BW11">
         <f>Constants!J11*32*Constants!$B$3/Constants!J12^2</f>
         <v>-88.661169322338651</v>
       </c>
     </row>
-    <row r="12" spans="1:110">
+    <row r="12" spans="1:150">
       <c r="A12" t="s">
         <v>35</v>
       </c>
@@ -3641,12 +4862,12 @@
       <c r="I12">
         <v>-1</v>
       </c>
-      <c r="AJ12">
+      <c r="BX12">
         <f>Constants!K11*32*Constants!$B$3/Constants!K12^2</f>
         <v>-88.661169322338651</v>
       </c>
     </row>
-    <row r="13" spans="1:110">
+    <row r="13" spans="1:150">
       <c r="A13" t="s">
         <v>36</v>
       </c>
@@ -3656,12 +4877,12 @@
       <c r="J13">
         <v>-1</v>
       </c>
-      <c r="AK13">
+      <c r="BY13">
         <f>Constants!L11*32*Constants!$B$3/Constants!L12^2</f>
         <v>-88.661169322338651</v>
       </c>
     </row>
-    <row r="14" spans="1:110">
+    <row r="14" spans="1:150">
       <c r="A14" t="s">
         <v>37</v>
       </c>
@@ -3671,12 +4892,12 @@
       <c r="K14">
         <v>-1</v>
       </c>
-      <c r="AL14">
+      <c r="BZ14">
         <f>Constants!M11*32*Constants!$B$3/Constants!M12^2</f>
         <v>-88.661169322338651</v>
       </c>
     </row>
-    <row r="15" spans="1:110">
+    <row r="15" spans="1:150">
       <c r="A15" t="s">
         <v>38</v>
       </c>
@@ -3686,12 +4907,12 @@
       <c r="M15">
         <v>-1</v>
       </c>
-      <c r="AM15">
+      <c r="CA15">
         <f>Constants!N11*32*Constants!$B$3/Constants!N12^2</f>
         <v>-88.661169322338651</v>
       </c>
     </row>
-    <row r="16" spans="1:110">
+    <row r="16" spans="1:150">
       <c r="A16" t="s">
         <v>39</v>
       </c>
@@ -3701,12 +4922,12 @@
       <c r="N16">
         <v>-1</v>
       </c>
-      <c r="AN16">
+      <c r="CB16">
         <f>Constants!O11*32*Constants!$B$3/Constants!O12^2</f>
         <v>-88.661169322338651</v>
       </c>
     </row>
-    <row r="17" spans="1:56">
+    <row r="17" spans="1:96">
       <c r="A17" t="s">
         <v>40</v>
       </c>
@@ -3716,12 +4937,12 @@
       <c r="O17">
         <v>-1</v>
       </c>
-      <c r="AO17">
+      <c r="CC17">
         <f>Constants!P11*32*Constants!$B$3/Constants!P12^2</f>
         <v>-88.661169322338651</v>
       </c>
     </row>
-    <row r="18" spans="1:56">
+    <row r="18" spans="1:96">
       <c r="A18" t="s">
         <v>41</v>
       </c>
@@ -3731,12 +4952,12 @@
       <c r="P18">
         <v>-1</v>
       </c>
-      <c r="AP18">
+      <c r="CD18">
         <f>Constants!Q11*32*Constants!$B$3/Constants!Q12^2</f>
         <v>-88.661169322338651</v>
       </c>
     </row>
-    <row r="19" spans="1:56">
+    <row r="19" spans="1:96">
       <c r="A19" t="s">
         <v>42</v>
       </c>
@@ -3746,12 +4967,12 @@
       <c r="R19">
         <v>-1</v>
       </c>
-      <c r="AQ19">
+      <c r="CE19">
         <f>Constants!R11*32*Constants!$B$3/Constants!R12^2</f>
         <v>-88.661169322338651</v>
       </c>
     </row>
-    <row r="20" spans="1:56">
+    <row r="20" spans="1:96">
       <c r="A20" t="s">
         <v>43</v>
       </c>
@@ -3761,12 +4982,12 @@
       <c r="S20">
         <v>-1</v>
       </c>
-      <c r="AR20">
+      <c r="CF20">
         <f>Constants!S11*32*Constants!$B$3/Constants!S12^2</f>
         <v>-88.661169322338651</v>
       </c>
     </row>
-    <row r="21" spans="1:56">
+    <row r="21" spans="1:96">
       <c r="A21" t="s">
         <v>44</v>
       </c>
@@ -3776,12 +4997,12 @@
       <c r="T21">
         <v>-1</v>
       </c>
-      <c r="AS21">
+      <c r="CG21">
         <f>Constants!T11*32*Constants!$B$3/Constants!T12^2</f>
         <v>-88.661169322338651</v>
       </c>
     </row>
-    <row r="22" spans="1:56">
+    <row r="22" spans="1:96">
       <c r="A22" t="s">
         <v>45</v>
       </c>
@@ -3791,12 +5012,12 @@
       <c r="U22">
         <v>-1</v>
       </c>
-      <c r="AT22">
+      <c r="CH22">
         <f>Constants!U11*32*Constants!$B$3/Constants!U12^2</f>
         <v>-88.661169322338651</v>
       </c>
     </row>
-    <row r="23" spans="1:56">
+    <row r="23" spans="1:96">
       <c r="A23" t="s">
         <v>46</v>
       </c>
@@ -3806,12 +5027,12 @@
       <c r="W23">
         <v>-1</v>
       </c>
-      <c r="AU23">
+      <c r="CI23">
         <f>Constants!V11*32*Constants!$B$3/Constants!V12^2</f>
         <v>-88.661169322338651</v>
       </c>
     </row>
-    <row r="24" spans="1:56">
+    <row r="24" spans="1:96">
       <c r="A24" t="s">
         <v>47</v>
       </c>
@@ -3821,12 +5042,12 @@
       <c r="X24">
         <v>-1</v>
       </c>
-      <c r="AV24">
+      <c r="CJ24">
         <f>Constants!W11*32*Constants!$B$3/Constants!W12^2</f>
         <v>-88.661169322338651</v>
       </c>
     </row>
-    <row r="25" spans="1:56">
+    <row r="25" spans="1:96">
       <c r="A25" t="s">
         <v>48</v>
       </c>
@@ -3836,12 +5057,12 @@
       <c r="Y25">
         <v>-1</v>
       </c>
-      <c r="AW25">
+      <c r="CK25">
         <f>Constants!X11*32*Constants!$B$3/Constants!X12^2</f>
         <v>-88.661169322338651</v>
       </c>
     </row>
-    <row r="26" spans="1:56">
+    <row r="26" spans="1:96">
       <c r="A26" t="s">
         <v>49</v>
       </c>
@@ -3851,829 +5072,1749 @@
       <c r="Z26">
         <v>-1</v>
       </c>
-      <c r="AX26">
+      <c r="CL26">
         <f>Constants!Y11*32*Constants!$B$3/Constants!Y12^2</f>
         <v>-88.661169322338651</v>
       </c>
     </row>
-    <row r="27" spans="1:56">
+    <row r="27" spans="1:96">
       <c r="A27" t="s">
         <v>50</v>
       </c>
       <c r="G27">
         <v>1</v>
       </c>
-      <c r="AY27">
+      <c r="AA27">
+        <v>-1</v>
+      </c>
+      <c r="CM27">
         <f>Constants!Z11*32*Constants!$B$3/Constants!Z12^2</f>
         <v>-1013.2705065410131</v>
       </c>
     </row>
-    <row r="28" spans="1:56">
+    <row r="28" spans="1:96">
       <c r="A28" t="s">
         <v>51</v>
       </c>
       <c r="H28">
         <v>1</v>
       </c>
-      <c r="AZ28">
+      <c r="AB28">
+        <v>-1</v>
+      </c>
+      <c r="CN28">
         <f>Constants!AA11*32*Constants!$B$3/Constants!AA12^2</f>
         <v>-1013.2705065410131</v>
       </c>
     </row>
-    <row r="29" spans="1:56">
+    <row r="29" spans="1:96">
       <c r="A29" t="s">
         <v>52</v>
       </c>
       <c r="I29">
         <v>1</v>
       </c>
-      <c r="BA29">
+      <c r="AC29">
+        <v>-1</v>
+      </c>
+      <c r="CO29">
         <f>Constants!AB11*32*Constants!$B$3/Constants!AB12^2</f>
         <v>-1013.2705065410131</v>
       </c>
     </row>
-    <row r="30" spans="1:56">
+    <row r="30" spans="1:96">
       <c r="A30" t="s">
         <v>53</v>
       </c>
       <c r="J30">
         <v>1</v>
       </c>
-      <c r="BB30">
+      <c r="AD30">
+        <v>-1</v>
+      </c>
+      <c r="CP30">
         <f>Constants!AC11*32*Constants!$B$3/Constants!AC12^2</f>
         <v>-1013.2705065410131</v>
       </c>
     </row>
-    <row r="31" spans="1:56">
+    <row r="31" spans="1:96">
       <c r="A31" t="s">
         <v>54</v>
       </c>
       <c r="K31">
         <v>1</v>
       </c>
-      <c r="BC31">
+      <c r="AE31">
+        <v>-1</v>
+      </c>
+      <c r="CQ31">
         <f>Constants!AD11*32*Constants!$B$3/Constants!AD12^2</f>
         <v>-1013.2705065410131</v>
       </c>
     </row>
-    <row r="32" spans="1:56">
+    <row r="32" spans="1:96">
       <c r="A32" t="s">
         <v>55</v>
       </c>
       <c r="L32">
         <v>1</v>
       </c>
-      <c r="BD32">
+      <c r="AF32">
+        <v>-1</v>
+      </c>
+      <c r="CR32">
         <f>Constants!AE11*32*Constants!$B$3/Constants!AE12^2</f>
         <v>-1013.2705065410131</v>
       </c>
     </row>
-    <row r="33" spans="1:69">
+    <row r="33" spans="1:112">
       <c r="A33" t="s">
         <v>56</v>
       </c>
       <c r="M33">
         <v>1</v>
       </c>
-      <c r="BE33">
+      <c r="AG33">
+        <v>-1</v>
+      </c>
+      <c r="CS33">
         <f>Constants!AF11*32*Constants!$B$3/Constants!AF12^2</f>
         <v>-1013.2705065410131</v>
       </c>
     </row>
-    <row r="34" spans="1:69">
+    <row r="34" spans="1:112">
       <c r="A34" t="s">
         <v>57</v>
       </c>
       <c r="N34">
         <v>1</v>
       </c>
-      <c r="BF34">
+      <c r="AH34">
+        <v>-1</v>
+      </c>
+      <c r="CT34">
         <f>Constants!AG11*32*Constants!$B$3/Constants!AG12^2</f>
         <v>-1013.2705065410131</v>
       </c>
     </row>
-    <row r="35" spans="1:69">
+    <row r="35" spans="1:112">
       <c r="A35" t="s">
         <v>58</v>
       </c>
       <c r="O35">
         <v>1</v>
       </c>
-      <c r="BG35">
+      <c r="AI35">
+        <v>-1</v>
+      </c>
+      <c r="CU35">
         <f>Constants!AH11*32*Constants!$B$3/Constants!AH12^2</f>
         <v>-1013.2705065410131</v>
       </c>
     </row>
-    <row r="36" spans="1:69">
+    <row r="36" spans="1:112">
       <c r="A36" t="s">
         <v>59</v>
       </c>
       <c r="P36">
         <v>1</v>
       </c>
-      <c r="BH36">
+      <c r="AJ36">
+        <v>-1</v>
+      </c>
+      <c r="CV36">
         <f>Constants!AI11*32*Constants!$B$3/Constants!AI12^2</f>
         <v>-1013.2705065410131</v>
       </c>
     </row>
-    <row r="37" spans="1:69">
+    <row r="37" spans="1:112">
       <c r="A37" t="s">
         <v>60</v>
       </c>
       <c r="Q37">
         <v>1</v>
       </c>
-      <c r="BI37">
+      <c r="AK37">
+        <v>-1</v>
+      </c>
+      <c r="CW37">
         <f>Constants!AJ11*32*Constants!$B$3/Constants!AJ12^2</f>
         <v>-1013.2705065410131</v>
       </c>
     </row>
-    <row r="38" spans="1:69">
+    <row r="38" spans="1:112">
       <c r="A38" t="s">
         <v>61</v>
       </c>
       <c r="R38">
         <v>1</v>
       </c>
-      <c r="BJ38">
+      <c r="AL38">
+        <v>-1</v>
+      </c>
+      <c r="CX38">
         <f>Constants!AK11*32*Constants!$B$3/Constants!AK12^2</f>
         <v>-1013.2705065410131</v>
       </c>
     </row>
-    <row r="39" spans="1:69">
+    <row r="39" spans="1:112">
       <c r="A39" t="s">
         <v>62</v>
       </c>
       <c r="S39">
         <v>1</v>
       </c>
-      <c r="BK39">
+      <c r="AM39">
+        <v>-1</v>
+      </c>
+      <c r="CY39">
         <f>Constants!AL11*32*Constants!$B$3/Constants!AL12^2</f>
         <v>-1013.2705065410131</v>
       </c>
     </row>
-    <row r="40" spans="1:69">
+    <row r="40" spans="1:112">
       <c r="A40" t="s">
         <v>63</v>
       </c>
       <c r="T40">
         <v>1</v>
       </c>
-      <c r="BL40">
+      <c r="AN40">
+        <v>-1</v>
+      </c>
+      <c r="CZ40">
         <f>Constants!AM11*32*Constants!$B$3/Constants!AM12^2</f>
         <v>-1013.2705065410131</v>
       </c>
     </row>
-    <row r="41" spans="1:69">
+    <row r="41" spans="1:112">
       <c r="A41" t="s">
         <v>64</v>
       </c>
       <c r="U41">
         <v>1</v>
       </c>
-      <c r="BM41">
+      <c r="AO41">
+        <v>-1</v>
+      </c>
+      <c r="DA41">
         <f>Constants!AN11*32*Constants!$B$3/Constants!AN12^2</f>
         <v>-1013.2705065410131</v>
       </c>
     </row>
-    <row r="42" spans="1:69">
+    <row r="42" spans="1:112">
       <c r="A42" t="s">
         <v>65</v>
       </c>
       <c r="V42">
         <v>1</v>
       </c>
-      <c r="BN42">
+      <c r="AP42">
+        <v>-1</v>
+      </c>
+      <c r="DB42">
         <f>Constants!AO11*32*Constants!$B$3/Constants!AO12^2</f>
         <v>-1013.2705065410131</v>
       </c>
     </row>
-    <row r="43" spans="1:69">
+    <row r="43" spans="1:112">
       <c r="A43" t="s">
         <v>66</v>
       </c>
       <c r="W43">
         <v>1</v>
       </c>
-      <c r="BO43">
+      <c r="AQ43">
+        <v>-1</v>
+      </c>
+      <c r="DC43">
         <f>Constants!AP11*32*Constants!$B$3/Constants!AP12^2</f>
         <v>-1013.2705065410131</v>
       </c>
     </row>
-    <row r="44" spans="1:69">
+    <row r="44" spans="1:112">
       <c r="A44" t="s">
         <v>67</v>
       </c>
       <c r="X44">
         <v>1</v>
       </c>
-      <c r="BP44">
+      <c r="AR44">
+        <v>-1</v>
+      </c>
+      <c r="DD44">
         <f>Constants!AQ11*32*Constants!$B$3/Constants!AQ12^2</f>
         <v>-1013.2705065410131</v>
       </c>
     </row>
-    <row r="45" spans="1:69">
+    <row r="45" spans="1:112">
       <c r="A45" t="s">
         <v>68</v>
       </c>
       <c r="Y45">
         <v>1</v>
       </c>
-      <c r="BQ45">
+      <c r="AS45">
+        <v>-1</v>
+      </c>
+      <c r="DE45">
         <f>Constants!AR11*32*Constants!$B$3/Constants!AR12^2</f>
         <v>-1013.2705065410131</v>
       </c>
     </row>
-    <row r="46" spans="1:69">
+    <row r="46" spans="1:112">
       <c r="A46" t="s">
         <v>69</v>
       </c>
       <c r="Z46">
         <v>1</v>
       </c>
-    </row>
-    <row r="47" spans="1:69">
+      <c r="AT46">
+        <v>-1</v>
+      </c>
+      <c r="DF46">
+        <f>Constants!AS11*32*Constants!$B$3/Constants!AS12^2</f>
+        <v>-1013.2705065410131</v>
+      </c>
+    </row>
+    <row r="47" spans="1:112">
       <c r="A47" t="s">
         <v>70</v>
       </c>
       <c r="AA47">
+        <v>1</v>
+      </c>
+      <c r="AU47">
+        <v>-1</v>
+      </c>
+      <c r="DG47">
+        <f>Constants!AT11*32*Constants!$B$3/Constants!AT12^2</f>
+        <v>-31.525925925925929</v>
+      </c>
+    </row>
+    <row r="48" spans="1:112">
+      <c r="A48" t="s">
+        <v>71</v>
+      </c>
+      <c r="AB48">
+        <v>1</v>
+      </c>
+      <c r="AV48">
+        <v>-1</v>
+      </c>
+      <c r="DH48">
+        <f>Constants!AU11*32*Constants!$B$3/Constants!AU12^2</f>
+        <v>-31.525925925925929</v>
+      </c>
+    </row>
+    <row r="49" spans="1:128">
+      <c r="A49" t="s">
+        <v>72</v>
+      </c>
+      <c r="AC49">
+        <v>1</v>
+      </c>
+      <c r="AW49">
+        <v>-1</v>
+      </c>
+      <c r="DI49">
+        <f>Constants!AV11*32*Constants!$B$3/Constants!AV12^2</f>
+        <v>-31.525925925925929</v>
+      </c>
+    </row>
+    <row r="50" spans="1:128">
+      <c r="A50" t="s">
+        <v>73</v>
+      </c>
+      <c r="AD50">
+        <v>1</v>
+      </c>
+      <c r="AX50">
+        <v>-1</v>
+      </c>
+      <c r="DJ50">
+        <f>Constants!AW11*32*Constants!$B$3/Constants!AW12^2</f>
+        <v>-31.525925925925929</v>
+      </c>
+    </row>
+    <row r="51" spans="1:128">
+      <c r="A51" t="s">
+        <v>74</v>
+      </c>
+      <c r="AE51">
+        <v>1</v>
+      </c>
+      <c r="AY51">
+        <v>-1</v>
+      </c>
+      <c r="DK51">
+        <f>Constants!AX11*32*Constants!$B$3/Constants!AX12^2</f>
+        <v>-31.525925925925929</v>
+      </c>
+    </row>
+    <row r="52" spans="1:128">
+      <c r="A52" t="s">
+        <v>75</v>
+      </c>
+      <c r="AF52">
+        <v>1</v>
+      </c>
+      <c r="AZ52">
+        <v>-1</v>
+      </c>
+      <c r="DL52">
+        <f>Constants!AY11*32*Constants!$B$3/Constants!AY12^2</f>
+        <v>-31.525925925925929</v>
+      </c>
+    </row>
+    <row r="53" spans="1:128">
+      <c r="A53" t="s">
+        <v>76</v>
+      </c>
+      <c r="AG53">
+        <v>1</v>
+      </c>
+      <c r="BA53">
+        <v>-1</v>
+      </c>
+      <c r="DM53">
+        <f>Constants!AZ11*32*Constants!$B$3/Constants!AZ12^2</f>
+        <v>-31.525925925925929</v>
+      </c>
+    </row>
+    <row r="54" spans="1:128">
+      <c r="A54" t="s">
+        <v>77</v>
+      </c>
+      <c r="AH54">
+        <v>1</v>
+      </c>
+      <c r="BB54">
+        <v>-1</v>
+      </c>
+      <c r="DN54">
+        <f>Constants!BA11*32*Constants!$B$3/Constants!BA12^2</f>
+        <v>-31.525925925925929</v>
+      </c>
+    </row>
+    <row r="55" spans="1:128">
+      <c r="A55" t="s">
+        <v>78</v>
+      </c>
+      <c r="AI55">
+        <v>1</v>
+      </c>
+      <c r="BC55">
+        <v>-1</v>
+      </c>
+      <c r="DO55">
+        <f>Constants!BB11*32*Constants!$B$3/Constants!BB12^2</f>
+        <v>-31.525925925925929</v>
+      </c>
+    </row>
+    <row r="56" spans="1:128">
+      <c r="A56" t="s">
+        <v>79</v>
+      </c>
+      <c r="AJ56">
+        <v>1</v>
+      </c>
+      <c r="BD56">
+        <v>-1</v>
+      </c>
+      <c r="DP56">
+        <f>Constants!BC11*32*Constants!$B$3/Constants!BC12^2</f>
+        <v>-31.525925925925929</v>
+      </c>
+    </row>
+    <row r="57" spans="1:128">
+      <c r="A57" t="s">
+        <v>80</v>
+      </c>
+      <c r="AK57">
+        <v>1</v>
+      </c>
+      <c r="BE57">
+        <v>-1</v>
+      </c>
+      <c r="DQ57">
+        <f>Constants!BD11*32*Constants!$B$3/Constants!BD12^2</f>
+        <v>-31.525925925925929</v>
+      </c>
+    </row>
+    <row r="58" spans="1:128">
+      <c r="A58" t="s">
+        <v>81</v>
+      </c>
+      <c r="AL58">
+        <v>1</v>
+      </c>
+      <c r="BF58">
+        <v>-1</v>
+      </c>
+      <c r="DR58">
+        <f>Constants!BE11*32*Constants!$B$3/Constants!BE12^2</f>
+        <v>-31.525925925925929</v>
+      </c>
+    </row>
+    <row r="59" spans="1:128">
+      <c r="A59" t="s">
+        <v>82</v>
+      </c>
+      <c r="AM59">
+        <v>1</v>
+      </c>
+      <c r="BG59">
+        <v>-1</v>
+      </c>
+      <c r="DS59">
+        <f>Constants!BF11*32*Constants!$B$3/Constants!BF12^2</f>
+        <v>-31.525925925925929</v>
+      </c>
+    </row>
+    <row r="60" spans="1:128">
+      <c r="A60" t="s">
+        <v>83</v>
+      </c>
+      <c r="AN60">
+        <v>1</v>
+      </c>
+      <c r="BH60">
+        <v>-1</v>
+      </c>
+      <c r="DT60">
+        <f>Constants!BG11*32*Constants!$B$3/Constants!BG12^2</f>
+        <v>-31.525925925925929</v>
+      </c>
+    </row>
+    <row r="61" spans="1:128">
+      <c r="A61" t="s">
+        <v>84</v>
+      </c>
+      <c r="AO61">
+        <v>1</v>
+      </c>
+      <c r="BI61">
+        <v>-1</v>
+      </c>
+      <c r="DU61">
+        <f>Constants!BH11*32*Constants!$B$3/Constants!BH12^2</f>
+        <v>-31.525925925925929</v>
+      </c>
+    </row>
+    <row r="62" spans="1:128">
+      <c r="A62" t="s">
+        <v>85</v>
+      </c>
+      <c r="AP62">
+        <v>1</v>
+      </c>
+      <c r="BJ62">
+        <v>-1</v>
+      </c>
+      <c r="DV62">
+        <f>Constants!BI11*32*Constants!$B$3/Constants!BI12^2</f>
+        <v>-31.525925925925929</v>
+      </c>
+    </row>
+    <row r="63" spans="1:128">
+      <c r="A63" t="s">
+        <v>86</v>
+      </c>
+      <c r="AQ63">
+        <v>1</v>
+      </c>
+      <c r="BK63">
+        <v>-1</v>
+      </c>
+      <c r="DW63">
+        <f>Constants!BJ11*32*Constants!$B$3/Constants!BJ12^2</f>
+        <v>-31.525925925925929</v>
+      </c>
+    </row>
+    <row r="64" spans="1:128">
+      <c r="A64" t="s">
+        <v>87</v>
+      </c>
+      <c r="AR64">
+        <v>1</v>
+      </c>
+      <c r="BL64">
+        <v>-1</v>
+      </c>
+      <c r="DX64">
+        <f>Constants!BK11*32*Constants!$B$3/Constants!BK12^2</f>
+        <v>-31.525925925925929</v>
+      </c>
+    </row>
+    <row r="65" spans="1:144">
+      <c r="A65" t="s">
+        <v>88</v>
+      </c>
+      <c r="AS65">
+        <v>1</v>
+      </c>
+      <c r="BM65">
+        <v>-1</v>
+      </c>
+      <c r="DY65">
+        <f>Constants!BL11*32*Constants!$B$3/Constants!BL12^2</f>
+        <v>-31.525925925925929</v>
+      </c>
+    </row>
+    <row r="66" spans="1:144">
+      <c r="A66" t="s">
+        <v>89</v>
+      </c>
+      <c r="AT66" s="14">
+        <v>1</v>
+      </c>
+      <c r="BN66">
+        <v>-1</v>
+      </c>
+      <c r="DZ66">
+        <f>Constants!BM11*32*Constants!$B$3/Constants!BM12^2</f>
+        <v>-31.525925925925929</v>
+      </c>
+    </row>
+    <row r="67" spans="1:144">
+      <c r="A67" t="s">
+        <v>90</v>
+      </c>
+      <c r="AU67">
+        <v>1</v>
+      </c>
+      <c r="EA67">
+        <f>Constants!BN11*32*Constants!$B$3/Constants!BN12^2</f>
+        <v>-30398.115196230392</v>
+      </c>
+    </row>
+    <row r="68" spans="1:144">
+      <c r="A68" t="s">
+        <v>91</v>
+      </c>
+      <c r="AV68">
+        <v>1</v>
+      </c>
+      <c r="EB68">
+        <f>Constants!BO11*32*Constants!$B$3/Constants!BO12^2</f>
+        <v>-30398.115196230392</v>
+      </c>
+    </row>
+    <row r="69" spans="1:144">
+      <c r="A69" t="s">
+        <v>93</v>
+      </c>
+      <c r="AW69">
+        <v>1</v>
+      </c>
+      <c r="EC69">
+        <f>Constants!BP11*32*Constants!$B$3/Constants!BP12^2</f>
+        <v>-30398.115196230392</v>
+      </c>
+    </row>
+    <row r="70" spans="1:144">
+      <c r="A70" t="s">
+        <v>94</v>
+      </c>
+      <c r="AX70">
+        <v>1</v>
+      </c>
+      <c r="ED70">
+        <f>Constants!BQ11*32*Constants!$B$3/Constants!BQ12^2</f>
+        <v>-30398.115196230392</v>
+      </c>
+    </row>
+    <row r="71" spans="1:144">
+      <c r="A71" t="s">
+        <v>289</v>
+      </c>
+      <c r="AY71">
+        <v>1</v>
+      </c>
+      <c r="EE71">
+        <f>Constants!BR11*32*Constants!$B$3/Constants!BR12^2</f>
+        <v>-30398.115196230392</v>
+      </c>
+    </row>
+    <row r="72" spans="1:144">
+      <c r="A72" t="s">
+        <v>290</v>
+      </c>
+      <c r="AZ72">
+        <v>1</v>
+      </c>
+      <c r="EF72">
+        <f>Constants!BS11*32*Constants!$B$3/Constants!BS12^2</f>
+        <v>-30398.115196230392</v>
+      </c>
+    </row>
+    <row r="73" spans="1:144">
+      <c r="A73" t="s">
+        <v>291</v>
+      </c>
+      <c r="BA73">
+        <v>1</v>
+      </c>
+      <c r="EG73">
+        <f>Constants!BT11*32*Constants!$B$3/Constants!BT12^2</f>
+        <v>-30398.115196230392</v>
+      </c>
+    </row>
+    <row r="74" spans="1:144">
+      <c r="A74" t="s">
+        <v>292</v>
+      </c>
+      <c r="BB74">
+        <v>1</v>
+      </c>
+      <c r="EH74">
+        <f>Constants!BU11*32*Constants!$B$3/Constants!BU12^2</f>
+        <v>-30398.115196230392</v>
+      </c>
+    </row>
+    <row r="75" spans="1:144">
+      <c r="A75" t="s">
+        <v>293</v>
+      </c>
+      <c r="BC75">
+        <v>1</v>
+      </c>
+      <c r="EI75">
+        <f>Constants!BV11*32*Constants!$B$3/Constants!BV12^2</f>
+        <v>-30398.115196230392</v>
+      </c>
+    </row>
+    <row r="76" spans="1:144">
+      <c r="A76" t="s">
+        <v>294</v>
+      </c>
+      <c r="BD76">
+        <v>1</v>
+      </c>
+      <c r="EJ76">
+        <f>Constants!BW11*32*Constants!$B$3/Constants!BW12^2</f>
+        <v>-30398.115196230392</v>
+      </c>
+    </row>
+    <row r="77" spans="1:144">
+      <c r="A77" t="s">
+        <v>295</v>
+      </c>
+      <c r="BE77">
+        <v>1</v>
+      </c>
+      <c r="EK77">
+        <f>Constants!BX11*32*Constants!$B$3/Constants!BX12^2</f>
+        <v>-30398.115196230392</v>
+      </c>
+    </row>
+    <row r="78" spans="1:144">
+      <c r="A78" t="s">
+        <v>296</v>
+      </c>
+      <c r="BF78">
+        <v>1</v>
+      </c>
+      <c r="EL78">
+        <f>Constants!BY11*32*Constants!$B$3/Constants!BY12^2</f>
+        <v>-30398.115196230392</v>
+      </c>
+    </row>
+    <row r="79" spans="1:144">
+      <c r="A79" t="s">
+        <v>297</v>
+      </c>
+      <c r="BG79">
+        <v>1</v>
+      </c>
+      <c r="EM79">
+        <f>Constants!BZ11*32*Constants!$B$3/Constants!BZ12^2</f>
+        <v>-30398.115196230392</v>
+      </c>
+    </row>
+    <row r="80" spans="1:144">
+      <c r="A80" t="s">
+        <v>298</v>
+      </c>
+      <c r="BH80">
+        <v>1</v>
+      </c>
+      <c r="EN80">
+        <f>Constants!CA11*32*Constants!$B$3/Constants!CA12^2</f>
+        <v>-30398.115196230392</v>
+      </c>
+    </row>
+    <row r="81" spans="1:149">
+      <c r="A81" t="s">
+        <v>299</v>
+      </c>
+      <c r="BI81">
+        <v>1</v>
+      </c>
+      <c r="EO81">
+        <f>Constants!CB11*32*Constants!$B$3/Constants!CB12^2</f>
+        <v>-30398.115196230392</v>
+      </c>
+    </row>
+    <row r="82" spans="1:149">
+      <c r="A82" t="s">
+        <v>300</v>
+      </c>
+      <c r="BJ82">
+        <v>1</v>
+      </c>
+      <c r="EP82">
+        <f>Constants!CC11*32*Constants!$B$3/Constants!CC12^2</f>
+        <v>-30398.115196230392</v>
+      </c>
+    </row>
+    <row r="83" spans="1:149">
+      <c r="A83" t="s">
+        <v>301</v>
+      </c>
+      <c r="BK83">
+        <v>1</v>
+      </c>
+      <c r="EQ83">
+        <f>Constants!CD11*32*Constants!$B$3/Constants!CD12^2</f>
+        <v>-30398.115196230392</v>
+      </c>
+    </row>
+    <row r="84" spans="1:149">
+      <c r="A84" t="s">
+        <v>302</v>
+      </c>
+      <c r="BL84">
+        <v>1</v>
+      </c>
+      <c r="ER84">
+        <f>Constants!CE11*32*Constants!$B$3/Constants!CE12^2</f>
+        <v>-30398.115196230392</v>
+      </c>
+    </row>
+    <row r="85" spans="1:149">
+      <c r="A85" t="s">
+        <v>303</v>
+      </c>
+      <c r="BM85">
+        <v>1</v>
+      </c>
+      <c r="ES85">
+        <f>Constants!CF11*32*Constants!$B$3/Constants!CF12^2</f>
+        <v>-30398.115196230392</v>
+      </c>
+    </row>
+    <row r="86" spans="1:149">
+      <c r="A86" t="s">
+        <v>304</v>
+      </c>
+      <c r="BN86" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:149">
+      <c r="A87" t="s">
+        <v>305</v>
+      </c>
+      <c r="BO87">
         <f>-1*Constants!B12^2</f>
         <v>-4.0322499999999999E-5</v>
       </c>
-      <c r="AB47">
+      <c r="BP87">
         <f>1*Constants!C12^2</f>
         <v>1.0080625E-5</v>
       </c>
-      <c r="AF47">
+      <c r="BT87">
         <f>1*Constants!G12^2</f>
         <v>1.0080625E-5</v>
       </c>
     </row>
-    <row r="48" spans="1:69">
-      <c r="A48" t="s">
-        <v>71</v>
-      </c>
-      <c r="AC48">
+    <row r="88" spans="1:149">
+      <c r="A88" t="s">
+        <v>306</v>
+      </c>
+      <c r="BQ88">
         <f>1*Constants!D12^2</f>
         <v>1.0080625E-5</v>
       </c>
-      <c r="AF48">
-        <f>-AF47</f>
+      <c r="BT88">
+        <f>-BT87</f>
         <v>-1.0080625E-5</v>
       </c>
-      <c r="AG48">
+      <c r="BU88">
         <f>1*Constants!H12^2</f>
         <v>1.0080625E-5</v>
       </c>
     </row>
-    <row r="49" spans="1:64">
-      <c r="A49" t="s">
-        <v>72</v>
-      </c>
-      <c r="AD49">
+    <row r="89" spans="1:149">
+      <c r="A89" t="s">
+        <v>307</v>
+      </c>
+      <c r="BR89">
         <f>1*Constants!E12^2</f>
         <v>1.0080625E-5</v>
       </c>
-      <c r="AG49">
-        <f>-AG48</f>
+      <c r="BU89">
+        <f>-BU88</f>
         <v>-1.0080625E-5</v>
       </c>
-      <c r="AH49">
+      <c r="BV89">
         <f>1*Constants!I12^2</f>
         <v>1.0080625E-5</v>
       </c>
     </row>
-    <row r="50" spans="1:64">
-      <c r="A50" t="s">
-        <v>73</v>
-      </c>
-      <c r="AE50">
+    <row r="90" spans="1:149">
+      <c r="A90" t="s">
+        <v>308</v>
+      </c>
+      <c r="BS90">
         <f>1*Constants!F12^2</f>
         <v>1.0080625E-5</v>
       </c>
-      <c r="AH50">
-        <f>-AH49</f>
+      <c r="BV90">
+        <f>-BV89</f>
         <v>-1.0080625E-5</v>
       </c>
     </row>
-    <row r="51" spans="1:64">
-      <c r="A51" t="s">
-        <v>74</v>
-      </c>
-      <c r="AB51">
+    <row r="91" spans="1:149">
+      <c r="A91" t="s">
+        <v>309</v>
+      </c>
+      <c r="BP91">
         <f>-1*Constants!C12^2</f>
         <v>-1.0080625E-5</v>
       </c>
-      <c r="AI51">
+      <c r="BW91">
         <f>1*Constants!J12^2</f>
         <v>1.0080625E-5</v>
       </c>
-      <c r="AY51">
+      <c r="CM91">
         <f>1*Constants!Z12^2</f>
         <v>2.5201562499999999E-6</v>
       </c>
     </row>
-    <row r="52" spans="1:64">
-      <c r="A52" t="s">
-        <v>75</v>
-      </c>
-      <c r="AI52">
-        <f>-AI51</f>
+    <row r="92" spans="1:149">
+      <c r="A92" t="s">
+        <v>310</v>
+      </c>
+      <c r="BW92">
+        <f>-BW91</f>
         <v>-1.0080625E-5</v>
       </c>
-      <c r="AJ52">
+      <c r="BX92">
         <f>1*Constants!K12^2</f>
         <v>1.0080625E-5</v>
       </c>
-      <c r="AZ52">
+      <c r="CN92">
         <f>1*Constants!AA12^2</f>
         <v>2.5201562499999999E-6</v>
       </c>
     </row>
-    <row r="53" spans="1:64">
-      <c r="A53" t="s">
-        <v>76</v>
-      </c>
-      <c r="AJ53">
-        <f>-AJ52</f>
+    <row r="93" spans="1:149">
+      <c r="A93" t="s">
+        <v>311</v>
+      </c>
+      <c r="BX93">
+        <f>-BX92</f>
         <v>-1.0080625E-5</v>
       </c>
-      <c r="AK53">
+      <c r="BY93">
         <f>1*Constants!L12^2</f>
         <v>1.0080625E-5</v>
       </c>
-      <c r="BA53">
+      <c r="CO93">
         <f>1*Constants!AB12^2</f>
         <v>2.5201562499999999E-6</v>
       </c>
     </row>
-    <row r="54" spans="1:64">
-      <c r="A54" t="s">
-        <v>77</v>
-      </c>
-      <c r="AK54">
-        <f>-AK53</f>
+    <row r="94" spans="1:149">
+      <c r="A94" t="s">
+        <v>312</v>
+      </c>
+      <c r="BY94">
+        <f>-BY93</f>
         <v>-1.0080625E-5</v>
       </c>
-      <c r="AL54">
+      <c r="BZ94">
         <f>1*Constants!M12^2</f>
         <v>1.0080625E-5</v>
       </c>
-      <c r="BB54">
+      <c r="CP94">
         <f>1*Constants!AC12^2</f>
         <v>2.5201562499999999E-6</v>
       </c>
     </row>
-    <row r="55" spans="1:64">
-      <c r="A55" t="s">
-        <v>78</v>
-      </c>
-      <c r="AL55">
-        <f>-AL54</f>
+    <row r="95" spans="1:149">
+      <c r="A95" t="s">
+        <v>313</v>
+      </c>
+      <c r="BZ95">
+        <f>-BZ94</f>
         <v>-1.0080625E-5</v>
       </c>
-      <c r="BC55">
+      <c r="CQ95">
         <f>1*Constants!AD12^2</f>
         <v>2.5201562499999999E-6</v>
       </c>
     </row>
-    <row r="56" spans="1:64">
-      <c r="A56" t="s">
-        <v>79</v>
-      </c>
-      <c r="AC56">
+    <row r="96" spans="1:149">
+      <c r="A96" t="s">
+        <v>314</v>
+      </c>
+      <c r="BQ96">
         <f>-1*Constants!D12^2</f>
         <v>-1.0080625E-5</v>
       </c>
-      <c r="AM56">
+      <c r="CA96">
         <f>1*Constants!N12^2</f>
         <v>1.0080625E-5</v>
       </c>
-      <c r="BD56">
+      <c r="CR96">
         <f>1*Constants!AE12^2</f>
         <v>2.5201562499999999E-6</v>
       </c>
     </row>
-    <row r="57" spans="1:64">
-      <c r="A57" t="s">
-        <v>80</v>
-      </c>
-      <c r="AM57">
-        <f>-AM56</f>
+    <row r="97" spans="1:112">
+      <c r="A97" t="s">
+        <v>315</v>
+      </c>
+      <c r="CA97">
+        <f>-CA96</f>
         <v>-1.0080625E-5</v>
       </c>
-      <c r="AN57">
+      <c r="CB97">
         <f>1*Constants!O12^2</f>
         <v>1.0080625E-5</v>
       </c>
-      <c r="BE57">
+      <c r="CS97">
         <f>1*Constants!AF12^2</f>
         <v>2.5201562499999999E-6</v>
       </c>
     </row>
-    <row r="58" spans="1:64">
-      <c r="A58" t="s">
-        <v>81</v>
-      </c>
-      <c r="AN58">
-        <f>-AN57</f>
+    <row r="98" spans="1:112">
+      <c r="A98" t="s">
+        <v>316</v>
+      </c>
+      <c r="CB98">
+        <f>-CB97</f>
         <v>-1.0080625E-5</v>
       </c>
-      <c r="AO58">
+      <c r="CC98">
         <f>1*Constants!P12^2</f>
         <v>1.0080625E-5</v>
       </c>
-      <c r="BF58">
+      <c r="CT98">
         <f>1*Constants!AG12^2</f>
         <v>2.5201562499999999E-6</v>
       </c>
     </row>
-    <row r="59" spans="1:64">
-      <c r="A59" t="s">
-        <v>82</v>
-      </c>
-      <c r="AO59">
-        <f>-AO58</f>
+    <row r="99" spans="1:112">
+      <c r="A99" t="s">
+        <v>317</v>
+      </c>
+      <c r="CC99">
+        <f>-CC98</f>
         <v>-1.0080625E-5</v>
       </c>
-      <c r="AP59">
+      <c r="CD99">
         <f>1*Constants!Q12^2</f>
         <v>1.0080625E-5</v>
       </c>
-      <c r="BG59">
+      <c r="CU99">
         <f>1*Constants!AH12^2</f>
         <v>2.5201562499999999E-6</v>
       </c>
     </row>
-    <row r="60" spans="1:64">
-      <c r="A60" t="s">
-        <v>83</v>
-      </c>
-      <c r="AP60">
-        <f>-AP59</f>
+    <row r="100" spans="1:112">
+      <c r="A100" t="s">
+        <v>318</v>
+      </c>
+      <c r="CD100">
+        <f>-CD99</f>
         <v>-1.0080625E-5</v>
       </c>
-      <c r="BH60">
+      <c r="CV100">
         <f>1*Constants!AI12^2</f>
         <v>2.5201562499999999E-6</v>
       </c>
     </row>
-    <row r="61" spans="1:64">
-      <c r="A61" t="s">
-        <v>84</v>
-      </c>
-      <c r="AD61">
+    <row r="101" spans="1:112">
+      <c r="A101" t="s">
+        <v>319</v>
+      </c>
+      <c r="BR101">
         <f>-1*Constants!E12^2</f>
         <v>-1.0080625E-5</v>
       </c>
-      <c r="AQ61">
+      <c r="CE101">
         <f>1*Constants!R12^2</f>
         <v>1.0080625E-5</v>
       </c>
-      <c r="BI61">
+      <c r="CW101">
         <f>1*Constants!AJ12^2</f>
         <v>2.5201562499999999E-6</v>
       </c>
     </row>
-    <row r="62" spans="1:64">
-      <c r="A62" t="s">
-        <v>85</v>
-      </c>
-      <c r="AQ62">
-        <f>-AQ61</f>
+    <row r="102" spans="1:112">
+      <c r="A102" t="s">
+        <v>320</v>
+      </c>
+      <c r="CE102">
+        <f>-CE101</f>
         <v>-1.0080625E-5</v>
       </c>
-      <c r="AR62">
+      <c r="CF102">
         <f>1*Constants!S12^2</f>
         <v>1.0080625E-5</v>
       </c>
-      <c r="BJ62">
+      <c r="CX102">
         <f>1*Constants!AK12^2</f>
         <v>2.5201562499999999E-6</v>
       </c>
     </row>
-    <row r="63" spans="1:64">
-      <c r="A63" t="s">
-        <v>86</v>
-      </c>
-      <c r="AR63">
-        <f>-AR62</f>
+    <row r="103" spans="1:112">
+      <c r="A103" t="s">
+        <v>321</v>
+      </c>
+      <c r="CF103">
+        <f>-CF102</f>
         <v>-1.0080625E-5</v>
       </c>
-      <c r="AS63">
+      <c r="CG103">
         <f>1*Constants!T12^2</f>
         <v>1.0080625E-5</v>
       </c>
-      <c r="BK63">
+      <c r="CY103">
         <f>1*Constants!AL12^2</f>
         <v>2.5201562499999999E-6</v>
       </c>
     </row>
-    <row r="64" spans="1:64">
-      <c r="A64" t="s">
-        <v>87</v>
-      </c>
-      <c r="AS64">
-        <f>-AS63</f>
+    <row r="104" spans="1:112">
+      <c r="A104" t="s">
+        <v>322</v>
+      </c>
+      <c r="CG104">
+        <f>-CG103</f>
         <v>-1.0080625E-5</v>
       </c>
-      <c r="AT64">
+      <c r="CH104">
         <f>1*Constants!U12^2</f>
         <v>1.0080625E-5</v>
       </c>
-      <c r="BL64">
+      <c r="CZ104">
         <f>1*Constants!AM12^2</f>
         <v>2.5201562499999999E-6</v>
       </c>
     </row>
-    <row r="65" spans="1:69">
-      <c r="A65" t="s">
-        <v>88</v>
-      </c>
-      <c r="AT65">
-        <f>-AT64</f>
+    <row r="105" spans="1:112">
+      <c r="A105" t="s">
+        <v>323</v>
+      </c>
+      <c r="CH105">
+        <f>-CH104</f>
         <v>-1.0080625E-5</v>
       </c>
-      <c r="BM65">
+      <c r="DA105">
         <f>1*Constants!AN12^2</f>
         <v>2.5201562499999999E-6</v>
       </c>
     </row>
-    <row r="66" spans="1:69">
-      <c r="A66" t="s">
-        <v>89</v>
-      </c>
-      <c r="AE66">
+    <row r="106" spans="1:112">
+      <c r="A106" t="s">
+        <v>324</v>
+      </c>
+      <c r="BS106">
         <f>-1*Constants!F12^2</f>
         <v>-1.0080625E-5</v>
       </c>
-      <c r="AU66">
+      <c r="CI106">
         <f>1*Constants!V12^2</f>
         <v>1.0080625E-5</v>
       </c>
-      <c r="BN66">
+      <c r="DB106">
         <f>1*Constants!AO12^2</f>
         <v>2.5201562499999999E-6</v>
       </c>
     </row>
-    <row r="67" spans="1:69">
-      <c r="A67" t="s">
-        <v>90</v>
-      </c>
-      <c r="AU67">
-        <f>-AU66</f>
+    <row r="107" spans="1:112">
+      <c r="A107" t="s">
+        <v>325</v>
+      </c>
+      <c r="CI107">
+        <f>-CI106</f>
         <v>-1.0080625E-5</v>
       </c>
-      <c r="AV67">
+      <c r="CJ107">
         <f>1*Constants!W12^2</f>
         <v>1.0080625E-5</v>
       </c>
-      <c r="BO67">
+      <c r="DC107">
         <f>1*Constants!AP12^2</f>
         <v>2.5201562499999999E-6</v>
       </c>
     </row>
-    <row r="68" spans="1:69">
-      <c r="A68" t="s">
-        <v>91</v>
-      </c>
-      <c r="AV68">
-        <f>-AV67</f>
+    <row r="108" spans="1:112">
+      <c r="A108" t="s">
+        <v>326</v>
+      </c>
+      <c r="CJ108">
+        <f>-CJ107</f>
         <v>-1.0080625E-5</v>
       </c>
-      <c r="AW68">
+      <c r="CK108">
         <f>1*Constants!X12^2</f>
         <v>1.0080625E-5</v>
       </c>
-      <c r="BP68">
+      <c r="DD108">
         <f>1*Constants!AQ12^2</f>
         <v>2.5201562499999999E-6</v>
       </c>
     </row>
-    <row r="69" spans="1:69">
-      <c r="A69" t="s">
-        <v>93</v>
-      </c>
-      <c r="AW69">
-        <f>-AW68</f>
+    <row r="109" spans="1:112">
+      <c r="A109" t="s">
+        <v>327</v>
+      </c>
+      <c r="CK109">
+        <f>-CK108</f>
         <v>-1.0080625E-5</v>
       </c>
-      <c r="AX69">
+      <c r="CL109">
         <f>1*Constants!Y12^2</f>
         <v>1.0080625E-5</v>
       </c>
-      <c r="BQ69">
+      <c r="DE109">
         <f>1*Constants!AR12^2</f>
         <v>2.5201562499999999E-6</v>
       </c>
     </row>
-    <row r="70" spans="1:69">
-      <c r="A70" t="s">
-        <v>94</v>
-      </c>
-      <c r="AX70">
-        <f>-AX69</f>
+    <row r="110" spans="1:112">
+      <c r="A110" t="s">
+        <v>328</v>
+      </c>
+      <c r="CL110">
+        <f>-CL109</f>
         <v>-1.0080625E-5</v>
       </c>
-    </row>
-    <row r="71" spans="1:69">
-      <c r="A71" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="72" spans="1:69">
-      <c r="A72" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="73" spans="1:69">
-      <c r="A73" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="74" spans="1:69">
-      <c r="A74" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="75" spans="1:69">
-      <c r="A75" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="76" spans="1:69">
-      <c r="A76" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="77" spans="1:69">
-      <c r="A77" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="78" spans="1:69">
-      <c r="A78" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="79" spans="1:69">
-      <c r="A79" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="80" spans="1:69">
-      <c r="A80" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="81" spans="1:1">
-      <c r="A81" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="82" spans="1:1">
-      <c r="A82" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="83" spans="1:1">
-      <c r="A83" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="84" spans="1:1">
-      <c r="A84" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="85" spans="1:1">
-      <c r="A85" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="86" spans="1:1">
-      <c r="A86" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="87" spans="1:1">
-      <c r="A87" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="88" spans="1:1">
-      <c r="A88" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="89" spans="1:1">
-      <c r="A89" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="90" spans="1:1">
-      <c r="A90" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="91" spans="1:1">
-      <c r="A91" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="92" spans="1:1">
-      <c r="A92" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="93" spans="1:1">
-      <c r="A93" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="94" spans="1:1">
-      <c r="A94" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="95" spans="1:1">
-      <c r="A95" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="96" spans="1:1">
-      <c r="A96" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="97" spans="1:1">
-      <c r="A97" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="98" spans="1:1">
-      <c r="A98" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="99" spans="1:1">
-      <c r="A99" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="100" spans="1:1">
-      <c r="A100" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="101" spans="1:1">
-      <c r="A101" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="102" spans="1:1">
-      <c r="A102" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="103" spans="1:1">
-      <c r="A103" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="104" spans="1:1">
-      <c r="A104" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="105" spans="1:1">
-      <c r="A105" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="106" spans="1:1">
-      <c r="A106" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="107" spans="1:1">
-      <c r="A107" t="s">
+      <c r="DF110">
+        <f>1*Constants!AS12^2</f>
+        <v>2.5201562499999999E-6</v>
+      </c>
+    </row>
+    <row r="111" spans="1:112">
+      <c r="A111" t="s">
         <v>331</v>
       </c>
-    </row>
-    <row r="108" spans="1:1">
-      <c r="A108" t="s">
+      <c r="CM111">
+        <f>-1*Constants!Z12^2</f>
+        <v>-2.5201562499999999E-6</v>
+      </c>
+      <c r="DG111">
+        <f>1*Constants!AT12^2</f>
+        <v>8.099999999999999E-5</v>
+      </c>
+    </row>
+    <row r="112" spans="1:112">
+      <c r="A112" t="s">
         <v>332</v>
       </c>
-    </row>
-    <row r="109" spans="1:1">
-      <c r="A109" t="s">
+      <c r="CN112">
+        <f>-1*Constants!AA12^2</f>
+        <v>-2.5201562499999999E-6</v>
+      </c>
+      <c r="DH112">
+        <f>1*Constants!AU12^2</f>
+        <v>8.099999999999999E-5</v>
+      </c>
+    </row>
+    <row r="113" spans="1:128">
+      <c r="A113" t="s">
         <v>333</v>
       </c>
-    </row>
-    <row r="110" spans="1:1">
-      <c r="A110" t="s">
+      <c r="CO113">
+        <f>-1*Constants!AB12^2</f>
+        <v>-2.5201562499999999E-6</v>
+      </c>
+      <c r="DI113">
+        <f>1*Constants!AV12^2</f>
+        <v>8.099999999999999E-5</v>
+      </c>
+    </row>
+    <row r="114" spans="1:128">
+      <c r="A114" t="s">
         <v>334</v>
+      </c>
+      <c r="CP114">
+        <f>-1*Constants!AC12^2</f>
+        <v>-2.5201562499999999E-6</v>
+      </c>
+      <c r="DJ114">
+        <f>1*Constants!AW12^2</f>
+        <v>8.099999999999999E-5</v>
+      </c>
+    </row>
+    <row r="115" spans="1:128">
+      <c r="A115" t="s">
+        <v>335</v>
+      </c>
+      <c r="CQ115">
+        <f>-1*Constants!AD12^2</f>
+        <v>-2.5201562499999999E-6</v>
+      </c>
+      <c r="DK115">
+        <f>1*Constants!AX12^2</f>
+        <v>8.099999999999999E-5</v>
+      </c>
+    </row>
+    <row r="116" spans="1:128">
+      <c r="A116" t="s">
+        <v>336</v>
+      </c>
+      <c r="CR116">
+        <f>-1*Constants!AE12^2</f>
+        <v>-2.5201562499999999E-6</v>
+      </c>
+      <c r="DL116">
+        <f>1*Constants!AY12^2</f>
+        <v>8.099999999999999E-5</v>
+      </c>
+    </row>
+    <row r="117" spans="1:128">
+      <c r="A117" t="s">
+        <v>337</v>
+      </c>
+      <c r="CS117">
+        <f>-1*Constants!AF12^2</f>
+        <v>-2.5201562499999999E-6</v>
+      </c>
+      <c r="DM117">
+        <f>1*Constants!AZ12^2</f>
+        <v>8.099999999999999E-5</v>
+      </c>
+    </row>
+    <row r="118" spans="1:128">
+      <c r="A118" t="s">
+        <v>338</v>
+      </c>
+      <c r="CT118">
+        <f>-1*Constants!AG12^2</f>
+        <v>-2.5201562499999999E-6</v>
+      </c>
+      <c r="DN118">
+        <f>1*Constants!BA12^2</f>
+        <v>8.099999999999999E-5</v>
+      </c>
+    </row>
+    <row r="119" spans="1:128">
+      <c r="A119" t="s">
+        <v>339</v>
+      </c>
+      <c r="CU119">
+        <f>-1*Constants!AH12^2</f>
+        <v>-2.5201562499999999E-6</v>
+      </c>
+      <c r="DO119">
+        <f>1*Constants!BB12^2</f>
+        <v>8.099999999999999E-5</v>
+      </c>
+    </row>
+    <row r="120" spans="1:128">
+      <c r="A120" t="s">
+        <v>340</v>
+      </c>
+      <c r="CV120">
+        <f>-1*Constants!AI12^2</f>
+        <v>-2.5201562499999999E-6</v>
+      </c>
+      <c r="DP120">
+        <f>1*Constants!BC12^2</f>
+        <v>8.099999999999999E-5</v>
+      </c>
+    </row>
+    <row r="121" spans="1:128">
+      <c r="A121" t="s">
+        <v>341</v>
+      </c>
+      <c r="CW121">
+        <f>-1*Constants!AJ12^2</f>
+        <v>-2.5201562499999999E-6</v>
+      </c>
+      <c r="DQ121">
+        <f>1*Constants!BD12^2</f>
+        <v>8.099999999999999E-5</v>
+      </c>
+    </row>
+    <row r="122" spans="1:128">
+      <c r="A122" t="s">
+        <v>342</v>
+      </c>
+      <c r="CX122">
+        <f>-1*Constants!AK12^2</f>
+        <v>-2.5201562499999999E-6</v>
+      </c>
+      <c r="DR122">
+        <f>1*Constants!BE12^2</f>
+        <v>8.099999999999999E-5</v>
+      </c>
+    </row>
+    <row r="123" spans="1:128">
+      <c r="A123" t="s">
+        <v>343</v>
+      </c>
+      <c r="CY123">
+        <f>-1*Constants!AL12^2</f>
+        <v>-2.5201562499999999E-6</v>
+      </c>
+      <c r="DS123">
+        <f>1*Constants!BF12^2</f>
+        <v>8.099999999999999E-5</v>
+      </c>
+    </row>
+    <row r="124" spans="1:128">
+      <c r="A124" t="s">
+        <v>344</v>
+      </c>
+      <c r="CZ124">
+        <f>-1*Constants!AM12^2</f>
+        <v>-2.5201562499999999E-6</v>
+      </c>
+      <c r="DT124">
+        <f>1*Constants!BG12^2</f>
+        <v>8.099999999999999E-5</v>
+      </c>
+    </row>
+    <row r="125" spans="1:128">
+      <c r="A125" t="s">
+        <v>345</v>
+      </c>
+      <c r="DA125">
+        <f>-1*Constants!AN12^2</f>
+        <v>-2.5201562499999999E-6</v>
+      </c>
+      <c r="DU125">
+        <f>1*Constants!BH12^2</f>
+        <v>8.099999999999999E-5</v>
+      </c>
+    </row>
+    <row r="126" spans="1:128">
+      <c r="A126" t="s">
+        <v>346</v>
+      </c>
+      <c r="DB126">
+        <f>-1*Constants!AO12^2</f>
+        <v>-2.5201562499999999E-6</v>
+      </c>
+      <c r="DV126">
+        <f>1*Constants!BI12^2</f>
+        <v>8.099999999999999E-5</v>
+      </c>
+    </row>
+    <row r="127" spans="1:128">
+      <c r="A127" t="s">
+        <v>347</v>
+      </c>
+      <c r="DC127">
+        <f>-1*Constants!AP12^2</f>
+        <v>-2.5201562499999999E-6</v>
+      </c>
+      <c r="DW127">
+        <f>1*Constants!BJ12^2</f>
+        <v>8.099999999999999E-5</v>
+      </c>
+    </row>
+    <row r="128" spans="1:128">
+      <c r="A128" t="s">
+        <v>348</v>
+      </c>
+      <c r="DD128">
+        <f>-1*Constants!AQ12^2</f>
+        <v>-2.5201562499999999E-6</v>
+      </c>
+      <c r="DX128">
+        <f>1*Constants!BK12^2</f>
+        <v>8.099999999999999E-5</v>
+      </c>
+    </row>
+    <row r="129" spans="1:144">
+      <c r="A129" t="s">
+        <v>349</v>
+      </c>
+      <c r="DE129">
+        <f>-1*Constants!AR12^2</f>
+        <v>-2.5201562499999999E-6</v>
+      </c>
+      <c r="DY129">
+        <f>1*Constants!BL12^2</f>
+        <v>8.099999999999999E-5</v>
+      </c>
+    </row>
+    <row r="130" spans="1:144">
+      <c r="A130" t="s">
+        <v>350</v>
+      </c>
+      <c r="DF130">
+        <f>-1*Constants!AS12^2</f>
+        <v>-2.5201562499999999E-6</v>
+      </c>
+      <c r="DZ130">
+        <f>1*Constants!BM12^2</f>
+        <v>8.099999999999999E-5</v>
+      </c>
+    </row>
+    <row r="131" spans="1:144">
+      <c r="A131" t="s">
+        <v>351</v>
+      </c>
+      <c r="DG131">
+        <f>-1*Constants!AT12^2</f>
+        <v>-8.099999999999999E-5</v>
+      </c>
+      <c r="EA131">
+        <f>1*Constants!BN12^2</f>
+        <v>2.5201562499999999E-6</v>
+      </c>
+    </row>
+    <row r="132" spans="1:144">
+      <c r="A132" t="s">
+        <v>352</v>
+      </c>
+      <c r="DH132">
+        <f>-1*Constants!AU12^2</f>
+        <v>-8.099999999999999E-5</v>
+      </c>
+      <c r="EB132">
+        <f>1*Constants!BO12^2</f>
+        <v>2.5201562499999999E-6</v>
+      </c>
+    </row>
+    <row r="133" spans="1:144">
+      <c r="A133" t="s">
+        <v>353</v>
+      </c>
+      <c r="DI133">
+        <f>-1*Constants!AV12^2</f>
+        <v>-8.099999999999999E-5</v>
+      </c>
+      <c r="EC133">
+        <f>1*Constants!BP12^2</f>
+        <v>2.5201562499999999E-6</v>
+      </c>
+    </row>
+    <row r="134" spans="1:144">
+      <c r="A134" t="s">
+        <v>354</v>
+      </c>
+      <c r="DJ134">
+        <f>-1*Constants!AW12^2</f>
+        <v>-8.099999999999999E-5</v>
+      </c>
+      <c r="ED134">
+        <f>1*Constants!BQ12^2</f>
+        <v>2.5201562499999999E-6</v>
+      </c>
+    </row>
+    <row r="135" spans="1:144">
+      <c r="A135" t="s">
+        <v>355</v>
+      </c>
+      <c r="DK135">
+        <f>-1*Constants!AX12^2</f>
+        <v>-8.099999999999999E-5</v>
+      </c>
+      <c r="EE135">
+        <f>1*Constants!BR12^2</f>
+        <v>2.5201562499999999E-6</v>
+      </c>
+    </row>
+    <row r="136" spans="1:144">
+      <c r="A136" t="s">
+        <v>356</v>
+      </c>
+      <c r="DL136">
+        <f>-1*Constants!AY12^2</f>
+        <v>-8.099999999999999E-5</v>
+      </c>
+      <c r="EF136">
+        <f>1*Constants!BS12^2</f>
+        <v>2.5201562499999999E-6</v>
+      </c>
+    </row>
+    <row r="137" spans="1:144">
+      <c r="A137" t="s">
+        <v>357</v>
+      </c>
+      <c r="DM137">
+        <f>-1*Constants!AZ12^2</f>
+        <v>-8.099999999999999E-5</v>
+      </c>
+      <c r="EG137">
+        <f>1*Constants!BT12^2</f>
+        <v>2.5201562499999999E-6</v>
+      </c>
+    </row>
+    <row r="138" spans="1:144">
+      <c r="A138" t="s">
+        <v>358</v>
+      </c>
+      <c r="DN138">
+        <f>-1*Constants!BA12^2</f>
+        <v>-8.099999999999999E-5</v>
+      </c>
+      <c r="EH138">
+        <f>1*Constants!BU12^2</f>
+        <v>2.5201562499999999E-6</v>
+      </c>
+    </row>
+    <row r="139" spans="1:144">
+      <c r="A139" t="s">
+        <v>359</v>
+      </c>
+      <c r="DO139">
+        <f>-1*Constants!BB12^2</f>
+        <v>-8.099999999999999E-5</v>
+      </c>
+      <c r="EI139">
+        <f>1*Constants!BV12^2</f>
+        <v>2.5201562499999999E-6</v>
+      </c>
+    </row>
+    <row r="140" spans="1:144">
+      <c r="A140" t="s">
+        <v>360</v>
+      </c>
+      <c r="DP140">
+        <f>-1*Constants!BC12^2</f>
+        <v>-8.099999999999999E-5</v>
+      </c>
+      <c r="EJ140">
+        <f>1*Constants!BW12^2</f>
+        <v>2.5201562499999999E-6</v>
+      </c>
+    </row>
+    <row r="141" spans="1:144">
+      <c r="A141" t="s">
+        <v>361</v>
+      </c>
+      <c r="DQ141">
+        <f>-1*Constants!BD12^2</f>
+        <v>-8.099999999999999E-5</v>
+      </c>
+      <c r="EK141">
+        <f>1*Constants!BX12^2</f>
+        <v>2.5201562499999999E-6</v>
+      </c>
+    </row>
+    <row r="142" spans="1:144">
+      <c r="A142" t="s">
+        <v>362</v>
+      </c>
+      <c r="DR142">
+        <f>-1*Constants!BE12^2</f>
+        <v>-8.099999999999999E-5</v>
+      </c>
+      <c r="EL142">
+        <f>1*Constants!BY12^2</f>
+        <v>2.5201562499999999E-6</v>
+      </c>
+    </row>
+    <row r="143" spans="1:144">
+      <c r="A143" t="s">
+        <v>363</v>
+      </c>
+      <c r="DS143">
+        <f>-1*Constants!BF12^2</f>
+        <v>-8.099999999999999E-5</v>
+      </c>
+      <c r="EM143">
+        <f>1*Constants!BZ12^2</f>
+        <v>2.5201562499999999E-6</v>
+      </c>
+    </row>
+    <row r="144" spans="1:144">
+      <c r="A144" t="s">
+        <v>364</v>
+      </c>
+      <c r="DT144">
+        <f>-1*Constants!BG12^2</f>
+        <v>-8.099999999999999E-5</v>
+      </c>
+      <c r="EN144">
+        <f>1*Constants!CA12^2</f>
+        <v>2.5201562499999999E-6</v>
+      </c>
+    </row>
+    <row r="145" spans="1:149">
+      <c r="A145" t="s">
+        <v>365</v>
+      </c>
+      <c r="DU145">
+        <f>-1*Constants!BH12^2</f>
+        <v>-8.099999999999999E-5</v>
+      </c>
+      <c r="EO145">
+        <f>1*Constants!CB12^2</f>
+        <v>2.5201562499999999E-6</v>
+      </c>
+    </row>
+    <row r="146" spans="1:149">
+      <c r="A146" t="s">
+        <v>366</v>
+      </c>
+      <c r="DV146">
+        <f>-1*Constants!BI12^2</f>
+        <v>-8.099999999999999E-5</v>
+      </c>
+      <c r="EP146">
+        <f>1*Constants!CC12^2</f>
+        <v>2.5201562499999999E-6</v>
+      </c>
+    </row>
+    <row r="147" spans="1:149">
+      <c r="A147" t="s">
+        <v>367</v>
+      </c>
+      <c r="DW147">
+        <f>-1*Constants!BJ12^2</f>
+        <v>-8.099999999999999E-5</v>
+      </c>
+      <c r="EQ147">
+        <f>1*Constants!CD12^2</f>
+        <v>2.5201562499999999E-6</v>
+      </c>
+    </row>
+    <row r="148" spans="1:149">
+      <c r="A148" t="s">
+        <v>368</v>
+      </c>
+      <c r="DX148">
+        <f>-1*Constants!BK12^2</f>
+        <v>-8.099999999999999E-5</v>
+      </c>
+      <c r="ER148">
+        <f>1*Constants!CE12^2</f>
+        <v>2.5201562499999999E-6</v>
+      </c>
+    </row>
+    <row r="149" spans="1:149">
+      <c r="A149" t="s">
+        <v>369</v>
+      </c>
+      <c r="DY149">
+        <f>-1*Constants!BL12^2</f>
+        <v>-8.099999999999999E-5</v>
+      </c>
+      <c r="ES149">
+        <f>1*Constants!CF12^2</f>
+        <v>2.5201562499999999E-6</v>
+      </c>
+    </row>
+    <row r="150" spans="1:149">
+      <c r="A150" t="s">
+        <v>370</v>
+      </c>
+      <c r="DZ150">
+        <f>-1*Constants!BM12^2</f>
+        <v>-8.099999999999999E-5</v>
       </c>
     </row>
   </sheetData>
@@ -4689,13 +6830,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BQ70"/>
+  <dimension ref="A1:ES150"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="BG3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="AP3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="BC23" sqref="BC23"/>
+      <selection pane="bottomRight" activeCell="DH24" sqref="DH24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -4720,20 +6861,49 @@
     <col min="23" max="23" width="4.33203125" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="5" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="4.33203125" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="4.1640625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="4.83203125" bestFit="1" customWidth="1"/>
-    <col min="29" max="31" width="4.1640625" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="4.83203125" bestFit="1" customWidth="1"/>
-    <col min="33" max="34" width="4.1640625" bestFit="1" customWidth="1"/>
-    <col min="35" max="69" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="4.1640625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="31" max="32" width="4.83203125" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="6" bestFit="1" customWidth="1"/>
+    <col min="35" max="36" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="5.33203125" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="5.33203125" bestFit="1" customWidth="1"/>
+    <col min="40" max="41" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="5.33203125" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="6" bestFit="1" customWidth="1"/>
+    <col min="45" max="48" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="4.83203125" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="5" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="5.33203125" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="6" bestFit="1" customWidth="1"/>
+    <col min="55" max="56" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="5.33203125" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="5.33203125" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="5.33203125" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="6.1640625" bestFit="1" customWidth="1"/>
+    <col min="65" max="66" width="5.33203125" bestFit="1" customWidth="1"/>
+    <col min="67" max="90" width="5.83203125" bestFit="1" customWidth="1"/>
+    <col min="91" max="109" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="110" max="148" width="6.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:69">
+    <row r="1" spans="1:149">
       <c r="A1" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="2" spans="1:69">
+    <row r="2" spans="1:149">
       <c r="B2" t="s">
         <v>1</v>
       </c>
@@ -4810,617 +6980,781 @@
         <v>25</v>
       </c>
       <c r="AA2" t="s">
+        <v>371</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>373</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>375</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>377</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>379</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>381</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>383</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>385</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>387</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>389</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>391</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>394</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>395</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>397</v>
+      </c>
+      <c r="AO2" t="s">
+        <v>399</v>
+      </c>
+      <c r="AP2" t="s">
+        <v>401</v>
+      </c>
+      <c r="AQ2" t="s">
+        <v>403</v>
+      </c>
+      <c r="AR2" t="s">
+        <v>405</v>
+      </c>
+      <c r="AS2" t="s">
+        <v>407</v>
+      </c>
+      <c r="AT2" t="s">
+        <v>409</v>
+      </c>
+      <c r="AU2" t="s">
+        <v>372</v>
+      </c>
+      <c r="AV2" t="s">
+        <v>374</v>
+      </c>
+      <c r="AW2" t="s">
+        <v>376</v>
+      </c>
+      <c r="AX2" t="s">
+        <v>378</v>
+      </c>
+      <c r="AY2" t="s">
+        <v>380</v>
+      </c>
+      <c r="AZ2" t="s">
+        <v>382</v>
+      </c>
+      <c r="BA2" t="s">
+        <v>384</v>
+      </c>
+      <c r="BB2" t="s">
+        <v>386</v>
+      </c>
+      <c r="BC2" t="s">
+        <v>388</v>
+      </c>
+      <c r="BD2" t="s">
+        <v>390</v>
+      </c>
+      <c r="BE2" t="s">
+        <v>392</v>
+      </c>
+      <c r="BF2" t="s">
+        <v>393</v>
+      </c>
+      <c r="BG2" t="s">
+        <v>396</v>
+      </c>
+      <c r="BH2" t="s">
+        <v>398</v>
+      </c>
+      <c r="BI2" t="s">
+        <v>400</v>
+      </c>
+      <c r="BJ2" t="s">
+        <v>402</v>
+      </c>
+      <c r="BK2" t="s">
+        <v>404</v>
+      </c>
+      <c r="BL2" t="s">
+        <v>406</v>
+      </c>
+      <c r="BM2" t="s">
+        <v>408</v>
+      </c>
+      <c r="BN2" t="s">
+        <v>410</v>
+      </c>
+      <c r="BO2" t="s">
         <v>205</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="BP2" t="s">
         <v>206</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="BQ2" t="s">
         <v>207</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="BR2" t="s">
         <v>208</v>
       </c>
-      <c r="AE2" t="s">
+      <c r="BS2" t="s">
         <v>209</v>
       </c>
-      <c r="AF2" t="s">
+      <c r="BT2" t="s">
         <v>210</v>
       </c>
-      <c r="AG2" t="s">
+      <c r="BU2" t="s">
         <v>211</v>
       </c>
-      <c r="AH2" t="s">
+      <c r="BV2" t="s">
         <v>212</v>
       </c>
-      <c r="AI2" t="s">
+      <c r="BW2" t="s">
         <v>213</v>
       </c>
-      <c r="AJ2" t="s">
+      <c r="BX2" t="s">
         <v>214</v>
       </c>
-      <c r="AK2" t="s">
+      <c r="BY2" t="s">
         <v>215</v>
       </c>
-      <c r="AL2" t="s">
+      <c r="BZ2" t="s">
         <v>216</v>
       </c>
-      <c r="AM2" t="s">
+      <c r="CA2" t="s">
         <v>217</v>
       </c>
-      <c r="AN2" t="s">
+      <c r="CB2" t="s">
         <v>218</v>
       </c>
-      <c r="AO2" t="s">
+      <c r="CC2" t="s">
         <v>219</v>
       </c>
-      <c r="AP2" t="s">
+      <c r="CD2" t="s">
         <v>220</v>
       </c>
-      <c r="AQ2" t="s">
+      <c r="CE2" t="s">
         <v>221</v>
       </c>
-      <c r="AR2" t="s">
+      <c r="CF2" t="s">
         <v>222</v>
       </c>
-      <c r="AS2" t="s">
+      <c r="CG2" t="s">
         <v>223</v>
       </c>
-      <c r="AT2" t="s">
+      <c r="CH2" t="s">
         <v>224</v>
       </c>
-      <c r="AU2" t="s">
+      <c r="CI2" t="s">
         <v>225</v>
       </c>
-      <c r="AV2" t="s">
+      <c r="CJ2" t="s">
         <v>226</v>
       </c>
-      <c r="AW2" t="s">
+      <c r="CK2" t="s">
         <v>227</v>
       </c>
-      <c r="AX2" t="s">
+      <c r="CL2" t="s">
         <v>228</v>
       </c>
-      <c r="AY2" t="s">
+      <c r="CM2" t="s">
         <v>229</v>
       </c>
-      <c r="AZ2" t="s">
+      <c r="CN2" t="s">
         <v>230</v>
       </c>
-      <c r="BA2" t="s">
+      <c r="CO2" t="s">
         <v>231</v>
       </c>
-      <c r="BB2" t="s">
+      <c r="CP2" t="s">
         <v>232</v>
       </c>
-      <c r="BC2" t="s">
+      <c r="CQ2" t="s">
         <v>233</v>
       </c>
-      <c r="BD2" t="s">
+      <c r="CR2" t="s">
         <v>234</v>
       </c>
-      <c r="BE2" t="s">
+      <c r="CS2" t="s">
         <v>235</v>
       </c>
-      <c r="BF2" t="s">
+      <c r="CT2" t="s">
         <v>236</v>
       </c>
-      <c r="BG2" t="s">
+      <c r="CU2" t="s">
         <v>237</v>
       </c>
-      <c r="BH2" t="s">
+      <c r="CV2" t="s">
         <v>238</v>
       </c>
-      <c r="BI2" t="s">
+      <c r="CW2" t="s">
         <v>239</v>
       </c>
-      <c r="BJ2" t="s">
+      <c r="CX2" t="s">
         <v>240</v>
       </c>
-      <c r="BK2" t="s">
+      <c r="CY2" t="s">
         <v>241</v>
       </c>
-      <c r="BL2" t="s">
+      <c r="CZ2" t="s">
         <v>242</v>
       </c>
-      <c r="BM2" t="s">
+      <c r="DA2" t="s">
         <v>243</v>
       </c>
-      <c r="BN2" t="s">
+      <c r="DB2" t="s">
         <v>244</v>
       </c>
-      <c r="BO2" t="s">
+      <c r="DC2" t="s">
         <v>245</v>
       </c>
-      <c r="BP2" t="s">
+      <c r="DD2" t="s">
         <v>246</v>
       </c>
-      <c r="BQ2" t="s">
+      <c r="DE2" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="3" spans="1:69">
+      <c r="DF2" t="s">
+        <v>249</v>
+      </c>
+      <c r="DG2" t="s">
+        <v>250</v>
+      </c>
+      <c r="DH2" t="s">
+        <v>251</v>
+      </c>
+      <c r="DI2" t="s">
+        <v>252</v>
+      </c>
+      <c r="DJ2" t="s">
+        <v>253</v>
+      </c>
+      <c r="DK2" t="s">
+        <v>254</v>
+      </c>
+      <c r="DL2" t="s">
+        <v>255</v>
+      </c>
+      <c r="DM2" t="s">
+        <v>256</v>
+      </c>
+      <c r="DN2" t="s">
+        <v>257</v>
+      </c>
+      <c r="DO2" t="s">
+        <v>258</v>
+      </c>
+      <c r="DP2" t="s">
+        <v>259</v>
+      </c>
+      <c r="DQ2" t="s">
+        <v>260</v>
+      </c>
+      <c r="DR2" t="s">
+        <v>261</v>
+      </c>
+      <c r="DS2" t="s">
+        <v>262</v>
+      </c>
+      <c r="DT2" t="s">
+        <v>263</v>
+      </c>
+      <c r="DU2" t="s">
+        <v>264</v>
+      </c>
+      <c r="DV2" t="s">
+        <v>265</v>
+      </c>
+      <c r="DW2" t="s">
+        <v>266</v>
+      </c>
+      <c r="DX2" t="s">
+        <v>267</v>
+      </c>
+      <c r="DY2" t="s">
+        <v>268</v>
+      </c>
+      <c r="DZ2" t="s">
+        <v>269</v>
+      </c>
+      <c r="EA2" t="s">
+        <v>270</v>
+      </c>
+      <c r="EB2" t="s">
+        <v>271</v>
+      </c>
+      <c r="EC2" t="s">
+        <v>272</v>
+      </c>
+      <c r="ED2" t="s">
+        <v>273</v>
+      </c>
+      <c r="EE2" t="s">
+        <v>274</v>
+      </c>
+      <c r="EF2" t="s">
+        <v>275</v>
+      </c>
+      <c r="EG2" t="s">
+        <v>276</v>
+      </c>
+      <c r="EH2" t="s">
+        <v>277</v>
+      </c>
+      <c r="EI2" t="s">
+        <v>278</v>
+      </c>
+      <c r="EJ2" t="s">
+        <v>279</v>
+      </c>
+      <c r="EK2" t="s">
+        <v>280</v>
+      </c>
+      <c r="EL2" t="s">
+        <v>281</v>
+      </c>
+      <c r="EM2" t="s">
+        <v>282</v>
+      </c>
+      <c r="EN2" t="s">
+        <v>283</v>
+      </c>
+      <c r="EO2" t="s">
+        <v>284</v>
+      </c>
+      <c r="EP2" t="s">
+        <v>285</v>
+      </c>
+      <c r="EQ2" t="s">
+        <v>286</v>
+      </c>
+      <c r="ER2" t="s">
+        <v>287</v>
+      </c>
+      <c r="ES2" s="18" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="3" spans="1:149">
       <c r="A3" t="s">
         <v>26</v>
       </c>
-      <c r="AA3">
+      <c r="BO3">
         <f>-Constants!B17</f>
-        <v>-2</v>
-      </c>
-      <c r="AB3">
+        <v>-1000</v>
+      </c>
+      <c r="BP3">
         <f>-Constants!C$16</f>
-        <v>-0.5</v>
-      </c>
-      <c r="AF3">
+        <v>-250</v>
+      </c>
+      <c r="BT3">
         <f>-Constants!G$16</f>
-        <v>-0.5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:69">
+        <v>-250</v>
+      </c>
+    </row>
+    <row r="4" spans="1:149">
       <c r="A4" t="s">
         <v>27</v>
       </c>
-      <c r="AF4">
+      <c r="BT4">
         <f>-Constants!G$17</f>
-        <v>-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:69">
+        <v>-1000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:149">
       <c r="A5" t="s">
         <v>28</v>
       </c>
-      <c r="AG5">
+      <c r="BU5">
         <f>-Constants!H$17</f>
-        <v>-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:69">
+        <v>-1000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:149">
       <c r="A6" t="s">
         <v>29</v>
       </c>
-      <c r="AH6">
+      <c r="BV6">
         <f>-Constants!I$17</f>
-        <v>-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:69">
+        <v>-1000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:149">
       <c r="A7" t="s">
         <v>30</v>
       </c>
-      <c r="AB7">
+      <c r="BP7">
         <f>-Constants!C$17</f>
-        <v>-2</v>
-      </c>
-      <c r="AY7">
+        <v>-1000</v>
+      </c>
+      <c r="CM7">
         <f>-Constants!Z16</f>
-        <v>-0.5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:69">
+        <v>-250</v>
+      </c>
+    </row>
+    <row r="8" spans="1:149">
       <c r="A8" t="s">
         <v>31</v>
       </c>
-      <c r="AI8">
+      <c r="BW8">
         <f>-Constants!J$17</f>
-        <v>-2</v>
-      </c>
-      <c r="AZ8">
+        <v>-1000</v>
+      </c>
+      <c r="CN8">
         <f>-Constants!AA16</f>
-        <v>-0.5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:69">
+        <v>-250</v>
+      </c>
+    </row>
+    <row r="9" spans="1:149">
       <c r="A9" t="s">
         <v>32</v>
       </c>
-      <c r="AJ9">
+      <c r="BX9">
         <f>-Constants!K$17</f>
-        <v>-2</v>
-      </c>
-      <c r="BA9">
+        <v>-1000</v>
+      </c>
+      <c r="CO9">
         <f>-Constants!AB16</f>
-        <v>-0.5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:69">
+        <v>-250</v>
+      </c>
+    </row>
+    <row r="10" spans="1:149">
       <c r="A10" t="s">
         <v>33</v>
       </c>
-      <c r="AK10">
+      <c r="BY10">
         <f>-Constants!L$17</f>
-        <v>-2</v>
-      </c>
-      <c r="BB10">
+        <v>-1000</v>
+      </c>
+      <c r="CP10">
         <f>-Constants!AC16</f>
-        <v>-0.5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:69">
+        <v>-250</v>
+      </c>
+    </row>
+    <row r="11" spans="1:149">
       <c r="A11" t="s">
         <v>34</v>
       </c>
-      <c r="AL11">
+      <c r="BZ11">
         <f>-Constants!M$17</f>
-        <v>-2</v>
-      </c>
-      <c r="BC11">
+        <v>-1000</v>
+      </c>
+      <c r="CQ11">
         <f>-Constants!AD16</f>
-        <v>-0.5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:69">
+        <v>-250</v>
+      </c>
+    </row>
+    <row r="12" spans="1:149">
       <c r="A12" t="s">
         <v>35</v>
       </c>
-      <c r="AC12">
+      <c r="BQ12">
         <f>-Constants!D$17</f>
-        <v>-2</v>
-      </c>
-      <c r="BD12">
+        <v>-1000</v>
+      </c>
+      <c r="CR12">
         <f>-Constants!AE16</f>
-        <v>-0.5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:69">
+        <v>-250</v>
+      </c>
+    </row>
+    <row r="13" spans="1:149">
       <c r="A13" t="s">
         <v>36</v>
       </c>
-      <c r="AM13">
+      <c r="CA13">
         <f>-Constants!N$17</f>
-        <v>-2</v>
-      </c>
-      <c r="BE13">
+        <v>-1000</v>
+      </c>
+      <c r="CS13">
         <f>-Constants!AF16</f>
-        <v>-0.5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:69">
+        <v>-250</v>
+      </c>
+    </row>
+    <row r="14" spans="1:149">
       <c r="A14" t="s">
         <v>37</v>
       </c>
-      <c r="AN14">
+      <c r="CB14">
         <f>-Constants!O$17</f>
-        <v>-2</v>
-      </c>
-      <c r="BF14">
+        <v>-1000</v>
+      </c>
+      <c r="CT14">
         <f>-Constants!AG16</f>
-        <v>-0.5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:69">
+        <v>-250</v>
+      </c>
+    </row>
+    <row r="15" spans="1:149">
       <c r="A15" t="s">
         <v>38</v>
       </c>
-      <c r="AO15">
+      <c r="CC15">
         <f>-Constants!P$17</f>
-        <v>-2</v>
-      </c>
-      <c r="BG15">
+        <v>-1000</v>
+      </c>
+      <c r="CU15">
         <f>-Constants!AH16</f>
-        <v>-0.5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:69">
+        <v>-250</v>
+      </c>
+    </row>
+    <row r="16" spans="1:149">
       <c r="A16" t="s">
         <v>39</v>
       </c>
-      <c r="AP16">
+      <c r="CD16">
         <f>-Constants!Q$17</f>
-        <v>-2</v>
-      </c>
-      <c r="BH16">
+        <v>-1000</v>
+      </c>
+      <c r="CV16">
         <f>-Constants!AI16</f>
-        <v>-0.5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:69">
+        <v>-250</v>
+      </c>
+    </row>
+    <row r="17" spans="1:109">
       <c r="A17" t="s">
         <v>40</v>
       </c>
-      <c r="AD17">
+      <c r="BR17">
         <f>-Constants!E$17</f>
-        <v>-2</v>
-      </c>
-      <c r="BI17">
+        <v>-1000</v>
+      </c>
+      <c r="CW17">
         <f>-Constants!AJ16</f>
-        <v>-0.5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:69">
+        <v>-250</v>
+      </c>
+    </row>
+    <row r="18" spans="1:109">
       <c r="A18" t="s">
         <v>41</v>
       </c>
-      <c r="AQ18">
+      <c r="CE18">
         <f>-Constants!R$17</f>
-        <v>-2</v>
-      </c>
-      <c r="BJ18">
+        <v>-1000</v>
+      </c>
+      <c r="CX18">
         <f>-Constants!AK16</f>
-        <v>-0.5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:69">
+        <v>-250</v>
+      </c>
+    </row>
+    <row r="19" spans="1:109">
       <c r="A19" t="s">
         <v>42</v>
       </c>
-      <c r="AR19">
+      <c r="CF19">
         <f>-Constants!S$17</f>
-        <v>-2</v>
-      </c>
-      <c r="BK19">
+        <v>-1000</v>
+      </c>
+      <c r="CY19">
         <f>-Constants!AL16</f>
-        <v>-0.5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:69">
+        <v>-250</v>
+      </c>
+    </row>
+    <row r="20" spans="1:109">
       <c r="A20" t="s">
         <v>43</v>
       </c>
-      <c r="AS20">
+      <c r="CG20">
         <f>-Constants!T$17</f>
-        <v>-2</v>
-      </c>
-      <c r="BL20">
+        <v>-1000</v>
+      </c>
+      <c r="CZ20">
         <f>-Constants!AM16</f>
-        <v>-0.5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:69">
+        <v>-250</v>
+      </c>
+    </row>
+    <row r="21" spans="1:109">
       <c r="A21" t="s">
         <v>44</v>
       </c>
-      <c r="AT21">
+      <c r="CH21">
         <f>-Constants!U$17</f>
-        <v>-2</v>
-      </c>
-      <c r="BM21">
+        <v>-1000</v>
+      </c>
+      <c r="DA21">
         <f>-Constants!AN16</f>
-        <v>-0.5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:69">
+        <v>-250</v>
+      </c>
+    </row>
+    <row r="22" spans="1:109">
       <c r="A22" t="s">
         <v>45</v>
       </c>
-      <c r="AE22">
+      <c r="BS22">
         <f>-Constants!F$17</f>
-        <v>-2</v>
-      </c>
-      <c r="BN22">
+        <v>-1000</v>
+      </c>
+      <c r="DB22">
         <f>-Constants!AO16</f>
-        <v>-0.5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:69">
+        <v>-250</v>
+      </c>
+    </row>
+    <row r="23" spans="1:109">
       <c r="A23" t="s">
         <v>46</v>
       </c>
-      <c r="AU23">
+      <c r="CI23">
         <f>-Constants!V$17</f>
-        <v>-2</v>
-      </c>
-      <c r="BO23">
+        <v>-1000</v>
+      </c>
+      <c r="DC23">
         <f>-Constants!AP16</f>
-        <v>-0.5</v>
-      </c>
-    </row>
-    <row r="24" spans="1:69">
+        <v>-250</v>
+      </c>
+    </row>
+    <row r="24" spans="1:109">
       <c r="A24" t="s">
         <v>47</v>
       </c>
-      <c r="AV24">
+      <c r="CJ24">
         <f>-Constants!W$17</f>
-        <v>-2</v>
-      </c>
-      <c r="BP24">
+        <v>-1000</v>
+      </c>
+      <c r="DD24">
         <f>-Constants!AQ16</f>
-        <v>-0.5</v>
-      </c>
-    </row>
-    <row r="25" spans="1:69">
+        <v>-250</v>
+      </c>
+    </row>
+    <row r="25" spans="1:109">
       <c r="A25" t="s">
         <v>48</v>
       </c>
-      <c r="AW25">
+      <c r="CK25">
         <f>-Constants!X$17</f>
-        <v>-2</v>
-      </c>
-      <c r="BQ25">
+        <v>-1000</v>
+      </c>
+      <c r="DE25">
         <f>-Constants!AR16</f>
-        <v>-0.5</v>
-      </c>
-    </row>
-    <row r="26" spans="1:69">
+        <v>-250</v>
+      </c>
+    </row>
+    <row r="26" spans="1:109">
       <c r="A26" t="s">
         <v>49</v>
       </c>
-      <c r="AX26">
+      <c r="CL26">
         <f>-Constants!Y$17</f>
-        <v>-2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:69">
+        <v>-1000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:109">
       <c r="A27" t="s">
         <v>50</v>
       </c>
-      <c r="AY27">
-        <f>-Constants!Z18</f>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:69">
+    </row>
+    <row r="28" spans="1:109">
       <c r="A28" t="s">
         <v>51</v>
       </c>
-      <c r="AZ28">
-        <f>-Constants!AA18</f>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:69">
+    </row>
+    <row r="29" spans="1:109">
       <c r="A29" t="s">
         <v>52</v>
       </c>
-      <c r="BA29">
-        <f>-Constants!AB18</f>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:69">
+    </row>
+    <row r="30" spans="1:109">
       <c r="A30" t="s">
         <v>53</v>
       </c>
-      <c r="BB30">
-        <f>-Constants!AC18</f>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:69">
+    </row>
+    <row r="31" spans="1:109">
       <c r="A31" t="s">
         <v>54</v>
       </c>
-      <c r="BC31">
-        <f>-Constants!AD18</f>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:69">
+    </row>
+    <row r="32" spans="1:109">
       <c r="A32" t="s">
         <v>55</v>
       </c>
-      <c r="BD32">
-        <f>-Constants!AE18</f>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:69">
+    </row>
+    <row r="33" spans="1:1">
       <c r="A33" t="s">
         <v>56</v>
       </c>
-      <c r="BE33">
-        <f>-Constants!AF18</f>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:69">
+    </row>
+    <row r="34" spans="1:1">
       <c r="A34" t="s">
         <v>57</v>
       </c>
-      <c r="BF34">
-        <f>-Constants!AG18</f>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:69">
+    </row>
+    <row r="35" spans="1:1">
       <c r="A35" t="s">
         <v>58</v>
       </c>
-      <c r="BG35">
-        <f>-Constants!AH18</f>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:69">
+    </row>
+    <row r="36" spans="1:1">
       <c r="A36" t="s">
         <v>59</v>
       </c>
-      <c r="BH36">
-        <f>-Constants!AI18</f>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:69">
+    </row>
+    <row r="37" spans="1:1">
       <c r="A37" t="s">
         <v>60</v>
       </c>
-      <c r="BI37">
-        <f>-Constants!AJ18</f>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:69">
+    </row>
+    <row r="38" spans="1:1">
       <c r="A38" t="s">
         <v>61</v>
       </c>
-      <c r="BJ38">
-        <f>-Constants!AK18</f>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:69">
+    </row>
+    <row r="39" spans="1:1">
       <c r="A39" t="s">
         <v>62</v>
       </c>
-      <c r="BK39">
-        <f>-Constants!AL18</f>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:69">
+    </row>
+    <row r="40" spans="1:1">
       <c r="A40" t="s">
         <v>63</v>
       </c>
-      <c r="BL40">
-        <f>-Constants!AM18</f>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:69">
+    </row>
+    <row r="41" spans="1:1">
       <c r="A41" t="s">
         <v>64</v>
       </c>
-      <c r="BM41">
-        <f>-Constants!AN18</f>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:69">
+    </row>
+    <row r="42" spans="1:1">
       <c r="A42" t="s">
         <v>65</v>
       </c>
-      <c r="BN42">
-        <f>-Constants!AO18</f>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:69">
+    </row>
+    <row r="43" spans="1:1">
       <c r="A43" t="s">
         <v>66</v>
       </c>
-      <c r="BO43">
-        <f>-Constants!AP18</f>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:69">
+    </row>
+    <row r="44" spans="1:1">
       <c r="A44" t="s">
         <v>67</v>
       </c>
-      <c r="BP44">
-        <f>-Constants!AQ18</f>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:69">
+    </row>
+    <row r="45" spans="1:1">
       <c r="A45" t="s">
         <v>68</v>
       </c>
-      <c r="BQ45">
-        <f>-Constants!AR18</f>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:69">
+    </row>
+    <row r="46" spans="1:1">
       <c r="A46" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="47" spans="1:69">
+    <row r="47" spans="1:1">
       <c r="A47" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="48" spans="1:69">
+    <row r="48" spans="1:1">
       <c r="A48" t="s">
         <v>71</v>
       </c>
@@ -5505,34 +7839,510 @@
         <v>87</v>
       </c>
     </row>
-    <row r="65" spans="1:1">
+    <row r="65" spans="1:142">
       <c r="A65" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="66" spans="1:1">
+    <row r="66" spans="1:142">
       <c r="A66" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="67" spans="1:1">
+    <row r="67" spans="1:142">
       <c r="A67" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="68" spans="1:1">
+    <row r="68" spans="1:142">
       <c r="A68" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="69" spans="1:1">
+      <c r="DZ68">
+        <f>-Constants!Z18</f>
+        <v>-500</v>
+      </c>
+    </row>
+    <row r="69" spans="1:142">
       <c r="A69" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="70" spans="1:1">
+      <c r="EA69">
+        <f>-Constants!AA18</f>
+        <v>-500</v>
+      </c>
+    </row>
+    <row r="70" spans="1:142">
       <c r="A70" t="s">
         <v>94</v>
+      </c>
+      <c r="EB70">
+        <f>-Constants!AB18</f>
+        <v>-500</v>
+      </c>
+    </row>
+    <row r="71" spans="1:142">
+      <c r="A71" t="s">
+        <v>289</v>
+      </c>
+      <c r="EC71">
+        <f>-Constants!AC18</f>
+        <v>-500</v>
+      </c>
+    </row>
+    <row r="72" spans="1:142">
+      <c r="A72" t="s">
+        <v>290</v>
+      </c>
+      <c r="ED72">
+        <f>-Constants!AD18</f>
+        <v>-500</v>
+      </c>
+    </row>
+    <row r="73" spans="1:142">
+      <c r="A73" t="s">
+        <v>291</v>
+      </c>
+      <c r="EE73">
+        <f>-Constants!AE18</f>
+        <v>-500</v>
+      </c>
+    </row>
+    <row r="74" spans="1:142">
+      <c r="A74" t="s">
+        <v>292</v>
+      </c>
+      <c r="EF74">
+        <f>-Constants!AF18</f>
+        <v>-500</v>
+      </c>
+    </row>
+    <row r="75" spans="1:142">
+      <c r="A75" t="s">
+        <v>293</v>
+      </c>
+      <c r="EG75">
+        <f>-Constants!AG18</f>
+        <v>-500</v>
+      </c>
+    </row>
+    <row r="76" spans="1:142">
+      <c r="A76" t="s">
+        <v>294</v>
+      </c>
+      <c r="EH76">
+        <f>-Constants!AH18</f>
+        <v>-500</v>
+      </c>
+    </row>
+    <row r="77" spans="1:142">
+      <c r="A77" t="s">
+        <v>295</v>
+      </c>
+      <c r="EI77">
+        <f>-Constants!AI18</f>
+        <v>-500</v>
+      </c>
+    </row>
+    <row r="78" spans="1:142">
+      <c r="A78" t="s">
+        <v>296</v>
+      </c>
+      <c r="EJ78">
+        <f>-Constants!AJ18</f>
+        <v>-500</v>
+      </c>
+    </row>
+    <row r="79" spans="1:142">
+      <c r="A79" t="s">
+        <v>297</v>
+      </c>
+      <c r="EK79">
+        <f>-Constants!AK18</f>
+        <v>-500</v>
+      </c>
+    </row>
+    <row r="80" spans="1:142">
+      <c r="A80" t="s">
+        <v>298</v>
+      </c>
+      <c r="EL80">
+        <f>-Constants!AL18</f>
+        <v>-500</v>
+      </c>
+    </row>
+    <row r="81" spans="1:148">
+      <c r="A81" t="s">
+        <v>299</v>
+      </c>
+      <c r="EM81">
+        <f>-Constants!AM18</f>
+        <v>-500</v>
+      </c>
+    </row>
+    <row r="82" spans="1:148">
+      <c r="A82" t="s">
+        <v>300</v>
+      </c>
+      <c r="EN82">
+        <f>-Constants!AN18</f>
+        <v>-500</v>
+      </c>
+    </row>
+    <row r="83" spans="1:148">
+      <c r="A83" t="s">
+        <v>301</v>
+      </c>
+      <c r="EO83">
+        <f>-Constants!AO18</f>
+        <v>-500</v>
+      </c>
+    </row>
+    <row r="84" spans="1:148">
+      <c r="A84" t="s">
+        <v>302</v>
+      </c>
+      <c r="EP84">
+        <f>-Constants!AP18</f>
+        <v>-500</v>
+      </c>
+    </row>
+    <row r="85" spans="1:148">
+      <c r="A85" t="s">
+        <v>303</v>
+      </c>
+      <c r="EQ85">
+        <f>-Constants!AQ18</f>
+        <v>-500</v>
+      </c>
+    </row>
+    <row r="86" spans="1:148">
+      <c r="A86" t="s">
+        <v>304</v>
+      </c>
+      <c r="ER86">
+        <f>-Constants!AR18</f>
+        <v>-500</v>
+      </c>
+    </row>
+    <row r="87" spans="1:148">
+      <c r="A87" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="88" spans="1:148">
+      <c r="A88" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="89" spans="1:148">
+      <c r="A89" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="90" spans="1:148">
+      <c r="A90" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="91" spans="1:148">
+      <c r="A91" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="92" spans="1:148">
+      <c r="A92" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="93" spans="1:148">
+      <c r="A93" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="94" spans="1:148">
+      <c r="A94" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="95" spans="1:148">
+      <c r="A95" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="96" spans="1:148">
+      <c r="A96" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1">
+      <c r="A97" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1">
+      <c r="A98" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1">
+      <c r="A99" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1">
+      <c r="A100" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1">
+      <c r="A101" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1">
+      <c r="A102" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1">
+      <c r="A103" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1">
+      <c r="A104" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1">
+      <c r="A105" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1">
+      <c r="A106" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1">
+      <c r="A107" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1">
+      <c r="A108" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1">
+      <c r="A109" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1">
+      <c r="A110" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1">
+      <c r="A111" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1">
+      <c r="A112" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1">
+      <c r="A113" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1">
+      <c r="A114" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1">
+      <c r="A115" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1">
+      <c r="A116" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1">
+      <c r="A117" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1">
+      <c r="A118" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1">
+      <c r="A119" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1">
+      <c r="A120" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1">
+      <c r="A121" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1">
+      <c r="A122" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1">
+      <c r="A123" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1">
+      <c r="A124" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1">
+      <c r="A125" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1">
+      <c r="A126" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1">
+      <c r="A127" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1">
+      <c r="A128" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1">
+      <c r="A129" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1">
+      <c r="A130" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1">
+      <c r="A131" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1">
+      <c r="A132" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1">
+      <c r="A133" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1">
+      <c r="A134" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1">
+      <c r="A135" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1">
+      <c r="A136" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1">
+      <c r="A137" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1">
+      <c r="A138" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1">
+      <c r="A139" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1">
+      <c r="A140" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1">
+      <c r="A141" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1">
+      <c r="A142" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1">
+      <c r="A143" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1">
+      <c r="A144" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1">
+      <c r="A145" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1">
+      <c r="A146" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1">
+      <c r="A147" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1">
+      <c r="A148" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1">
+      <c r="A149" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1">
+      <c r="A150" t="s">
+        <v>370</v>
       </c>
     </row>
   </sheetData>
@@ -5548,16 +8358,17 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B110"/>
+  <dimension ref="A1:B150"/>
   <sheetViews>
-    <sheetView topLeftCell="A87" workbookViewId="0">
-      <selection activeCell="B81" sqref="B81"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="D73" sqref="D73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -5570,7 +8381,7 @@
         <v>26</v>
       </c>
       <c r="B3">
-        <f>INDEX(Constants!$B$13:$AS$13,1,ROW(A3)-2)+INDEX(Constants!$B$14:$AS$14,1,ROW(A3)-2)*Constants!$B$4*Constants!$E$4</f>
+        <f>INDEX(Constants!$B$13:$CG$13,1,ROW(A3)-2)+INDEX(Constants!$B$14:$CG$14,1,ROW(A3)-2)*Constants!$B$4*Constants!$E$4</f>
         <v>-9810</v>
       </c>
     </row>
@@ -5579,7 +8390,7 @@
         <v>27</v>
       </c>
       <c r="B4">
-        <f>INDEX(Constants!$B$13:$AS$13,1,ROW(A4)-2)+INDEX(Constants!$B$14:$AS$14,1,ROW(A4)-2)*Constants!$B$4*Constants!$E$4</f>
+        <f>INDEX(Constants!$B$13:$CG$13,1,ROW(A4)-2)+INDEX(Constants!$B$14:$CG$14,1,ROW(A4)-2)*Constants!$B$4*Constants!$E$4</f>
         <v>0</v>
       </c>
     </row>
@@ -5588,7 +8399,7 @@
         <v>28</v>
       </c>
       <c r="B5">
-        <f>INDEX(Constants!$B$13:$AS$13,1,ROW(A5)-2)+INDEX(Constants!$B$14:$AS$14,1,ROW(A5)-2)*Constants!$B$4*Constants!$E$4</f>
+        <f>INDEX(Constants!$B$13:$CG$13,1,ROW(A5)-2)+INDEX(Constants!$B$14:$CG$14,1,ROW(A5)-2)*Constants!$B$4*Constants!$E$4</f>
         <v>0</v>
       </c>
     </row>
@@ -5597,7 +8408,7 @@
         <v>29</v>
       </c>
       <c r="B6">
-        <f>INDEX(Constants!$B$13:$AS$13,1,ROW(A6)-2)+INDEX(Constants!$B$14:$AS$14,1,ROW(A6)-2)*Constants!$B$4*Constants!$E$4</f>
+        <f>INDEX(Constants!$B$13:$CG$13,1,ROW(A6)-2)+INDEX(Constants!$B$14:$CG$14,1,ROW(A6)-2)*Constants!$B$4*Constants!$E$4</f>
         <v>0</v>
       </c>
     </row>
@@ -5606,7 +8417,7 @@
         <v>30</v>
       </c>
       <c r="B7">
-        <f>INDEX(Constants!$B$13:$AS$13,1,ROW(A7)-2)+INDEX(Constants!$B$14:$AS$14,1,ROW(A7)-2)*Constants!$B$4*Constants!$E$4</f>
+        <f>INDEX(Constants!$B$13:$CG$13,1,ROW(A7)-2)+INDEX(Constants!$B$14:$CG$14,1,ROW(A7)-2)*Constants!$B$4*Constants!$E$4</f>
         <v>0</v>
       </c>
     </row>
@@ -5615,7 +8426,7 @@
         <v>31</v>
       </c>
       <c r="B8">
-        <f>INDEX(Constants!$B$13:$AS$13,1,ROW(A8)-2)+INDEX(Constants!$B$14:$AS$14,1,ROW(A8)-2)*Constants!$B$4*Constants!$E$4</f>
+        <f>INDEX(Constants!$B$13:$CG$13,1,ROW(A8)-2)+INDEX(Constants!$B$14:$CG$14,1,ROW(A8)-2)*Constants!$B$4*Constants!$E$4</f>
         <v>0</v>
       </c>
     </row>
@@ -5624,7 +8435,7 @@
         <v>32</v>
       </c>
       <c r="B9">
-        <f>INDEX(Constants!$B$13:$AS$13,1,ROW(A9)-2)+INDEX(Constants!$B$14:$AS$14,1,ROW(A9)-2)*Constants!$B$4*Constants!$E$4</f>
+        <f>INDEX(Constants!$B$13:$CG$13,1,ROW(A9)-2)+INDEX(Constants!$B$14:$CG$14,1,ROW(A9)-2)*Constants!$B$4*Constants!$E$4</f>
         <v>0</v>
       </c>
     </row>
@@ -5633,7 +8444,7 @@
         <v>33</v>
       </c>
       <c r="B10">
-        <f>INDEX(Constants!$B$13:$AS$13,1,ROW(A10)-2)+INDEX(Constants!$B$14:$AS$14,1,ROW(A10)-2)*Constants!$B$4*Constants!$E$4</f>
+        <f>INDEX(Constants!$B$13:$CG$13,1,ROW(A10)-2)+INDEX(Constants!$B$14:$CG$14,1,ROW(A10)-2)*Constants!$B$4*Constants!$E$4</f>
         <v>0</v>
       </c>
     </row>
@@ -5642,7 +8453,7 @@
         <v>34</v>
       </c>
       <c r="B11">
-        <f>INDEX(Constants!$B$13:$AS$13,1,ROW(A11)-2)+INDEX(Constants!$B$14:$AS$14,1,ROW(A11)-2)*Constants!$B$4*Constants!$E$4</f>
+        <f>INDEX(Constants!$B$13:$CG$13,1,ROW(A11)-2)+INDEX(Constants!$B$14:$CG$14,1,ROW(A11)-2)*Constants!$B$4*Constants!$E$4</f>
         <v>0</v>
       </c>
     </row>
@@ -5651,7 +8462,7 @@
         <v>35</v>
       </c>
       <c r="B12">
-        <f>INDEX(Constants!$B$13:$AS$13,1,ROW(A12)-2)+INDEX(Constants!$B$14:$AS$14,1,ROW(A12)-2)*Constants!$B$4*Constants!$E$4</f>
+        <f>INDEX(Constants!$B$13:$CG$13,1,ROW(A12)-2)+INDEX(Constants!$B$14:$CG$14,1,ROW(A12)-2)*Constants!$B$4*Constants!$E$4</f>
         <v>0</v>
       </c>
     </row>
@@ -5660,7 +8471,7 @@
         <v>36</v>
       </c>
       <c r="B13">
-        <f>INDEX(Constants!$B$13:$AS$13,1,ROW(A13)-2)+INDEX(Constants!$B$14:$AS$14,1,ROW(A13)-2)*Constants!$B$4*Constants!$E$4</f>
+        <f>INDEX(Constants!$B$13:$CG$13,1,ROW(A13)-2)+INDEX(Constants!$B$14:$CG$14,1,ROW(A13)-2)*Constants!$B$4*Constants!$E$4</f>
         <v>0</v>
       </c>
     </row>
@@ -5669,7 +8480,7 @@
         <v>37</v>
       </c>
       <c r="B14">
-        <f>INDEX(Constants!$B$13:$AS$13,1,ROW(A14)-2)+INDEX(Constants!$B$14:$AS$14,1,ROW(A14)-2)*Constants!$B$4*Constants!$E$4</f>
+        <f>INDEX(Constants!$B$13:$CG$13,1,ROW(A14)-2)+INDEX(Constants!$B$14:$CG$14,1,ROW(A14)-2)*Constants!$B$4*Constants!$E$4</f>
         <v>0</v>
       </c>
     </row>
@@ -5678,7 +8489,7 @@
         <v>38</v>
       </c>
       <c r="B15">
-        <f>INDEX(Constants!$B$13:$AS$13,1,ROW(A15)-2)+INDEX(Constants!$B$14:$AS$14,1,ROW(A15)-2)*Constants!$B$4*Constants!$E$4</f>
+        <f>INDEX(Constants!$B$13:$CG$13,1,ROW(A15)-2)+INDEX(Constants!$B$14:$CG$14,1,ROW(A15)-2)*Constants!$B$4*Constants!$E$4</f>
         <v>0</v>
       </c>
     </row>
@@ -5687,7 +8498,7 @@
         <v>39</v>
       </c>
       <c r="B16">
-        <f>INDEX(Constants!$B$13:$AS$13,1,ROW(A16)-2)+INDEX(Constants!$B$14:$AS$14,1,ROW(A16)-2)*Constants!$B$4*Constants!$E$4</f>
+        <f>INDEX(Constants!$B$13:$CG$13,1,ROW(A16)-2)+INDEX(Constants!$B$14:$CG$14,1,ROW(A16)-2)*Constants!$B$4*Constants!$E$4</f>
         <v>0</v>
       </c>
     </row>
@@ -5696,7 +8507,7 @@
         <v>40</v>
       </c>
       <c r="B17">
-        <f>INDEX(Constants!$B$13:$AS$13,1,ROW(A17)-2)+INDEX(Constants!$B$14:$AS$14,1,ROW(A17)-2)*Constants!$B$4*Constants!$E$4</f>
+        <f>INDEX(Constants!$B$13:$CG$13,1,ROW(A17)-2)+INDEX(Constants!$B$14:$CG$14,1,ROW(A17)-2)*Constants!$B$4*Constants!$E$4</f>
         <v>0</v>
       </c>
     </row>
@@ -5705,7 +8516,7 @@
         <v>41</v>
       </c>
       <c r="B18">
-        <f>INDEX(Constants!$B$13:$AS$13,1,ROW(A18)-2)+INDEX(Constants!$B$14:$AS$14,1,ROW(A18)-2)*Constants!$B$4*Constants!$E$4</f>
+        <f>INDEX(Constants!$B$13:$CG$13,1,ROW(A18)-2)+INDEX(Constants!$B$14:$CG$14,1,ROW(A18)-2)*Constants!$B$4*Constants!$E$4</f>
         <v>0</v>
       </c>
     </row>
@@ -5714,7 +8525,7 @@
         <v>42</v>
       </c>
       <c r="B19">
-        <f>INDEX(Constants!$B$13:$AS$13,1,ROW(A19)-2)+INDEX(Constants!$B$14:$AS$14,1,ROW(A19)-2)*Constants!$B$4*Constants!$E$4</f>
+        <f>INDEX(Constants!$B$13:$CG$13,1,ROW(A19)-2)+INDEX(Constants!$B$14:$CG$14,1,ROW(A19)-2)*Constants!$B$4*Constants!$E$4</f>
         <v>0</v>
       </c>
     </row>
@@ -5723,7 +8534,7 @@
         <v>43</v>
       </c>
       <c r="B20">
-        <f>INDEX(Constants!$B$13:$AS$13,1,ROW(A20)-2)+INDEX(Constants!$B$14:$AS$14,1,ROW(A20)-2)*Constants!$B$4*Constants!$E$4</f>
+        <f>INDEX(Constants!$B$13:$CG$13,1,ROW(A20)-2)+INDEX(Constants!$B$14:$CG$14,1,ROW(A20)-2)*Constants!$B$4*Constants!$E$4</f>
         <v>0</v>
       </c>
     </row>
@@ -5732,7 +8543,7 @@
         <v>44</v>
       </c>
       <c r="B21">
-        <f>INDEX(Constants!$B$13:$AS$13,1,ROW(A21)-2)+INDEX(Constants!$B$14:$AS$14,1,ROW(A21)-2)*Constants!$B$4*Constants!$E$4</f>
+        <f>INDEX(Constants!$B$13:$CG$13,1,ROW(A21)-2)+INDEX(Constants!$B$14:$CG$14,1,ROW(A21)-2)*Constants!$B$4*Constants!$E$4</f>
         <v>0</v>
       </c>
     </row>
@@ -5741,7 +8552,7 @@
         <v>45</v>
       </c>
       <c r="B22">
-        <f>INDEX(Constants!$B$13:$AS$13,1,ROW(A22)-2)+INDEX(Constants!$B$14:$AS$14,1,ROW(A22)-2)*Constants!$B$4*Constants!$E$4</f>
+        <f>INDEX(Constants!$B$13:$CG$13,1,ROW(A22)-2)+INDEX(Constants!$B$14:$CG$14,1,ROW(A22)-2)*Constants!$B$4*Constants!$E$4</f>
         <v>0</v>
       </c>
     </row>
@@ -5750,7 +8561,7 @@
         <v>46</v>
       </c>
       <c r="B23">
-        <f>INDEX(Constants!$B$13:$AS$13,1,ROW(A23)-2)+INDEX(Constants!$B$14:$AS$14,1,ROW(A23)-2)*Constants!$B$4*Constants!$E$4</f>
+        <f>INDEX(Constants!$B$13:$CG$13,1,ROW(A23)-2)+INDEX(Constants!$B$14:$CG$14,1,ROW(A23)-2)*Constants!$B$4*Constants!$E$4</f>
         <v>0</v>
       </c>
     </row>
@@ -5759,7 +8570,7 @@
         <v>47</v>
       </c>
       <c r="B24">
-        <f>INDEX(Constants!$B$13:$AS$13,1,ROW(A24)-2)+INDEX(Constants!$B$14:$AS$14,1,ROW(A24)-2)*Constants!$B$4*Constants!$E$4</f>
+        <f>INDEX(Constants!$B$13:$CG$13,1,ROW(A24)-2)+INDEX(Constants!$B$14:$CG$14,1,ROW(A24)-2)*Constants!$B$4*Constants!$E$4</f>
         <v>0</v>
       </c>
     </row>
@@ -5768,7 +8579,7 @@
         <v>48</v>
       </c>
       <c r="B25">
-        <f>INDEX(Constants!$B$13:$AS$13,1,ROW(A25)-2)+INDEX(Constants!$B$14:$AS$14,1,ROW(A25)-2)*Constants!$B$4*Constants!$E$4</f>
+        <f>INDEX(Constants!$B$13:$CG$13,1,ROW(A25)-2)+INDEX(Constants!$B$14:$CG$14,1,ROW(A25)-2)*Constants!$B$4*Constants!$E$4</f>
         <v>0</v>
       </c>
     </row>
@@ -5777,7 +8588,7 @@
         <v>49</v>
       </c>
       <c r="B26">
-        <f>INDEX(Constants!$B$13:$AS$13,1,ROW(A26)-2)+INDEX(Constants!$B$14:$AS$14,1,ROW(A26)-2)*Constants!$B$4*Constants!$E$4</f>
+        <f>INDEX(Constants!$B$13:$CG$13,1,ROW(A26)-2)+INDEX(Constants!$B$14:$CG$14,1,ROW(A26)-2)*Constants!$B$4*Constants!$E$4</f>
         <v>0</v>
       </c>
     </row>
@@ -5786,8 +8597,8 @@
         <v>50</v>
       </c>
       <c r="B27">
-        <f>INDEX(Constants!$B$13:$AS$13,1,ROW(A27)-2)+INDEX(Constants!$B$14:$AS$14,1,ROW(A27)-2)*Constants!$B$4*Constants!$E$4</f>
-        <v>-97421.6</v>
+        <f>INDEX(Constants!$B$13:$CG$13,1,ROW(A27)-2)+INDEX(Constants!$B$14:$CG$14,1,ROW(A27)-2)*Constants!$B$4*Constants!$E$4</f>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -5795,8 +8606,8 @@
         <v>51</v>
       </c>
       <c r="B28">
-        <f>INDEX(Constants!$B$13:$AS$13,1,ROW(A28)-2)+INDEX(Constants!$B$14:$AS$14,1,ROW(A28)-2)*Constants!$B$4*Constants!$E$4</f>
-        <v>-97421.6</v>
+        <f>INDEX(Constants!$B$13:$CG$13,1,ROW(A28)-2)+INDEX(Constants!$B$14:$CG$14,1,ROW(A28)-2)*Constants!$B$4*Constants!$E$4</f>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -5804,8 +8615,8 @@
         <v>52</v>
       </c>
       <c r="B29">
-        <f>INDEX(Constants!$B$13:$AS$13,1,ROW(A29)-2)+INDEX(Constants!$B$14:$AS$14,1,ROW(A29)-2)*Constants!$B$4*Constants!$E$4</f>
-        <v>-97421.6</v>
+        <f>INDEX(Constants!$B$13:$CG$13,1,ROW(A29)-2)+INDEX(Constants!$B$14:$CG$14,1,ROW(A29)-2)*Constants!$B$4*Constants!$E$4</f>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -5813,8 +8624,8 @@
         <v>53</v>
       </c>
       <c r="B30">
-        <f>INDEX(Constants!$B$13:$AS$13,1,ROW(A30)-2)+INDEX(Constants!$B$14:$AS$14,1,ROW(A30)-2)*Constants!$B$4*Constants!$E$4</f>
-        <v>-97421.6</v>
+        <f>INDEX(Constants!$B$13:$CG$13,1,ROW(A30)-2)+INDEX(Constants!$B$14:$CG$14,1,ROW(A30)-2)*Constants!$B$4*Constants!$E$4</f>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -5822,8 +8633,8 @@
         <v>54</v>
       </c>
       <c r="B31">
-        <f>INDEX(Constants!$B$13:$AS$13,1,ROW(A31)-2)+INDEX(Constants!$B$14:$AS$14,1,ROW(A31)-2)*Constants!$B$4*Constants!$E$4</f>
-        <v>-97421.6</v>
+        <f>INDEX(Constants!$B$13:$CG$13,1,ROW(A31)-2)+INDEX(Constants!$B$14:$CG$14,1,ROW(A31)-2)*Constants!$B$4*Constants!$E$4</f>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -5831,8 +8642,8 @@
         <v>55</v>
       </c>
       <c r="B32">
-        <f>INDEX(Constants!$B$13:$AS$13,1,ROW(A32)-2)+INDEX(Constants!$B$14:$AS$14,1,ROW(A32)-2)*Constants!$B$4*Constants!$E$4</f>
-        <v>-97421.6</v>
+        <f>INDEX(Constants!$B$13:$CG$13,1,ROW(A32)-2)+INDEX(Constants!$B$14:$CG$14,1,ROW(A32)-2)*Constants!$B$4*Constants!$E$4</f>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -5840,8 +8651,8 @@
         <v>56</v>
       </c>
       <c r="B33">
-        <f>INDEX(Constants!$B$13:$AS$13,1,ROW(A33)-2)+INDEX(Constants!$B$14:$AS$14,1,ROW(A33)-2)*Constants!$B$4*Constants!$E$4</f>
-        <v>-97421.6</v>
+        <f>INDEX(Constants!$B$13:$CG$13,1,ROW(A33)-2)+INDEX(Constants!$B$14:$CG$14,1,ROW(A33)-2)*Constants!$B$4*Constants!$E$4</f>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -5849,8 +8660,8 @@
         <v>57</v>
       </c>
       <c r="B34">
-        <f>INDEX(Constants!$B$13:$AS$13,1,ROW(A34)-2)+INDEX(Constants!$B$14:$AS$14,1,ROW(A34)-2)*Constants!$B$4*Constants!$E$4</f>
-        <v>-97421.6</v>
+        <f>INDEX(Constants!$B$13:$CG$13,1,ROW(A34)-2)+INDEX(Constants!$B$14:$CG$14,1,ROW(A34)-2)*Constants!$B$4*Constants!$E$4</f>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -5858,8 +8669,8 @@
         <v>58</v>
       </c>
       <c r="B35">
-        <f>INDEX(Constants!$B$13:$AS$13,1,ROW(A35)-2)+INDEX(Constants!$B$14:$AS$14,1,ROW(A35)-2)*Constants!$B$4*Constants!$E$4</f>
-        <v>-97421.6</v>
+        <f>INDEX(Constants!$B$13:$CG$13,1,ROW(A35)-2)+INDEX(Constants!$B$14:$CG$14,1,ROW(A35)-2)*Constants!$B$4*Constants!$E$4</f>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -5867,8 +8678,8 @@
         <v>59</v>
       </c>
       <c r="B36">
-        <f>INDEX(Constants!$B$13:$AS$13,1,ROW(A36)-2)+INDEX(Constants!$B$14:$AS$14,1,ROW(A36)-2)*Constants!$B$4*Constants!$E$4</f>
-        <v>-97421.6</v>
+        <f>INDEX(Constants!$B$13:$CG$13,1,ROW(A36)-2)+INDEX(Constants!$B$14:$CG$14,1,ROW(A36)-2)*Constants!$B$4*Constants!$E$4</f>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -5876,8 +8687,8 @@
         <v>60</v>
       </c>
       <c r="B37">
-        <f>INDEX(Constants!$B$13:$AS$13,1,ROW(A37)-2)+INDEX(Constants!$B$14:$AS$14,1,ROW(A37)-2)*Constants!$B$4*Constants!$E$4</f>
-        <v>-97421.6</v>
+        <f>INDEX(Constants!$B$13:$CG$13,1,ROW(A37)-2)+INDEX(Constants!$B$14:$CG$14,1,ROW(A37)-2)*Constants!$B$4*Constants!$E$4</f>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -5885,8 +8696,8 @@
         <v>61</v>
       </c>
       <c r="B38">
-        <f>INDEX(Constants!$B$13:$AS$13,1,ROW(A38)-2)+INDEX(Constants!$B$14:$AS$14,1,ROW(A38)-2)*Constants!$B$4*Constants!$E$4</f>
-        <v>-97421.6</v>
+        <f>INDEX(Constants!$B$13:$CG$13,1,ROW(A38)-2)+INDEX(Constants!$B$14:$CG$14,1,ROW(A38)-2)*Constants!$B$4*Constants!$E$4</f>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -5894,8 +8705,8 @@
         <v>62</v>
       </c>
       <c r="B39">
-        <f>INDEX(Constants!$B$13:$AS$13,1,ROW(A39)-2)+INDEX(Constants!$B$14:$AS$14,1,ROW(A39)-2)*Constants!$B$4*Constants!$E$4</f>
-        <v>-97421.6</v>
+        <f>INDEX(Constants!$B$13:$CG$13,1,ROW(A39)-2)+INDEX(Constants!$B$14:$CG$14,1,ROW(A39)-2)*Constants!$B$4*Constants!$E$4</f>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -5903,8 +8714,8 @@
         <v>63</v>
       </c>
       <c r="B40">
-        <f>INDEX(Constants!$B$13:$AS$13,1,ROW(A40)-2)+INDEX(Constants!$B$14:$AS$14,1,ROW(A40)-2)*Constants!$B$4*Constants!$E$4</f>
-        <v>-97421.6</v>
+        <f>INDEX(Constants!$B$13:$CG$13,1,ROW(A40)-2)+INDEX(Constants!$B$14:$CG$14,1,ROW(A40)-2)*Constants!$B$4*Constants!$E$4</f>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -5912,8 +8723,8 @@
         <v>64</v>
       </c>
       <c r="B41">
-        <f>INDEX(Constants!$B$13:$AS$13,1,ROW(A41)-2)+INDEX(Constants!$B$14:$AS$14,1,ROW(A41)-2)*Constants!$B$4*Constants!$E$4</f>
-        <v>-97421.6</v>
+        <f>INDEX(Constants!$B$13:$CG$13,1,ROW(A41)-2)+INDEX(Constants!$B$14:$CG$14,1,ROW(A41)-2)*Constants!$B$4*Constants!$E$4</f>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -5921,8 +8732,8 @@
         <v>65</v>
       </c>
       <c r="B42">
-        <f>INDEX(Constants!$B$13:$AS$13,1,ROW(A42)-2)+INDEX(Constants!$B$14:$AS$14,1,ROW(A42)-2)*Constants!$B$4*Constants!$E$4</f>
-        <v>-97421.6</v>
+        <f>INDEX(Constants!$B$13:$CG$13,1,ROW(A42)-2)+INDEX(Constants!$B$14:$CG$14,1,ROW(A42)-2)*Constants!$B$4*Constants!$E$4</f>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -5930,8 +8741,8 @@
         <v>66</v>
       </c>
       <c r="B43">
-        <f>INDEX(Constants!$B$13:$AS$13,1,ROW(A43)-2)+INDEX(Constants!$B$14:$AS$14,1,ROW(A43)-2)*Constants!$B$4*Constants!$E$4</f>
-        <v>-97421.6</v>
+        <f>INDEX(Constants!$B$13:$CG$13,1,ROW(A43)-2)+INDEX(Constants!$B$14:$CG$14,1,ROW(A43)-2)*Constants!$B$4*Constants!$E$4</f>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -5939,8 +8750,8 @@
         <v>67</v>
       </c>
       <c r="B44">
-        <f>INDEX(Constants!$B$13:$AS$13,1,ROW(A44)-2)+INDEX(Constants!$B$14:$AS$14,1,ROW(A44)-2)*Constants!$B$4*Constants!$E$4</f>
-        <v>-97421.6</v>
+        <f>INDEX(Constants!$B$13:$CG$13,1,ROW(A44)-2)+INDEX(Constants!$B$14:$CG$14,1,ROW(A44)-2)*Constants!$B$4*Constants!$E$4</f>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -5948,8 +8759,8 @@
         <v>68</v>
       </c>
       <c r="B45">
-        <f>INDEX(Constants!$B$13:$AS$13,1,ROW(A45)-2)+INDEX(Constants!$B$14:$AS$14,1,ROW(A45)-2)*Constants!$B$4*Constants!$E$4</f>
-        <v>-97421.6</v>
+        <f>INDEX(Constants!$B$13:$CG$13,1,ROW(A45)-2)+INDEX(Constants!$B$14:$CG$14,1,ROW(A45)-2)*Constants!$B$4*Constants!$E$4</f>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -5957,8 +8768,8 @@
         <v>69</v>
       </c>
       <c r="B46">
-        <f>INDEX(Constants!$B$13:$AS$13,1,ROW(A46)-2)+INDEX(Constants!$B$14:$AS$14,1,ROW(A46)-2)*Constants!$B$4*Constants!$E$4</f>
-        <v>-97421.6</v>
+        <f>INDEX(Constants!$B$13:$CG$13,1,ROW(A46)-2)+INDEX(Constants!$B$14:$CG$14,1,ROW(A46)-2)*Constants!$B$4*Constants!$E$4</f>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -5966,6 +8777,7 @@
         <v>70</v>
       </c>
       <c r="B47">
+        <f>INDEX(Constants!$B$13:$CG$13,1,ROW(A47)-2)+INDEX(Constants!$B$14:$CG$14,1,ROW(A47)-2)*Constants!$B$4*Constants!$E$4</f>
         <v>0</v>
       </c>
     </row>
@@ -5974,6 +8786,7 @@
         <v>71</v>
       </c>
       <c r="B48">
+        <f>INDEX(Constants!$B$13:$CG$13,1,ROW(A48)-2)+INDEX(Constants!$B$14:$CG$14,1,ROW(A48)-2)*Constants!$B$4*Constants!$E$4</f>
         <v>0</v>
       </c>
     </row>
@@ -5982,6 +8795,7 @@
         <v>72</v>
       </c>
       <c r="B49">
+        <f>INDEX(Constants!$B$13:$CG$13,1,ROW(A49)-2)+INDEX(Constants!$B$14:$CG$14,1,ROW(A49)-2)*Constants!$B$4*Constants!$E$4</f>
         <v>0</v>
       </c>
     </row>
@@ -5990,6 +8804,7 @@
         <v>73</v>
       </c>
       <c r="B50">
+        <f>INDEX(Constants!$B$13:$CG$13,1,ROW(A50)-2)+INDEX(Constants!$B$14:$CG$14,1,ROW(A50)-2)*Constants!$B$4*Constants!$E$4</f>
         <v>0</v>
       </c>
     </row>
@@ -5998,6 +8813,7 @@
         <v>74</v>
       </c>
       <c r="B51">
+        <f>INDEX(Constants!$B$13:$CG$13,1,ROW(A51)-2)+INDEX(Constants!$B$14:$CG$14,1,ROW(A51)-2)*Constants!$B$4*Constants!$E$4</f>
         <v>0</v>
       </c>
     </row>
@@ -6006,6 +8822,7 @@
         <v>75</v>
       </c>
       <c r="B52">
+        <f>INDEX(Constants!$B$13:$CG$13,1,ROW(A52)-2)+INDEX(Constants!$B$14:$CG$14,1,ROW(A52)-2)*Constants!$B$4*Constants!$E$4</f>
         <v>0</v>
       </c>
     </row>
@@ -6014,6 +8831,7 @@
         <v>76</v>
       </c>
       <c r="B53">
+        <f>INDEX(Constants!$B$13:$CG$13,1,ROW(A53)-2)+INDEX(Constants!$B$14:$CG$14,1,ROW(A53)-2)*Constants!$B$4*Constants!$E$4</f>
         <v>0</v>
       </c>
     </row>
@@ -6022,6 +8840,7 @@
         <v>77</v>
       </c>
       <c r="B54">
+        <f>INDEX(Constants!$B$13:$CG$13,1,ROW(A54)-2)+INDEX(Constants!$B$14:$CG$14,1,ROW(A54)-2)*Constants!$B$4*Constants!$E$4</f>
         <v>0</v>
       </c>
     </row>
@@ -6030,6 +8849,7 @@
         <v>78</v>
       </c>
       <c r="B55">
+        <f>INDEX(Constants!$B$13:$CG$13,1,ROW(A55)-2)+INDEX(Constants!$B$14:$CG$14,1,ROW(A55)-2)*Constants!$B$4*Constants!$E$4</f>
         <v>0</v>
       </c>
     </row>
@@ -6038,6 +8858,7 @@
         <v>79</v>
       </c>
       <c r="B56">
+        <f>INDEX(Constants!$B$13:$CG$13,1,ROW(A56)-2)+INDEX(Constants!$B$14:$CG$14,1,ROW(A56)-2)*Constants!$B$4*Constants!$E$4</f>
         <v>0</v>
       </c>
     </row>
@@ -6046,6 +8867,7 @@
         <v>80</v>
       </c>
       <c r="B57">
+        <f>INDEX(Constants!$B$13:$CG$13,1,ROW(A57)-2)+INDEX(Constants!$B$14:$CG$14,1,ROW(A57)-2)*Constants!$B$4*Constants!$E$4</f>
         <v>0</v>
       </c>
     </row>
@@ -6054,6 +8876,7 @@
         <v>81</v>
       </c>
       <c r="B58">
+        <f>INDEX(Constants!$B$13:$CG$13,1,ROW(A58)-2)+INDEX(Constants!$B$14:$CG$14,1,ROW(A58)-2)*Constants!$B$4*Constants!$E$4</f>
         <v>0</v>
       </c>
     </row>
@@ -6062,6 +8885,7 @@
         <v>82</v>
       </c>
       <c r="B59">
+        <f>INDEX(Constants!$B$13:$CG$13,1,ROW(A59)-2)+INDEX(Constants!$B$14:$CG$14,1,ROW(A59)-2)*Constants!$B$4*Constants!$E$4</f>
         <v>0</v>
       </c>
     </row>
@@ -6070,6 +8894,7 @@
         <v>83</v>
       </c>
       <c r="B60">
+        <f>INDEX(Constants!$B$13:$CG$13,1,ROW(A60)-2)+INDEX(Constants!$B$14:$CG$14,1,ROW(A60)-2)*Constants!$B$4*Constants!$E$4</f>
         <v>0</v>
       </c>
     </row>
@@ -6078,6 +8903,7 @@
         <v>84</v>
       </c>
       <c r="B61">
+        <f>INDEX(Constants!$B$13:$CG$13,1,ROW(A61)-2)+INDEX(Constants!$B$14:$CG$14,1,ROW(A61)-2)*Constants!$B$4*Constants!$E$4</f>
         <v>0</v>
       </c>
     </row>
@@ -6086,6 +8912,7 @@
         <v>85</v>
       </c>
       <c r="B62">
+        <f>INDEX(Constants!$B$13:$CG$13,1,ROW(A62)-2)+INDEX(Constants!$B$14:$CG$14,1,ROW(A62)-2)*Constants!$B$4*Constants!$E$4</f>
         <v>0</v>
       </c>
     </row>
@@ -6094,6 +8921,7 @@
         <v>86</v>
       </c>
       <c r="B63">
+        <f>INDEX(Constants!$B$13:$CG$13,1,ROW(A63)-2)+INDEX(Constants!$B$14:$CG$14,1,ROW(A63)-2)*Constants!$B$4*Constants!$E$4</f>
         <v>0</v>
       </c>
     </row>
@@ -6102,6 +8930,7 @@
         <v>87</v>
       </c>
       <c r="B64">
+        <f>INDEX(Constants!$B$13:$CG$13,1,ROW(A64)-2)+INDEX(Constants!$B$14:$CG$14,1,ROW(A64)-2)*Constants!$B$4*Constants!$E$4</f>
         <v>0</v>
       </c>
     </row>
@@ -6110,6 +8939,7 @@
         <v>88</v>
       </c>
       <c r="B65">
+        <f>INDEX(Constants!$B$13:$CG$13,1,ROW(A65)-2)+INDEX(Constants!$B$14:$CG$14,1,ROW(A65)-2)*Constants!$B$4*Constants!$E$4</f>
         <v>0</v>
       </c>
     </row>
@@ -6118,6 +8948,7 @@
         <v>89</v>
       </c>
       <c r="B66">
+        <f>INDEX(Constants!$B$13:$CG$13,1,ROW(A66)-2)+INDEX(Constants!$B$14:$CG$14,1,ROW(A66)-2)*Constants!$B$4*Constants!$E$4</f>
         <v>0</v>
       </c>
     </row>
@@ -6125,233 +8956,693 @@
       <c r="A67" t="s">
         <v>90</v>
       </c>
-      <c r="B67">
-        <v>0</v>
+      <c r="B67" s="19">
+        <f>INDEX(Constants!$B$13:$CG$13,1,ROW(A67)-2)+INDEX(Constants!$B$14:$CG$14,1,ROW(A67)-2)*Constants!$B$4*Constants!$E$4</f>
+        <v>-87611.6</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" t="s">
         <v>91</v>
       </c>
-      <c r="B68">
-        <v>0</v>
+      <c r="B68" s="19">
+        <f>INDEX(Constants!$B$13:$CG$13,1,ROW(A68)-2)+INDEX(Constants!$B$14:$CG$14,1,ROW(A68)-2)*Constants!$B$4*Constants!$E$4</f>
+        <v>-87611.6</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" t="s">
         <v>93</v>
       </c>
-      <c r="B69">
-        <v>0</v>
+      <c r="B69" s="19">
+        <f>INDEX(Constants!$B$13:$CG$13,1,ROW(A69)-2)+INDEX(Constants!$B$14:$CG$14,1,ROW(A69)-2)*Constants!$B$4*Constants!$E$4</f>
+        <v>-87611.6</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" t="s">
         <v>94</v>
       </c>
-      <c r="B70">
-        <f>Constants!AS15*Constants!AS12^2</f>
-        <v>1.7683882565766148E-11</v>
+      <c r="B70" s="19">
+        <f>INDEX(Constants!$B$13:$CG$13,1,ROW(A70)-2)+INDEX(Constants!$B$14:$CG$14,1,ROW(A70)-2)*Constants!$B$4*Constants!$E$4</f>
+        <v>-87611.6</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" t="s">
-        <v>295</v>
+        <v>289</v>
+      </c>
+      <c r="B71" s="19">
+        <f>INDEX(Constants!$B$13:$CG$13,1,ROW(A71)-2)+INDEX(Constants!$B$14:$CG$14,1,ROW(A71)-2)*Constants!$B$4*Constants!$E$4</f>
+        <v>-87611.6</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" t="s">
-        <v>296</v>
+        <v>290</v>
+      </c>
+      <c r="B72" s="19">
+        <f>INDEX(Constants!$B$13:$CG$13,1,ROW(A72)-2)+INDEX(Constants!$B$14:$CG$14,1,ROW(A72)-2)*Constants!$B$4*Constants!$E$4</f>
+        <v>-87611.6</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" t="s">
-        <v>297</v>
+        <v>291</v>
+      </c>
+      <c r="B73" s="19">
+        <f>INDEX(Constants!$B$13:$CG$13,1,ROW(A73)-2)+INDEX(Constants!$B$14:$CG$14,1,ROW(A73)-2)*Constants!$B$4*Constants!$E$4</f>
+        <v>-87611.6</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" t="s">
-        <v>298</v>
+        <v>292</v>
+      </c>
+      <c r="B74" s="19">
+        <f>INDEX(Constants!$B$13:$CG$13,1,ROW(A74)-2)+INDEX(Constants!$B$14:$CG$14,1,ROW(A74)-2)*Constants!$B$4*Constants!$E$4</f>
+        <v>-87611.6</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" t="s">
-        <v>299</v>
+        <v>293</v>
+      </c>
+      <c r="B75" s="19">
+        <f>INDEX(Constants!$B$13:$CG$13,1,ROW(A75)-2)+INDEX(Constants!$B$14:$CG$14,1,ROW(A75)-2)*Constants!$B$4*Constants!$E$4</f>
+        <v>-87611.6</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" t="s">
-        <v>300</v>
+        <v>294</v>
+      </c>
+      <c r="B76" s="19">
+        <f>INDEX(Constants!$B$13:$CG$13,1,ROW(A76)-2)+INDEX(Constants!$B$14:$CG$14,1,ROW(A76)-2)*Constants!$B$4*Constants!$E$4</f>
+        <v>-87611.6</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" t="s">
-        <v>301</v>
+        <v>295</v>
+      </c>
+      <c r="B77" s="19">
+        <f>INDEX(Constants!$B$13:$CG$13,1,ROW(A77)-2)+INDEX(Constants!$B$14:$CG$14,1,ROW(A77)-2)*Constants!$B$4*Constants!$E$4</f>
+        <v>-87611.6</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" t="s">
-        <v>302</v>
+        <v>296</v>
+      </c>
+      <c r="B78" s="19">
+        <f>INDEX(Constants!$B$13:$CG$13,1,ROW(A78)-2)+INDEX(Constants!$B$14:$CG$14,1,ROW(A78)-2)*Constants!$B$4*Constants!$E$4</f>
+        <v>-87611.6</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" t="s">
-        <v>303</v>
+        <v>297</v>
+      </c>
+      <c r="B79" s="19">
+        <f>INDEX(Constants!$B$13:$CG$13,1,ROW(A79)-2)+INDEX(Constants!$B$14:$CG$14,1,ROW(A79)-2)*Constants!$B$4*Constants!$E$4</f>
+        <v>-87611.6</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" t="s">
+        <v>298</v>
+      </c>
+      <c r="B80" s="19">
+        <f>INDEX(Constants!$B$13:$CG$13,1,ROW(A80)-2)+INDEX(Constants!$B$14:$CG$14,1,ROW(A80)-2)*Constants!$B$4*Constants!$E$4</f>
+        <v>-87611.6</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2">
+      <c r="A81" t="s">
+        <v>299</v>
+      </c>
+      <c r="B81" s="19">
+        <f>INDEX(Constants!$B$13:$CG$13,1,ROW(A81)-2)+INDEX(Constants!$B$14:$CG$14,1,ROW(A81)-2)*Constants!$B$4*Constants!$E$4</f>
+        <v>-87611.6</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2">
+      <c r="A82" t="s">
+        <v>300</v>
+      </c>
+      <c r="B82" s="19">
+        <f>INDEX(Constants!$B$13:$CG$13,1,ROW(A82)-2)+INDEX(Constants!$B$14:$CG$14,1,ROW(A82)-2)*Constants!$B$4*Constants!$E$4</f>
+        <v>-87611.6</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2">
+      <c r="A83" t="s">
+        <v>301</v>
+      </c>
+      <c r="B83" s="19">
+        <f>INDEX(Constants!$B$13:$CG$13,1,ROW(A83)-2)+INDEX(Constants!$B$14:$CG$14,1,ROW(A83)-2)*Constants!$B$4*Constants!$E$4</f>
+        <v>-87611.6</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2">
+      <c r="A84" t="s">
+        <v>302</v>
+      </c>
+      <c r="B84" s="19">
+        <f>INDEX(Constants!$B$13:$CG$13,1,ROW(A84)-2)+INDEX(Constants!$B$14:$CG$14,1,ROW(A84)-2)*Constants!$B$4*Constants!$E$4</f>
+        <v>-87611.6</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2">
+      <c r="A85" t="s">
+        <v>303</v>
+      </c>
+      <c r="B85" s="19">
+        <f>INDEX(Constants!$B$13:$CG$13,1,ROW(A85)-2)+INDEX(Constants!$B$14:$CG$14,1,ROW(A85)-2)*Constants!$B$4*Constants!$E$4</f>
+        <v>-87611.6</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2">
+      <c r="A86" t="s">
         <v>304</v>
       </c>
-    </row>
-    <row r="81" spans="1:1">
-      <c r="A81" t="s">
+      <c r="B86" s="19">
+        <f>INDEX(Constants!$B$13:$CG$13,1,ROW(A86)-2)+INDEX(Constants!$B$14:$CG$14,1,ROW(A86)-2)*Constants!$B$4*Constants!$E$4+Constants!B4*Constants!CG18*Constants!CG15^2</f>
+        <v>-87611.599975381017</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2">
+      <c r="A87" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="82" spans="1:1">
-      <c r="A82" t="s">
+      <c r="B87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2">
+      <c r="A88" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="83" spans="1:1">
-      <c r="A83" t="s">
+      <c r="B88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2">
+      <c r="A89" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="84" spans="1:1">
-      <c r="A84" t="s">
+      <c r="B89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2">
+      <c r="A90" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="85" spans="1:1">
-      <c r="A85" t="s">
+      <c r="B90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2">
+      <c r="A91" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="86" spans="1:1">
-      <c r="A86" t="s">
+      <c r="B91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2">
+      <c r="A92" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="87" spans="1:1">
-      <c r="A87" t="s">
+      <c r="B92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2">
+      <c r="A93" t="s">
         <v>311</v>
       </c>
-    </row>
-    <row r="88" spans="1:1">
-      <c r="A88" t="s">
+      <c r="B93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2">
+      <c r="A94" t="s">
         <v>312</v>
       </c>
-    </row>
-    <row r="89" spans="1:1">
-      <c r="A89" t="s">
+      <c r="B94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2">
+      <c r="A95" t="s">
         <v>313</v>
       </c>
-    </row>
-    <row r="90" spans="1:1">
-      <c r="A90" t="s">
+      <c r="B95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2">
+      <c r="A96" t="s">
         <v>314</v>
       </c>
-    </row>
-    <row r="91" spans="1:1">
-      <c r="A91" t="s">
+      <c r="B96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2">
+      <c r="A97" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="92" spans="1:1">
-      <c r="A92" t="s">
+      <c r="B97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2">
+      <c r="A98" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="93" spans="1:1">
-      <c r="A93" t="s">
+      <c r="B98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2">
+      <c r="A99" t="s">
         <v>317</v>
       </c>
-    </row>
-    <row r="94" spans="1:1">
-      <c r="A94" t="s">
+      <c r="B99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2">
+      <c r="A100" t="s">
         <v>318</v>
       </c>
-    </row>
-    <row r="95" spans="1:1">
-      <c r="A95" t="s">
+      <c r="B100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2">
+      <c r="A101" t="s">
         <v>319</v>
       </c>
-    </row>
-    <row r="96" spans="1:1">
-      <c r="A96" t="s">
+      <c r="B101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2">
+      <c r="A102" t="s">
         <v>320</v>
       </c>
-    </row>
-    <row r="97" spans="1:1">
-      <c r="A97" t="s">
+      <c r="B102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2">
+      <c r="A103" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="98" spans="1:1">
-      <c r="A98" t="s">
+      <c r="B103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2">
+      <c r="A104" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="99" spans="1:1">
-      <c r="A99" t="s">
+      <c r="B104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2">
+      <c r="A105" t="s">
         <v>323</v>
       </c>
-    </row>
-    <row r="100" spans="1:1">
-      <c r="A100" t="s">
+      <c r="B105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2">
+      <c r="A106" t="s">
         <v>324</v>
       </c>
-    </row>
-    <row r="101" spans="1:1">
-      <c r="A101" t="s">
+      <c r="B106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2">
+      <c r="A107" t="s">
         <v>325</v>
       </c>
-    </row>
-    <row r="102" spans="1:1">
-      <c r="A102" t="s">
+      <c r="B107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2">
+      <c r="A108" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="103" spans="1:1">
-      <c r="A103" t="s">
+      <c r="B108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2">
+      <c r="A109" t="s">
         <v>327</v>
       </c>
-    </row>
-    <row r="104" spans="1:1">
-      <c r="A104" t="s">
+      <c r="B109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2">
+      <c r="A110" t="s">
         <v>328</v>
       </c>
-    </row>
-    <row r="105" spans="1:1">
-      <c r="A105" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="106" spans="1:1">
-      <c r="A106" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="107" spans="1:1">
-      <c r="A107" t="s">
+      <c r="B110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2">
+      <c r="A111" t="s">
         <v>331</v>
       </c>
-    </row>
-    <row r="108" spans="1:1">
-      <c r="A108" t="s">
+      <c r="B111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2">
+      <c r="A112" t="s">
         <v>332</v>
       </c>
-    </row>
-    <row r="109" spans="1:1">
-      <c r="A109" t="s">
+      <c r="B112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2">
+      <c r="A113" t="s">
         <v>333</v>
       </c>
-    </row>
-    <row r="110" spans="1:1">
-      <c r="A110" t="s">
+      <c r="B113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2">
+      <c r="A114" t="s">
         <v>334</v>
+      </c>
+      <c r="B114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2">
+      <c r="A115" t="s">
+        <v>335</v>
+      </c>
+      <c r="B115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2">
+      <c r="A116" t="s">
+        <v>336</v>
+      </c>
+      <c r="B116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2">
+      <c r="A117" t="s">
+        <v>337</v>
+      </c>
+      <c r="B117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2">
+      <c r="A118" t="s">
+        <v>338</v>
+      </c>
+      <c r="B118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2">
+      <c r="A119" t="s">
+        <v>339</v>
+      </c>
+      <c r="B119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2">
+      <c r="A120" t="s">
+        <v>340</v>
+      </c>
+      <c r="B120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2">
+      <c r="A121" t="s">
+        <v>341</v>
+      </c>
+      <c r="B121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2">
+      <c r="A122" t="s">
+        <v>342</v>
+      </c>
+      <c r="B122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2">
+      <c r="A123" t="s">
+        <v>343</v>
+      </c>
+      <c r="B123">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2">
+      <c r="A124" t="s">
+        <v>344</v>
+      </c>
+      <c r="B124">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2">
+      <c r="A125" t="s">
+        <v>345</v>
+      </c>
+      <c r="B125">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2">
+      <c r="A126" t="s">
+        <v>346</v>
+      </c>
+      <c r="B126">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2">
+      <c r="A127" t="s">
+        <v>347</v>
+      </c>
+      <c r="B127">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2">
+      <c r="A128" t="s">
+        <v>348</v>
+      </c>
+      <c r="B128">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2">
+      <c r="A129" t="s">
+        <v>349</v>
+      </c>
+      <c r="B129">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2">
+      <c r="A130" t="s">
+        <v>350</v>
+      </c>
+      <c r="B130">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2">
+      <c r="A131" t="s">
+        <v>351</v>
+      </c>
+      <c r="B131">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2">
+      <c r="A132" t="s">
+        <v>352</v>
+      </c>
+      <c r="B132">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2">
+      <c r="A133" t="s">
+        <v>353</v>
+      </c>
+      <c r="B133">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2">
+      <c r="A134" t="s">
+        <v>354</v>
+      </c>
+      <c r="B134">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2">
+      <c r="A135" t="s">
+        <v>355</v>
+      </c>
+      <c r="B135">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2">
+      <c r="A136" t="s">
+        <v>356</v>
+      </c>
+      <c r="B136">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2">
+      <c r="A137" t="s">
+        <v>357</v>
+      </c>
+      <c r="B137">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2">
+      <c r="A138" t="s">
+        <v>358</v>
+      </c>
+      <c r="B138">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2">
+      <c r="A139" t="s">
+        <v>359</v>
+      </c>
+      <c r="B139">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2">
+      <c r="A140" t="s">
+        <v>360</v>
+      </c>
+      <c r="B140">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2">
+      <c r="A141" t="s">
+        <v>361</v>
+      </c>
+      <c r="B141">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2">
+      <c r="A142" t="s">
+        <v>362</v>
+      </c>
+      <c r="B142">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2">
+      <c r="A143" t="s">
+        <v>363</v>
+      </c>
+      <c r="B143">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2">
+      <c r="A144" t="s">
+        <v>364</v>
+      </c>
+      <c r="B144">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2">
+      <c r="A145" t="s">
+        <v>365</v>
+      </c>
+      <c r="B145">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2">
+      <c r="A146" t="s">
+        <v>366</v>
+      </c>
+      <c r="B146">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2">
+      <c r="A147" t="s">
+        <v>367</v>
+      </c>
+      <c r="B147">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2">
+      <c r="A148" t="s">
+        <v>368</v>
+      </c>
+      <c r="B148">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2">
+      <c r="A149" t="s">
+        <v>369</v>
+      </c>
+      <c r="B149">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2">
+      <c r="A150" t="s">
+        <v>370</v>
+      </c>
+      <c r="B150">
+        <f>Constants!CG15*Constants!AS12^2</f>
+        <v>1.7683882565766148E-11</v>
       </c>
     </row>
   </sheetData>

--- a/pipe/coefficients2.xlsx
+++ b/pipe/coefficients2.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="903" uniqueCount="419">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="904" uniqueCount="419">
   <si>
     <t>Matrix A</t>
   </si>
@@ -1485,8 +1485,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="67">
+  <cellStyleXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1598,7 +1604,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="67">
+  <cellStyles count="73">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1632,6 +1638,9 @@
     <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="72" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1665,6 +1674,9 @@
     <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="65" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="67" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="69" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="71" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1996,8 +2008,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CG18"/>
   <sheetViews>
-    <sheetView topLeftCell="BW1" workbookViewId="0">
-      <selection activeCell="O4" sqref="O4"/>
+    <sheetView topLeftCell="Y1" workbookViewId="0">
+      <selection activeCell="AS18" sqref="AS18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3995,7 +4007,7 @@
   <dimension ref="A1:ET150"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="BB66" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="DM117" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
       <selection pane="bottomRight" activeCell="BN86" sqref="BN86"/>
@@ -6830,13 +6842,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:ES150"/>
+  <dimension ref="A1:ET150"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="AP3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="DG31" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="DH24" sqref="DH24"/>
+      <selection pane="bottomRight" activeCell="DV49" sqref="DV49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -6895,15 +6907,16 @@
     <col min="65" max="66" width="5.33203125" bestFit="1" customWidth="1"/>
     <col min="67" max="90" width="5.83203125" bestFit="1" customWidth="1"/>
     <col min="91" max="109" width="5.1640625" bestFit="1" customWidth="1"/>
-    <col min="110" max="148" width="6.1640625" bestFit="1" customWidth="1"/>
+    <col min="110" max="110" width="5.1640625" customWidth="1"/>
+    <col min="111" max="149" width="6.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:149">
+    <row r="1" spans="1:150">
       <c r="A1" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="2" spans="1:149">
+    <row r="2" spans="1:150">
       <c r="B2" t="s">
         <v>1</v>
       </c>
@@ -7229,127 +7242,130 @@
         <v>247</v>
       </c>
       <c r="DF2" t="s">
+        <v>248</v>
+      </c>
+      <c r="DG2" t="s">
         <v>249</v>
       </c>
-      <c r="DG2" t="s">
+      <c r="DH2" t="s">
         <v>250</v>
       </c>
-      <c r="DH2" t="s">
+      <c r="DI2" t="s">
         <v>251</v>
       </c>
-      <c r="DI2" t="s">
+      <c r="DJ2" t="s">
         <v>252</v>
       </c>
-      <c r="DJ2" t="s">
+      <c r="DK2" t="s">
         <v>253</v>
       </c>
-      <c r="DK2" t="s">
+      <c r="DL2" t="s">
         <v>254</v>
       </c>
-      <c r="DL2" t="s">
+      <c r="DM2" t="s">
         <v>255</v>
       </c>
-      <c r="DM2" t="s">
+      <c r="DN2" t="s">
         <v>256</v>
       </c>
-      <c r="DN2" t="s">
+      <c r="DO2" t="s">
         <v>257</v>
       </c>
-      <c r="DO2" t="s">
+      <c r="DP2" t="s">
         <v>258</v>
       </c>
-      <c r="DP2" t="s">
+      <c r="DQ2" t="s">
         <v>259</v>
       </c>
-      <c r="DQ2" t="s">
+      <c r="DR2" t="s">
         <v>260</v>
       </c>
-      <c r="DR2" t="s">
+      <c r="DS2" t="s">
         <v>261</v>
       </c>
-      <c r="DS2" t="s">
+      <c r="DT2" t="s">
         <v>262</v>
       </c>
-      <c r="DT2" t="s">
+      <c r="DU2" t="s">
         <v>263</v>
       </c>
-      <c r="DU2" t="s">
+      <c r="DV2" t="s">
         <v>264</v>
       </c>
-      <c r="DV2" t="s">
+      <c r="DW2" t="s">
         <v>265</v>
       </c>
-      <c r="DW2" t="s">
+      <c r="DX2" t="s">
         <v>266</v>
       </c>
-      <c r="DX2" t="s">
+      <c r="DY2" t="s">
         <v>267</v>
       </c>
-      <c r="DY2" t="s">
+      <c r="DZ2" t="s">
         <v>268</v>
       </c>
-      <c r="DZ2" t="s">
+      <c r="EA2" t="s">
         <v>269</v>
       </c>
-      <c r="EA2" t="s">
+      <c r="EB2" t="s">
         <v>270</v>
       </c>
-      <c r="EB2" t="s">
+      <c r="EC2" t="s">
         <v>271</v>
       </c>
-      <c r="EC2" t="s">
+      <c r="ED2" t="s">
         <v>272</v>
       </c>
-      <c r="ED2" t="s">
+      <c r="EE2" t="s">
         <v>273</v>
       </c>
-      <c r="EE2" t="s">
+      <c r="EF2" t="s">
         <v>274</v>
       </c>
-      <c r="EF2" t="s">
+      <c r="EG2" t="s">
         <v>275</v>
       </c>
-      <c r="EG2" t="s">
+      <c r="EH2" t="s">
         <v>276</v>
       </c>
-      <c r="EH2" t="s">
+      <c r="EI2" t="s">
         <v>277</v>
       </c>
-      <c r="EI2" t="s">
+      <c r="EJ2" t="s">
         <v>278</v>
       </c>
-      <c r="EJ2" t="s">
+      <c r="EK2" t="s">
         <v>279</v>
       </c>
-      <c r="EK2" t="s">
+      <c r="EL2" t="s">
         <v>280</v>
       </c>
-      <c r="EL2" t="s">
+      <c r="EM2" t="s">
         <v>281</v>
       </c>
-      <c r="EM2" t="s">
+      <c r="EN2" t="s">
         <v>282</v>
       </c>
-      <c r="EN2" t="s">
+      <c r="EO2" t="s">
         <v>283</v>
       </c>
-      <c r="EO2" t="s">
+      <c r="EP2" t="s">
         <v>284</v>
       </c>
-      <c r="EP2" t="s">
+      <c r="EQ2" t="s">
         <v>285</v>
       </c>
-      <c r="EQ2" t="s">
+      <c r="ER2" t="s">
         <v>286</v>
       </c>
-      <c r="ER2" t="s">
+      <c r="ES2" t="s">
         <v>287</v>
       </c>
-      <c r="ES2" s="18" t="s">
+      <c r="ET2" s="18" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="3" spans="1:149">
+    <row r="3" spans="1:150">
       <c r="A3" t="s">
         <v>26</v>
       </c>
@@ -7366,7 +7382,7 @@
         <v>-250</v>
       </c>
     </row>
-    <row r="4" spans="1:149">
+    <row r="4" spans="1:150">
       <c r="A4" t="s">
         <v>27</v>
       </c>
@@ -7375,7 +7391,7 @@
         <v>-1000</v>
       </c>
     </row>
-    <row r="5" spans="1:149">
+    <row r="5" spans="1:150">
       <c r="A5" t="s">
         <v>28</v>
       </c>
@@ -7384,7 +7400,7 @@
         <v>-1000</v>
       </c>
     </row>
-    <row r="6" spans="1:149">
+    <row r="6" spans="1:150">
       <c r="A6" t="s">
         <v>29</v>
       </c>
@@ -7393,7 +7409,7 @@
         <v>-1000</v>
       </c>
     </row>
-    <row r="7" spans="1:149">
+    <row r="7" spans="1:150">
       <c r="A7" t="s">
         <v>30</v>
       </c>
@@ -7406,7 +7422,7 @@
         <v>-250</v>
       </c>
     </row>
-    <row r="8" spans="1:149">
+    <row r="8" spans="1:150">
       <c r="A8" t="s">
         <v>31</v>
       </c>
@@ -7419,7 +7435,7 @@
         <v>-250</v>
       </c>
     </row>
-    <row r="9" spans="1:149">
+    <row r="9" spans="1:150">
       <c r="A9" t="s">
         <v>32</v>
       </c>
@@ -7432,7 +7448,7 @@
         <v>-250</v>
       </c>
     </row>
-    <row r="10" spans="1:149">
+    <row r="10" spans="1:150">
       <c r="A10" t="s">
         <v>33</v>
       </c>
@@ -7445,7 +7461,7 @@
         <v>-250</v>
       </c>
     </row>
-    <row r="11" spans="1:149">
+    <row r="11" spans="1:150">
       <c r="A11" t="s">
         <v>34</v>
       </c>
@@ -7458,7 +7474,7 @@
         <v>-250</v>
       </c>
     </row>
-    <row r="12" spans="1:149">
+    <row r="12" spans="1:150">
       <c r="A12" t="s">
         <v>35</v>
       </c>
@@ -7471,7 +7487,7 @@
         <v>-250</v>
       </c>
     </row>
-    <row r="13" spans="1:149">
+    <row r="13" spans="1:150">
       <c r="A13" t="s">
         <v>36</v>
       </c>
@@ -7484,7 +7500,7 @@
         <v>-250</v>
       </c>
     </row>
-    <row r="14" spans="1:149">
+    <row r="14" spans="1:150">
       <c r="A14" t="s">
         <v>37</v>
       </c>
@@ -7497,7 +7513,7 @@
         <v>-250</v>
       </c>
     </row>
-    <row r="15" spans="1:149">
+    <row r="15" spans="1:150">
       <c r="A15" t="s">
         <v>38</v>
       </c>
@@ -7510,7 +7526,7 @@
         <v>-250</v>
       </c>
     </row>
-    <row r="16" spans="1:149">
+    <row r="16" spans="1:150">
       <c r="A16" t="s">
         <v>39</v>
       </c>
@@ -7523,7 +7539,7 @@
         <v>-250</v>
       </c>
     </row>
-    <row r="17" spans="1:109">
+    <row r="17" spans="1:110">
       <c r="A17" t="s">
         <v>40</v>
       </c>
@@ -7536,7 +7552,7 @@
         <v>-250</v>
       </c>
     </row>
-    <row r="18" spans="1:109">
+    <row r="18" spans="1:110">
       <c r="A18" t="s">
         <v>41</v>
       </c>
@@ -7549,7 +7565,7 @@
         <v>-250</v>
       </c>
     </row>
-    <row r="19" spans="1:109">
+    <row r="19" spans="1:110">
       <c r="A19" t="s">
         <v>42</v>
       </c>
@@ -7562,7 +7578,7 @@
         <v>-250</v>
       </c>
     </row>
-    <row r="20" spans="1:109">
+    <row r="20" spans="1:110">
       <c r="A20" t="s">
         <v>43</v>
       </c>
@@ -7575,7 +7591,7 @@
         <v>-250</v>
       </c>
     </row>
-    <row r="21" spans="1:109">
+    <row r="21" spans="1:110">
       <c r="A21" t="s">
         <v>44</v>
       </c>
@@ -7588,7 +7604,7 @@
         <v>-250</v>
       </c>
     </row>
-    <row r="22" spans="1:109">
+    <row r="22" spans="1:110">
       <c r="A22" t="s">
         <v>45</v>
       </c>
@@ -7601,7 +7617,7 @@
         <v>-250</v>
       </c>
     </row>
-    <row r="23" spans="1:109">
+    <row r="23" spans="1:110">
       <c r="A23" t="s">
         <v>46</v>
       </c>
@@ -7614,7 +7630,7 @@
         <v>-250</v>
       </c>
     </row>
-    <row r="24" spans="1:109">
+    <row r="24" spans="1:110">
       <c r="A24" t="s">
         <v>47</v>
       </c>
@@ -7627,7 +7643,7 @@
         <v>-250</v>
       </c>
     </row>
-    <row r="25" spans="1:109">
+    <row r="25" spans="1:110">
       <c r="A25" t="s">
         <v>48</v>
       </c>
@@ -7640,7 +7656,7 @@
         <v>-250</v>
       </c>
     </row>
-    <row r="26" spans="1:109">
+    <row r="26" spans="1:110">
       <c r="A26" t="s">
         <v>49</v>
       </c>
@@ -7648,429 +7664,589 @@
         <f>-Constants!Y$17</f>
         <v>-1000</v>
       </c>
-    </row>
-    <row r="27" spans="1:109">
+      <c r="DF26">
+        <f>-Constants!AS16</f>
+        <v>-250</v>
+      </c>
+    </row>
+    <row r="27" spans="1:110">
       <c r="A27" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="28" spans="1:109">
+      <c r="CM27">
+        <f>-Constants!Z18</f>
+        <v>-500</v>
+      </c>
+    </row>
+    <row r="28" spans="1:110">
       <c r="A28" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="29" spans="1:109">
+      <c r="CN28">
+        <f>-Constants!AA18</f>
+        <v>-500</v>
+      </c>
+    </row>
+    <row r="29" spans="1:110">
       <c r="A29" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="30" spans="1:109">
+      <c r="CO29">
+        <f>-Constants!AB18</f>
+        <v>-500</v>
+      </c>
+    </row>
+    <row r="30" spans="1:110">
       <c r="A30" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="31" spans="1:109">
+      <c r="CP30">
+        <f>-Constants!AC18</f>
+        <v>-500</v>
+      </c>
+    </row>
+    <row r="31" spans="1:110">
       <c r="A31" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="32" spans="1:109">
+      <c r="CQ31">
+        <f>-Constants!AD18</f>
+        <v>-500</v>
+      </c>
+    </row>
+    <row r="32" spans="1:110">
       <c r="A32" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="33" spans="1:1">
+      <c r="CR32">
+        <f>-Constants!AE18</f>
+        <v>-500</v>
+      </c>
+    </row>
+    <row r="33" spans="1:132">
       <c r="A33" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="34" spans="1:1">
+      <c r="CS33">
+        <f>-Constants!AF18</f>
+        <v>-500</v>
+      </c>
+    </row>
+    <row r="34" spans="1:132">
       <c r="A34" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="35" spans="1:1">
+      <c r="CT34">
+        <f>-Constants!AG18</f>
+        <v>-500</v>
+      </c>
+    </row>
+    <row r="35" spans="1:132">
       <c r="A35" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="36" spans="1:1">
+      <c r="CU35">
+        <f>-Constants!AH18</f>
+        <v>-500</v>
+      </c>
+    </row>
+    <row r="36" spans="1:132">
       <c r="A36" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="37" spans="1:1">
+      <c r="CV36">
+        <f>-Constants!AI18</f>
+        <v>-500</v>
+      </c>
+    </row>
+    <row r="37" spans="1:132">
       <c r="A37" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="38" spans="1:1">
+      <c r="CW37">
+        <f>-Constants!AJ18</f>
+        <v>-500</v>
+      </c>
+    </row>
+    <row r="38" spans="1:132">
       <c r="A38" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="39" spans="1:1">
+      <c r="CX38">
+        <f>-Constants!AK18</f>
+        <v>-500</v>
+      </c>
+    </row>
+    <row r="39" spans="1:132">
       <c r="A39" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="40" spans="1:1">
+      <c r="CY39">
+        <f>-Constants!AL18</f>
+        <v>-500</v>
+      </c>
+    </row>
+    <row r="40" spans="1:132">
       <c r="A40" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="41" spans="1:1">
+      <c r="CZ40">
+        <f>-Constants!AM18</f>
+        <v>-500</v>
+      </c>
+    </row>
+    <row r="41" spans="1:132">
       <c r="A41" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="42" spans="1:1">
+      <c r="DA41">
+        <f>-Constants!AN18</f>
+        <v>-500</v>
+      </c>
+    </row>
+    <row r="42" spans="1:132">
       <c r="A42" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="43" spans="1:1">
+      <c r="DB42">
+        <f>-Constants!AO18</f>
+        <v>-500</v>
+      </c>
+    </row>
+    <row r="43" spans="1:132">
       <c r="A43" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="44" spans="1:1">
+      <c r="DC43">
+        <f>-Constants!AP18</f>
+        <v>-500</v>
+      </c>
+    </row>
+    <row r="44" spans="1:132">
       <c r="A44" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="45" spans="1:1">
+      <c r="DD44">
+        <f>-Constants!AQ18</f>
+        <v>-500</v>
+      </c>
+    </row>
+    <row r="45" spans="1:132">
       <c r="A45" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="46" spans="1:1">
+      <c r="DE45">
+        <f>-Constants!AR18</f>
+        <v>-500</v>
+      </c>
+    </row>
+    <row r="46" spans="1:132">
       <c r="A46" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="47" spans="1:1">
+      <c r="DF46">
+        <f>-Constants!AS18</f>
+        <v>-500</v>
+      </c>
+    </row>
+    <row r="47" spans="1:132">
       <c r="A47" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="48" spans="1:1">
+      <c r="EA47">
+        <f>-Constants!BN16</f>
+        <v>-250</v>
+      </c>
+    </row>
+    <row r="48" spans="1:132">
       <c r="A48" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="49" spans="1:1">
+      <c r="EB48">
+        <f>-Constants!BO16</f>
+        <v>-250</v>
+      </c>
+    </row>
+    <row r="49" spans="1:148">
       <c r="A49" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="50" spans="1:1">
+      <c r="EC49">
+        <f>-Constants!BP16</f>
+        <v>-250</v>
+      </c>
+    </row>
+    <row r="50" spans="1:148">
       <c r="A50" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="51" spans="1:1">
+      <c r="ED50">
+        <f>-Constants!BQ16</f>
+        <v>-250</v>
+      </c>
+    </row>
+    <row r="51" spans="1:148">
       <c r="A51" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="52" spans="1:1">
+      <c r="EE51">
+        <f>-Constants!BR16</f>
+        <v>-250</v>
+      </c>
+    </row>
+    <row r="52" spans="1:148">
       <c r="A52" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="53" spans="1:1">
+      <c r="EF52">
+        <f>-Constants!BS16</f>
+        <v>-250</v>
+      </c>
+    </row>
+    <row r="53" spans="1:148">
       <c r="A53" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="54" spans="1:1">
+      <c r="EG53">
+        <f>-Constants!BT16</f>
+        <v>-250</v>
+      </c>
+    </row>
+    <row r="54" spans="1:148">
       <c r="A54" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="55" spans="1:1">
+      <c r="EH54">
+        <f>-Constants!BU16</f>
+        <v>-250</v>
+      </c>
+    </row>
+    <row r="55" spans="1:148">
       <c r="A55" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="56" spans="1:1">
+      <c r="EI55">
+        <f>-Constants!BV16</f>
+        <v>-250</v>
+      </c>
+    </row>
+    <row r="56" spans="1:148">
       <c r="A56" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="57" spans="1:1">
+      <c r="EJ56">
+        <f>-Constants!BW16</f>
+        <v>-250</v>
+      </c>
+    </row>
+    <row r="57" spans="1:148">
       <c r="A57" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="58" spans="1:1">
+      <c r="EK57">
+        <f>-Constants!BX16</f>
+        <v>-250</v>
+      </c>
+    </row>
+    <row r="58" spans="1:148">
       <c r="A58" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="59" spans="1:1">
+      <c r="EL58">
+        <f>-Constants!BY16</f>
+        <v>-250</v>
+      </c>
+    </row>
+    <row r="59" spans="1:148">
       <c r="A59" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="60" spans="1:1">
+      <c r="EM59">
+        <f>-Constants!BZ16</f>
+        <v>-250</v>
+      </c>
+    </row>
+    <row r="60" spans="1:148">
       <c r="A60" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="61" spans="1:1">
+      <c r="EN60">
+        <f>-Constants!CA16</f>
+        <v>-250</v>
+      </c>
+    </row>
+    <row r="61" spans="1:148">
       <c r="A61" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="62" spans="1:1">
+      <c r="EO61">
+        <f>-Constants!CB16</f>
+        <v>-250</v>
+      </c>
+    </row>
+    <row r="62" spans="1:148">
       <c r="A62" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="63" spans="1:1">
+      <c r="EP62">
+        <f>-Constants!CC16</f>
+        <v>-250</v>
+      </c>
+    </row>
+    <row r="63" spans="1:148">
       <c r="A63" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="64" spans="1:1">
+      <c r="EQ63">
+        <f>-Constants!CD16</f>
+        <v>-250</v>
+      </c>
+    </row>
+    <row r="64" spans="1:148">
       <c r="A64" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="65" spans="1:142">
+      <c r="ER64">
+        <f>-Constants!CE16</f>
+        <v>-250</v>
+      </c>
+    </row>
+    <row r="65" spans="1:149">
       <c r="A65" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="66" spans="1:142">
+      <c r="ES65">
+        <f>-Constants!CF16</f>
+        <v>-250</v>
+      </c>
+    </row>
+    <row r="66" spans="1:149">
       <c r="A66" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="67" spans="1:142">
+    <row r="67" spans="1:149">
       <c r="A67" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="68" spans="1:142">
+      <c r="EA67">
+        <f>-Constants!BN18</f>
+        <v>-500</v>
+      </c>
+    </row>
+    <row r="68" spans="1:149">
       <c r="A68" t="s">
         <v>91</v>
       </c>
-      <c r="DZ68">
-        <f>-Constants!Z18</f>
+      <c r="EB68">
+        <f>-Constants!BO18</f>
         <v>-500</v>
       </c>
     </row>
-    <row r="69" spans="1:142">
+    <row r="69" spans="1:149">
       <c r="A69" t="s">
         <v>93</v>
       </c>
-      <c r="EA69">
-        <f>-Constants!AA18</f>
+      <c r="EC69">
+        <f>-Constants!BP18</f>
         <v>-500</v>
       </c>
     </row>
-    <row r="70" spans="1:142">
+    <row r="70" spans="1:149">
       <c r="A70" t="s">
         <v>94</v>
       </c>
-      <c r="EB70">
-        <f>-Constants!AB18</f>
+      <c r="ED70">
+        <f>-Constants!BQ18</f>
         <v>-500</v>
       </c>
     </row>
-    <row r="71" spans="1:142">
+    <row r="71" spans="1:149">
       <c r="A71" t="s">
         <v>289</v>
       </c>
-      <c r="EC71">
-        <f>-Constants!AC18</f>
+      <c r="EE71">
+        <f>-Constants!BR18</f>
         <v>-500</v>
       </c>
     </row>
-    <row r="72" spans="1:142">
+    <row r="72" spans="1:149">
       <c r="A72" t="s">
         <v>290</v>
       </c>
-      <c r="ED72">
-        <f>-Constants!AD18</f>
+      <c r="EF72">
+        <f>-Constants!BS18</f>
         <v>-500</v>
       </c>
     </row>
-    <row r="73" spans="1:142">
+    <row r="73" spans="1:149">
       <c r="A73" t="s">
         <v>291</v>
       </c>
-      <c r="EE73">
-        <f>-Constants!AE18</f>
+      <c r="EG73">
+        <f>-Constants!BT18</f>
         <v>-500</v>
       </c>
     </row>
-    <row r="74" spans="1:142">
+    <row r="74" spans="1:149">
       <c r="A74" t="s">
         <v>292</v>
       </c>
-      <c r="EF74">
-        <f>-Constants!AF18</f>
+      <c r="EH74">
+        <f>-Constants!BU18</f>
         <v>-500</v>
       </c>
     </row>
-    <row r="75" spans="1:142">
+    <row r="75" spans="1:149">
       <c r="A75" t="s">
         <v>293</v>
       </c>
-      <c r="EG75">
-        <f>-Constants!AG18</f>
+      <c r="EI75">
+        <f>-Constants!BV18</f>
         <v>-500</v>
       </c>
     </row>
-    <row r="76" spans="1:142">
+    <row r="76" spans="1:149">
       <c r="A76" t="s">
         <v>294</v>
       </c>
-      <c r="EH76">
-        <f>-Constants!AH18</f>
+      <c r="EJ76">
+        <f>-Constants!BW18</f>
         <v>-500</v>
       </c>
     </row>
-    <row r="77" spans="1:142">
+    <row r="77" spans="1:149">
       <c r="A77" t="s">
         <v>295</v>
       </c>
-      <c r="EI77">
-        <f>-Constants!AI18</f>
+      <c r="EK77">
+        <f>-Constants!BX18</f>
         <v>-500</v>
       </c>
     </row>
-    <row r="78" spans="1:142">
+    <row r="78" spans="1:149">
       <c r="A78" t="s">
         <v>296</v>
       </c>
-      <c r="EJ78">
-        <f>-Constants!AJ18</f>
+      <c r="EL78">
+        <f>-Constants!BY18</f>
         <v>-500</v>
       </c>
     </row>
-    <row r="79" spans="1:142">
+    <row r="79" spans="1:149">
       <c r="A79" t="s">
         <v>297</v>
       </c>
-      <c r="EK79">
-        <f>-Constants!AK18</f>
+      <c r="EM79">
+        <f>-Constants!BZ18</f>
         <v>-500</v>
       </c>
     </row>
-    <row r="80" spans="1:142">
+    <row r="80" spans="1:149">
       <c r="A80" t="s">
         <v>298</v>
       </c>
-      <c r="EL80">
-        <f>-Constants!AL18</f>
+      <c r="EN80">
+        <f>-Constants!CA18</f>
         <v>-500</v>
       </c>
     </row>
-    <row r="81" spans="1:148">
+    <row r="81" spans="1:149">
       <c r="A81" t="s">
         <v>299</v>
       </c>
-      <c r="EM81">
-        <f>-Constants!AM18</f>
+      <c r="EO81">
+        <f>-Constants!CB18</f>
         <v>-500</v>
       </c>
     </row>
-    <row r="82" spans="1:148">
+    <row r="82" spans="1:149">
       <c r="A82" t="s">
         <v>300</v>
       </c>
-      <c r="EN82">
-        <f>-Constants!AN18</f>
+      <c r="EP82">
+        <f>-Constants!CC18</f>
         <v>-500</v>
       </c>
     </row>
-    <row r="83" spans="1:148">
+    <row r="83" spans="1:149">
       <c r="A83" t="s">
         <v>301</v>
       </c>
-      <c r="EO83">
-        <f>-Constants!AO18</f>
+      <c r="EQ83">
+        <f>-Constants!CD18</f>
         <v>-500</v>
       </c>
     </row>
-    <row r="84" spans="1:148">
+    <row r="84" spans="1:149">
       <c r="A84" t="s">
         <v>302</v>
       </c>
-      <c r="EP84">
-        <f>-Constants!AP18</f>
+      <c r="ER84">
+        <f>-Constants!CE18</f>
         <v>-500</v>
       </c>
     </row>
-    <row r="85" spans="1:148">
+    <row r="85" spans="1:149">
       <c r="A85" t="s">
         <v>303</v>
       </c>
-      <c r="EQ85">
-        <f>-Constants!AQ18</f>
+      <c r="ES85">
+        <f>-Constants!CF18</f>
         <v>-500</v>
       </c>
     </row>
-    <row r="86" spans="1:148">
+    <row r="86" spans="1:149">
       <c r="A86" t="s">
         <v>304</v>
       </c>
-      <c r="ER86">
-        <f>-Constants!AR18</f>
-        <v>-500</v>
-      </c>
-    </row>
-    <row r="87" spans="1:148">
+    </row>
+    <row r="87" spans="1:149">
       <c r="A87" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="88" spans="1:148">
+    <row r="88" spans="1:149">
       <c r="A88" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="89" spans="1:148">
+    <row r="89" spans="1:149">
       <c r="A89" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="90" spans="1:148">
+    <row r="90" spans="1:149">
       <c r="A90" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="91" spans="1:148">
+    <row r="91" spans="1:149">
       <c r="A91" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="92" spans="1:148">
+    <row r="92" spans="1:149">
       <c r="A92" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="93" spans="1:148">
+    <row r="93" spans="1:149">
       <c r="A93" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="94" spans="1:148">
+    <row r="94" spans="1:149">
       <c r="A94" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="95" spans="1:148">
+    <row r="95" spans="1:149">
       <c r="A95" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="96" spans="1:148">
+    <row r="96" spans="1:149">
       <c r="A96" t="s">
         <v>314</v>
       </c>
@@ -8360,8 +8536,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B150"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="D73" sqref="D73"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="B87" sqref="B87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -8948,8 +9124,8 @@
         <v>89</v>
       </c>
       <c r="B66">
-        <f>INDEX(Constants!$B$13:$CG$13,1,ROW(A66)-2)+INDEX(Constants!$B$14:$CG$14,1,ROW(A66)-2)*Constants!$B$4*Constants!$E$4</f>
-        <v>0</v>
+        <f>INDEX(Constants!$B$13:$CG$13,1,ROW(A66)-2)+INDEX(Constants!$B$14:$CG$14,1,ROW(A66)-2)*Constants!$B$4*Constants!$E$4-Constants!CG16*Constants!B4*Constants!CG15^2</f>
+        <v>-1.2309497294707038E-5</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -9128,8 +9304,8 @@
         <v>304</v>
       </c>
       <c r="B86" s="19">
-        <f>INDEX(Constants!$B$13:$CG$13,1,ROW(A86)-2)+INDEX(Constants!$B$14:$CG$14,1,ROW(A86)-2)*Constants!$B$4*Constants!$E$4+Constants!B4*Constants!CG18*Constants!CG15^2</f>
-        <v>-87611.599975381017</v>
+        <f>INDEX(Constants!$B$13:$CG$13,1,ROW(A86)-2)+INDEX(Constants!$B$14:$CG$14,1,ROW(A86)-2)*Constants!$B$4*Constants!$E$4-Constants!B4*Constants!CG18*Constants!CG15^2</f>
+        <v>-87611.600024618994</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -9660,7 +9836,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C69"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A31" workbookViewId="0">
       <selection activeCell="C69" sqref="C69"/>
     </sheetView>
   </sheetViews>
